--- a/TVHS_Data_test/21-9_27-9_2015/21-9_27-9_2015.xlsx
+++ b/TVHS_Data_test/21-9_27-9_2015/21-9_27-9_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$J$136</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="113">
   <si>
     <t xml:space="preserve">LỊCH PHÁT SÓNG QUẢNG CÁO TRÊN SCTV10 </t>
   </si>
@@ -325,17 +328,49 @@
   </si>
   <si>
     <t>BAN BIÊN TẬP THC VTV</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Not real</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +507,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -601,14 +649,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,14 +917,8 @@
     <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,9 +931,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,9 +953,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,8 +972,63 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma 4" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -976,6 +1068,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1024,7 +1119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,7 +1154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,941 +1363,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV169"/>
+  <dimension ref="A1:IY169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="15" style="106" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" style="114" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="115" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="113" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" style="120" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="21.7109375" style="3" customWidth="1"/>
-    <col min="16" max="256" width="9.140625" style="3"/>
-    <col min="257" max="257" width="7.140625" style="3" customWidth="1"/>
-    <col min="258" max="258" width="15" style="3" customWidth="1"/>
-    <col min="259" max="259" width="59.28515625" style="3" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="3" customWidth="1"/>
-    <col min="261" max="261" width="18.7109375" style="3" customWidth="1"/>
-    <col min="262" max="262" width="93.7109375" style="3" customWidth="1"/>
-    <col min="263" max="263" width="12.140625" style="3" customWidth="1"/>
-    <col min="264" max="264" width="12.5703125" style="3" customWidth="1"/>
-    <col min="265" max="265" width="11.42578125" style="3" customWidth="1"/>
-    <col min="266" max="266" width="11.7109375" style="3" customWidth="1"/>
-    <col min="267" max="267" width="15.42578125" style="3" customWidth="1"/>
-    <col min="268" max="270" width="9.140625" style="3"/>
-    <col min="271" max="271" width="21.7109375" style="3" customWidth="1"/>
-    <col min="272" max="512" width="9.140625" style="3"/>
-    <col min="513" max="513" width="7.140625" style="3" customWidth="1"/>
-    <col min="514" max="514" width="15" style="3" customWidth="1"/>
-    <col min="515" max="515" width="59.28515625" style="3" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="3" customWidth="1"/>
-    <col min="517" max="517" width="18.7109375" style="3" customWidth="1"/>
-    <col min="518" max="518" width="93.7109375" style="3" customWidth="1"/>
-    <col min="519" max="519" width="12.140625" style="3" customWidth="1"/>
-    <col min="520" max="520" width="12.5703125" style="3" customWidth="1"/>
-    <col min="521" max="521" width="11.42578125" style="3" customWidth="1"/>
-    <col min="522" max="522" width="11.7109375" style="3" customWidth="1"/>
-    <col min="523" max="523" width="15.42578125" style="3" customWidth="1"/>
-    <col min="524" max="526" width="9.140625" style="3"/>
-    <col min="527" max="527" width="21.7109375" style="3" customWidth="1"/>
-    <col min="528" max="768" width="9.140625" style="3"/>
-    <col min="769" max="769" width="7.140625" style="3" customWidth="1"/>
-    <col min="770" max="770" width="15" style="3" customWidth="1"/>
-    <col min="771" max="771" width="59.28515625" style="3" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="3" customWidth="1"/>
-    <col min="773" max="773" width="18.7109375" style="3" customWidth="1"/>
-    <col min="774" max="774" width="93.7109375" style="3" customWidth="1"/>
-    <col min="775" max="775" width="12.140625" style="3" customWidth="1"/>
-    <col min="776" max="776" width="12.5703125" style="3" customWidth="1"/>
-    <col min="777" max="777" width="11.42578125" style="3" customWidth="1"/>
-    <col min="778" max="778" width="11.7109375" style="3" customWidth="1"/>
-    <col min="779" max="779" width="15.42578125" style="3" customWidth="1"/>
-    <col min="780" max="782" width="9.140625" style="3"/>
-    <col min="783" max="783" width="21.7109375" style="3" customWidth="1"/>
-    <col min="784" max="1024" width="9.140625" style="3"/>
-    <col min="1025" max="1025" width="7.140625" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="15" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="59.28515625" style="3" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="3" customWidth="1"/>
-    <col min="1029" max="1029" width="18.7109375" style="3" customWidth="1"/>
-    <col min="1030" max="1030" width="93.7109375" style="3" customWidth="1"/>
-    <col min="1031" max="1031" width="12.140625" style="3" customWidth="1"/>
-    <col min="1032" max="1032" width="12.5703125" style="3" customWidth="1"/>
-    <col min="1033" max="1033" width="11.42578125" style="3" customWidth="1"/>
-    <col min="1034" max="1034" width="11.7109375" style="3" customWidth="1"/>
-    <col min="1035" max="1035" width="15.42578125" style="3" customWidth="1"/>
-    <col min="1036" max="1038" width="9.140625" style="3"/>
-    <col min="1039" max="1039" width="21.7109375" style="3" customWidth="1"/>
-    <col min="1040" max="1280" width="9.140625" style="3"/>
-    <col min="1281" max="1281" width="7.140625" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="15" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="59.28515625" style="3" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="3" customWidth="1"/>
-    <col min="1285" max="1285" width="18.7109375" style="3" customWidth="1"/>
-    <col min="1286" max="1286" width="93.7109375" style="3" customWidth="1"/>
-    <col min="1287" max="1287" width="12.140625" style="3" customWidth="1"/>
-    <col min="1288" max="1288" width="12.5703125" style="3" customWidth="1"/>
-    <col min="1289" max="1289" width="11.42578125" style="3" customWidth="1"/>
-    <col min="1290" max="1290" width="11.7109375" style="3" customWidth="1"/>
-    <col min="1291" max="1291" width="15.42578125" style="3" customWidth="1"/>
-    <col min="1292" max="1294" width="9.140625" style="3"/>
-    <col min="1295" max="1295" width="21.7109375" style="3" customWidth="1"/>
-    <col min="1296" max="1536" width="9.140625" style="3"/>
-    <col min="1537" max="1537" width="7.140625" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="15" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="59.28515625" style="3" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="3" customWidth="1"/>
-    <col min="1541" max="1541" width="18.7109375" style="3" customWidth="1"/>
-    <col min="1542" max="1542" width="93.7109375" style="3" customWidth="1"/>
-    <col min="1543" max="1543" width="12.140625" style="3" customWidth="1"/>
-    <col min="1544" max="1544" width="12.5703125" style="3" customWidth="1"/>
-    <col min="1545" max="1545" width="11.42578125" style="3" customWidth="1"/>
-    <col min="1546" max="1546" width="11.7109375" style="3" customWidth="1"/>
-    <col min="1547" max="1547" width="15.42578125" style="3" customWidth="1"/>
-    <col min="1548" max="1550" width="9.140625" style="3"/>
-    <col min="1551" max="1551" width="21.7109375" style="3" customWidth="1"/>
-    <col min="1552" max="1792" width="9.140625" style="3"/>
-    <col min="1793" max="1793" width="7.140625" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="15" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="59.28515625" style="3" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="3" customWidth="1"/>
-    <col min="1797" max="1797" width="18.7109375" style="3" customWidth="1"/>
-    <col min="1798" max="1798" width="93.7109375" style="3" customWidth="1"/>
-    <col min="1799" max="1799" width="12.140625" style="3" customWidth="1"/>
-    <col min="1800" max="1800" width="12.5703125" style="3" customWidth="1"/>
-    <col min="1801" max="1801" width="11.42578125" style="3" customWidth="1"/>
-    <col min="1802" max="1802" width="11.7109375" style="3" customWidth="1"/>
-    <col min="1803" max="1803" width="15.42578125" style="3" customWidth="1"/>
-    <col min="1804" max="1806" width="9.140625" style="3"/>
-    <col min="1807" max="1807" width="21.7109375" style="3" customWidth="1"/>
-    <col min="1808" max="2048" width="9.140625" style="3"/>
-    <col min="2049" max="2049" width="7.140625" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="15" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="59.28515625" style="3" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="3" customWidth="1"/>
-    <col min="2053" max="2053" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2054" max="2054" width="93.7109375" style="3" customWidth="1"/>
-    <col min="2055" max="2055" width="12.140625" style="3" customWidth="1"/>
-    <col min="2056" max="2056" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2057" max="2057" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2058" max="2058" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2059" max="2059" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2060" max="2062" width="9.140625" style="3"/>
-    <col min="2063" max="2063" width="21.7109375" style="3" customWidth="1"/>
-    <col min="2064" max="2304" width="9.140625" style="3"/>
-    <col min="2305" max="2305" width="7.140625" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="15" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="59.28515625" style="3" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="3" customWidth="1"/>
-    <col min="2309" max="2309" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2310" max="2310" width="93.7109375" style="3" customWidth="1"/>
-    <col min="2311" max="2311" width="12.140625" style="3" customWidth="1"/>
-    <col min="2312" max="2312" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2313" max="2313" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2314" max="2314" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2315" max="2315" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2316" max="2318" width="9.140625" style="3"/>
-    <col min="2319" max="2319" width="21.7109375" style="3" customWidth="1"/>
-    <col min="2320" max="2560" width="9.140625" style="3"/>
-    <col min="2561" max="2561" width="7.140625" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="15" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="59.28515625" style="3" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="3" customWidth="1"/>
-    <col min="2565" max="2565" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2566" max="2566" width="93.7109375" style="3" customWidth="1"/>
-    <col min="2567" max="2567" width="12.140625" style="3" customWidth="1"/>
-    <col min="2568" max="2568" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2569" max="2569" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2570" max="2570" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2571" max="2571" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2572" max="2574" width="9.140625" style="3"/>
-    <col min="2575" max="2575" width="21.7109375" style="3" customWidth="1"/>
-    <col min="2576" max="2816" width="9.140625" style="3"/>
-    <col min="2817" max="2817" width="7.140625" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="15" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="59.28515625" style="3" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="3" customWidth="1"/>
-    <col min="2821" max="2821" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2822" max="2822" width="93.7109375" style="3" customWidth="1"/>
-    <col min="2823" max="2823" width="12.140625" style="3" customWidth="1"/>
-    <col min="2824" max="2824" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2825" max="2825" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2826" max="2826" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2827" max="2827" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2828" max="2830" width="9.140625" style="3"/>
-    <col min="2831" max="2831" width="21.7109375" style="3" customWidth="1"/>
-    <col min="2832" max="3072" width="9.140625" style="3"/>
-    <col min="3073" max="3073" width="7.140625" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="15" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="59.28515625" style="3" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="3" customWidth="1"/>
-    <col min="3077" max="3077" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3078" max="3078" width="93.7109375" style="3" customWidth="1"/>
-    <col min="3079" max="3079" width="12.140625" style="3" customWidth="1"/>
-    <col min="3080" max="3080" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3081" max="3081" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3082" max="3082" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3083" max="3083" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3084" max="3086" width="9.140625" style="3"/>
-    <col min="3087" max="3087" width="21.7109375" style="3" customWidth="1"/>
-    <col min="3088" max="3328" width="9.140625" style="3"/>
-    <col min="3329" max="3329" width="7.140625" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="15" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="59.28515625" style="3" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="3" customWidth="1"/>
-    <col min="3333" max="3333" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3334" max="3334" width="93.7109375" style="3" customWidth="1"/>
-    <col min="3335" max="3335" width="12.140625" style="3" customWidth="1"/>
-    <col min="3336" max="3336" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3337" max="3337" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3338" max="3338" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3339" max="3339" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3340" max="3342" width="9.140625" style="3"/>
-    <col min="3343" max="3343" width="21.7109375" style="3" customWidth="1"/>
-    <col min="3344" max="3584" width="9.140625" style="3"/>
-    <col min="3585" max="3585" width="7.140625" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="15" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="59.28515625" style="3" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="3" customWidth="1"/>
-    <col min="3589" max="3589" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3590" max="3590" width="93.7109375" style="3" customWidth="1"/>
-    <col min="3591" max="3591" width="12.140625" style="3" customWidth="1"/>
-    <col min="3592" max="3592" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3593" max="3593" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3594" max="3594" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3595" max="3595" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3596" max="3598" width="9.140625" style="3"/>
-    <col min="3599" max="3599" width="21.7109375" style="3" customWidth="1"/>
-    <col min="3600" max="3840" width="9.140625" style="3"/>
-    <col min="3841" max="3841" width="7.140625" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="15" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="59.28515625" style="3" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="3" customWidth="1"/>
-    <col min="3845" max="3845" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3846" max="3846" width="93.7109375" style="3" customWidth="1"/>
-    <col min="3847" max="3847" width="12.140625" style="3" customWidth="1"/>
-    <col min="3848" max="3848" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3849" max="3849" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3850" max="3850" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3851" max="3851" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3852" max="3854" width="9.140625" style="3"/>
-    <col min="3855" max="3855" width="21.7109375" style="3" customWidth="1"/>
-    <col min="3856" max="4096" width="9.140625" style="3"/>
-    <col min="4097" max="4097" width="7.140625" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="15" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="59.28515625" style="3" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="3" customWidth="1"/>
-    <col min="4101" max="4101" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4102" max="4102" width="93.7109375" style="3" customWidth="1"/>
-    <col min="4103" max="4103" width="12.140625" style="3" customWidth="1"/>
-    <col min="4104" max="4104" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4105" max="4105" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4106" max="4106" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4107" max="4107" width="15.42578125" style="3" customWidth="1"/>
-    <col min="4108" max="4110" width="9.140625" style="3"/>
-    <col min="4111" max="4111" width="21.7109375" style="3" customWidth="1"/>
-    <col min="4112" max="4352" width="9.140625" style="3"/>
-    <col min="4353" max="4353" width="7.140625" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="15" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="59.28515625" style="3" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="3" customWidth="1"/>
-    <col min="4357" max="4357" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4358" max="4358" width="93.7109375" style="3" customWidth="1"/>
-    <col min="4359" max="4359" width="12.140625" style="3" customWidth="1"/>
-    <col min="4360" max="4360" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4361" max="4361" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4362" max="4362" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4363" max="4363" width="15.42578125" style="3" customWidth="1"/>
-    <col min="4364" max="4366" width="9.140625" style="3"/>
-    <col min="4367" max="4367" width="21.7109375" style="3" customWidth="1"/>
-    <col min="4368" max="4608" width="9.140625" style="3"/>
-    <col min="4609" max="4609" width="7.140625" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="15" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="59.28515625" style="3" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="3" customWidth="1"/>
-    <col min="4613" max="4613" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4614" max="4614" width="93.7109375" style="3" customWidth="1"/>
-    <col min="4615" max="4615" width="12.140625" style="3" customWidth="1"/>
-    <col min="4616" max="4616" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4617" max="4617" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4618" max="4618" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4619" max="4619" width="15.42578125" style="3" customWidth="1"/>
-    <col min="4620" max="4622" width="9.140625" style="3"/>
-    <col min="4623" max="4623" width="21.7109375" style="3" customWidth="1"/>
-    <col min="4624" max="4864" width="9.140625" style="3"/>
-    <col min="4865" max="4865" width="7.140625" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="15" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="59.28515625" style="3" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="3" customWidth="1"/>
-    <col min="4869" max="4869" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4870" max="4870" width="93.7109375" style="3" customWidth="1"/>
-    <col min="4871" max="4871" width="12.140625" style="3" customWidth="1"/>
-    <col min="4872" max="4872" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4873" max="4873" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4874" max="4874" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4875" max="4875" width="15.42578125" style="3" customWidth="1"/>
-    <col min="4876" max="4878" width="9.140625" style="3"/>
-    <col min="4879" max="4879" width="21.7109375" style="3" customWidth="1"/>
-    <col min="4880" max="5120" width="9.140625" style="3"/>
-    <col min="5121" max="5121" width="7.140625" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="15" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="59.28515625" style="3" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="3" customWidth="1"/>
-    <col min="5125" max="5125" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5126" max="5126" width="93.7109375" style="3" customWidth="1"/>
-    <col min="5127" max="5127" width="12.140625" style="3" customWidth="1"/>
-    <col min="5128" max="5128" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5129" max="5129" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5130" max="5130" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5131" max="5131" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5132" max="5134" width="9.140625" style="3"/>
-    <col min="5135" max="5135" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5136" max="5376" width="9.140625" style="3"/>
-    <col min="5377" max="5377" width="7.140625" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="15" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="59.28515625" style="3" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="3" customWidth="1"/>
-    <col min="5381" max="5381" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5382" max="5382" width="93.7109375" style="3" customWidth="1"/>
-    <col min="5383" max="5383" width="12.140625" style="3" customWidth="1"/>
-    <col min="5384" max="5384" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5385" max="5385" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5386" max="5386" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5387" max="5387" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5388" max="5390" width="9.140625" style="3"/>
-    <col min="5391" max="5391" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5392" max="5632" width="9.140625" style="3"/>
-    <col min="5633" max="5633" width="7.140625" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="15" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="59.28515625" style="3" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="3" customWidth="1"/>
-    <col min="5637" max="5637" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5638" max="5638" width="93.7109375" style="3" customWidth="1"/>
-    <col min="5639" max="5639" width="12.140625" style="3" customWidth="1"/>
-    <col min="5640" max="5640" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5641" max="5641" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5642" max="5642" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5643" max="5643" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5644" max="5646" width="9.140625" style="3"/>
-    <col min="5647" max="5647" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5648" max="5888" width="9.140625" style="3"/>
-    <col min="5889" max="5889" width="7.140625" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="15" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="59.28515625" style="3" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="3" customWidth="1"/>
-    <col min="5893" max="5893" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5894" max="5894" width="93.7109375" style="3" customWidth="1"/>
-    <col min="5895" max="5895" width="12.140625" style="3" customWidth="1"/>
-    <col min="5896" max="5896" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5897" max="5897" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5898" max="5898" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5899" max="5899" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5900" max="5902" width="9.140625" style="3"/>
-    <col min="5903" max="5903" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5904" max="6144" width="9.140625" style="3"/>
-    <col min="6145" max="6145" width="7.140625" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="15" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="59.28515625" style="3" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="3" customWidth="1"/>
-    <col min="6149" max="6149" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6150" max="6150" width="93.7109375" style="3" customWidth="1"/>
-    <col min="6151" max="6151" width="12.140625" style="3" customWidth="1"/>
-    <col min="6152" max="6152" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6153" max="6153" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6154" max="6154" width="11.7109375" style="3" customWidth="1"/>
-    <col min="6155" max="6155" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6156" max="6158" width="9.140625" style="3"/>
-    <col min="6159" max="6159" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6160" max="6400" width="9.140625" style="3"/>
-    <col min="6401" max="6401" width="7.140625" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="15" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="59.28515625" style="3" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="3" customWidth="1"/>
-    <col min="6405" max="6405" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6406" max="6406" width="93.7109375" style="3" customWidth="1"/>
-    <col min="6407" max="6407" width="12.140625" style="3" customWidth="1"/>
-    <col min="6408" max="6408" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6409" max="6409" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6410" max="6410" width="11.7109375" style="3" customWidth="1"/>
-    <col min="6411" max="6411" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6412" max="6414" width="9.140625" style="3"/>
-    <col min="6415" max="6415" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6416" max="6656" width="9.140625" style="3"/>
-    <col min="6657" max="6657" width="7.140625" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="15" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="59.28515625" style="3" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="3" customWidth="1"/>
-    <col min="6661" max="6661" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6662" max="6662" width="93.7109375" style="3" customWidth="1"/>
-    <col min="6663" max="6663" width="12.140625" style="3" customWidth="1"/>
-    <col min="6664" max="6664" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6665" max="6665" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6666" max="6666" width="11.7109375" style="3" customWidth="1"/>
-    <col min="6667" max="6667" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6668" max="6670" width="9.140625" style="3"/>
-    <col min="6671" max="6671" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6672" max="6912" width="9.140625" style="3"/>
-    <col min="6913" max="6913" width="7.140625" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="15" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="59.28515625" style="3" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="3" customWidth="1"/>
-    <col min="6917" max="6917" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6918" max="6918" width="93.7109375" style="3" customWidth="1"/>
-    <col min="6919" max="6919" width="12.140625" style="3" customWidth="1"/>
-    <col min="6920" max="6920" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6921" max="6921" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6922" max="6922" width="11.7109375" style="3" customWidth="1"/>
-    <col min="6923" max="6923" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6924" max="6926" width="9.140625" style="3"/>
-    <col min="6927" max="6927" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6928" max="7168" width="9.140625" style="3"/>
-    <col min="7169" max="7169" width="7.140625" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="15" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="59.28515625" style="3" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="3" customWidth="1"/>
-    <col min="7173" max="7173" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7174" max="7174" width="93.7109375" style="3" customWidth="1"/>
-    <col min="7175" max="7175" width="12.140625" style="3" customWidth="1"/>
-    <col min="7176" max="7176" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7177" max="7177" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7178" max="7178" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7179" max="7179" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7180" max="7182" width="9.140625" style="3"/>
-    <col min="7183" max="7183" width="21.7109375" style="3" customWidth="1"/>
-    <col min="7184" max="7424" width="9.140625" style="3"/>
-    <col min="7425" max="7425" width="7.140625" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="15" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="59.28515625" style="3" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="3" customWidth="1"/>
-    <col min="7429" max="7429" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7430" max="7430" width="93.7109375" style="3" customWidth="1"/>
-    <col min="7431" max="7431" width="12.140625" style="3" customWidth="1"/>
-    <col min="7432" max="7432" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7433" max="7433" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7434" max="7434" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7435" max="7435" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7436" max="7438" width="9.140625" style="3"/>
-    <col min="7439" max="7439" width="21.7109375" style="3" customWidth="1"/>
-    <col min="7440" max="7680" width="9.140625" style="3"/>
-    <col min="7681" max="7681" width="7.140625" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="15" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="59.28515625" style="3" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="3" customWidth="1"/>
-    <col min="7685" max="7685" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7686" max="7686" width="93.7109375" style="3" customWidth="1"/>
-    <col min="7687" max="7687" width="12.140625" style="3" customWidth="1"/>
-    <col min="7688" max="7688" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7689" max="7689" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7690" max="7690" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7691" max="7691" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7692" max="7694" width="9.140625" style="3"/>
-    <col min="7695" max="7695" width="21.7109375" style="3" customWidth="1"/>
-    <col min="7696" max="7936" width="9.140625" style="3"/>
-    <col min="7937" max="7937" width="7.140625" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="15" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="59.28515625" style="3" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="3" customWidth="1"/>
-    <col min="7941" max="7941" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7942" max="7942" width="93.7109375" style="3" customWidth="1"/>
-    <col min="7943" max="7943" width="12.140625" style="3" customWidth="1"/>
-    <col min="7944" max="7944" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7945" max="7945" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7946" max="7946" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7947" max="7947" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7948" max="7950" width="9.140625" style="3"/>
-    <col min="7951" max="7951" width="21.7109375" style="3" customWidth="1"/>
-    <col min="7952" max="8192" width="9.140625" style="3"/>
-    <col min="8193" max="8193" width="7.140625" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="15" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="59.28515625" style="3" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="3" customWidth="1"/>
-    <col min="8197" max="8197" width="18.7109375" style="3" customWidth="1"/>
-    <col min="8198" max="8198" width="93.7109375" style="3" customWidth="1"/>
-    <col min="8199" max="8199" width="12.140625" style="3" customWidth="1"/>
-    <col min="8200" max="8200" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8201" max="8201" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8202" max="8202" width="11.7109375" style="3" customWidth="1"/>
-    <col min="8203" max="8203" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8204" max="8206" width="9.140625" style="3"/>
-    <col min="8207" max="8207" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8208" max="8448" width="9.140625" style="3"/>
-    <col min="8449" max="8449" width="7.140625" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="15" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="59.28515625" style="3" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="3" customWidth="1"/>
-    <col min="8453" max="8453" width="18.7109375" style="3" customWidth="1"/>
-    <col min="8454" max="8454" width="93.7109375" style="3" customWidth="1"/>
-    <col min="8455" max="8455" width="12.140625" style="3" customWidth="1"/>
-    <col min="8456" max="8456" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8457" max="8457" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8458" max="8458" width="11.7109375" style="3" customWidth="1"/>
-    <col min="8459" max="8459" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8460" max="8462" width="9.140625" style="3"/>
-    <col min="8463" max="8463" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8464" max="8704" width="9.140625" style="3"/>
-    <col min="8705" max="8705" width="7.140625" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="15" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="59.28515625" style="3" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="3" customWidth="1"/>
-    <col min="8709" max="8709" width="18.7109375" style="3" customWidth="1"/>
-    <col min="8710" max="8710" width="93.7109375" style="3" customWidth="1"/>
-    <col min="8711" max="8711" width="12.140625" style="3" customWidth="1"/>
-    <col min="8712" max="8712" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8713" max="8713" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8714" max="8714" width="11.7109375" style="3" customWidth="1"/>
-    <col min="8715" max="8715" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8716" max="8718" width="9.140625" style="3"/>
-    <col min="8719" max="8719" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8720" max="8960" width="9.140625" style="3"/>
-    <col min="8961" max="8961" width="7.140625" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="15" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="59.28515625" style="3" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="3" customWidth="1"/>
-    <col min="8965" max="8965" width="18.7109375" style="3" customWidth="1"/>
-    <col min="8966" max="8966" width="93.7109375" style="3" customWidth="1"/>
-    <col min="8967" max="8967" width="12.140625" style="3" customWidth="1"/>
-    <col min="8968" max="8968" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8969" max="8969" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8970" max="8970" width="11.7109375" style="3" customWidth="1"/>
-    <col min="8971" max="8971" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8972" max="8974" width="9.140625" style="3"/>
-    <col min="8975" max="8975" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8976" max="9216" width="9.140625" style="3"/>
-    <col min="9217" max="9217" width="7.140625" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="15" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="59.28515625" style="3" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="3" customWidth="1"/>
-    <col min="9221" max="9221" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9222" max="9222" width="93.7109375" style="3" customWidth="1"/>
-    <col min="9223" max="9223" width="12.140625" style="3" customWidth="1"/>
-    <col min="9224" max="9224" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9225" max="9225" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9226" max="9226" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9227" max="9227" width="15.42578125" style="3" customWidth="1"/>
-    <col min="9228" max="9230" width="9.140625" style="3"/>
-    <col min="9231" max="9231" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9232" max="9472" width="9.140625" style="3"/>
-    <col min="9473" max="9473" width="7.140625" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="15" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="59.28515625" style="3" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="3" customWidth="1"/>
-    <col min="9477" max="9477" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9478" max="9478" width="93.7109375" style="3" customWidth="1"/>
-    <col min="9479" max="9479" width="12.140625" style="3" customWidth="1"/>
-    <col min="9480" max="9480" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9481" max="9481" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9482" max="9482" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9483" max="9483" width="15.42578125" style="3" customWidth="1"/>
-    <col min="9484" max="9486" width="9.140625" style="3"/>
-    <col min="9487" max="9487" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9488" max="9728" width="9.140625" style="3"/>
-    <col min="9729" max="9729" width="7.140625" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="15" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="59.28515625" style="3" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="3" customWidth="1"/>
-    <col min="9733" max="9733" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9734" max="9734" width="93.7109375" style="3" customWidth="1"/>
-    <col min="9735" max="9735" width="12.140625" style="3" customWidth="1"/>
-    <col min="9736" max="9736" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9737" max="9737" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9738" max="9738" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9739" max="9739" width="15.42578125" style="3" customWidth="1"/>
-    <col min="9740" max="9742" width="9.140625" style="3"/>
-    <col min="9743" max="9743" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9744" max="9984" width="9.140625" style="3"/>
-    <col min="9985" max="9985" width="7.140625" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="15" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="59.28515625" style="3" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="3" customWidth="1"/>
-    <col min="9989" max="9989" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9990" max="9990" width="93.7109375" style="3" customWidth="1"/>
-    <col min="9991" max="9991" width="12.140625" style="3" customWidth="1"/>
-    <col min="9992" max="9992" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9993" max="9993" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9994" max="9994" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9995" max="9995" width="15.42578125" style="3" customWidth="1"/>
-    <col min="9996" max="9998" width="9.140625" style="3"/>
-    <col min="9999" max="9999" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10000" max="10240" width="9.140625" style="3"/>
-    <col min="10241" max="10241" width="7.140625" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="15" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="59.28515625" style="3" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="3" customWidth="1"/>
-    <col min="10245" max="10245" width="18.7109375" style="3" customWidth="1"/>
-    <col min="10246" max="10246" width="93.7109375" style="3" customWidth="1"/>
-    <col min="10247" max="10247" width="12.140625" style="3" customWidth="1"/>
-    <col min="10248" max="10248" width="12.5703125" style="3" customWidth="1"/>
-    <col min="10249" max="10249" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10250" max="10250" width="11.7109375" style="3" customWidth="1"/>
-    <col min="10251" max="10251" width="15.42578125" style="3" customWidth="1"/>
-    <col min="10252" max="10254" width="9.140625" style="3"/>
-    <col min="10255" max="10255" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10256" max="10496" width="9.140625" style="3"/>
-    <col min="10497" max="10497" width="7.140625" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="15" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="59.28515625" style="3" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="3" customWidth="1"/>
-    <col min="10501" max="10501" width="18.7109375" style="3" customWidth="1"/>
-    <col min="10502" max="10502" width="93.7109375" style="3" customWidth="1"/>
-    <col min="10503" max="10503" width="12.140625" style="3" customWidth="1"/>
-    <col min="10504" max="10504" width="12.5703125" style="3" customWidth="1"/>
-    <col min="10505" max="10505" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10506" max="10506" width="11.7109375" style="3" customWidth="1"/>
-    <col min="10507" max="10507" width="15.42578125" style="3" customWidth="1"/>
-    <col min="10508" max="10510" width="9.140625" style="3"/>
-    <col min="10511" max="10511" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10512" max="10752" width="9.140625" style="3"/>
-    <col min="10753" max="10753" width="7.140625" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="15" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="59.28515625" style="3" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="3" customWidth="1"/>
-    <col min="10757" max="10757" width="18.7109375" style="3" customWidth="1"/>
-    <col min="10758" max="10758" width="93.7109375" style="3" customWidth="1"/>
-    <col min="10759" max="10759" width="12.140625" style="3" customWidth="1"/>
-    <col min="10760" max="10760" width="12.5703125" style="3" customWidth="1"/>
-    <col min="10761" max="10761" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10762" max="10762" width="11.7109375" style="3" customWidth="1"/>
-    <col min="10763" max="10763" width="15.42578125" style="3" customWidth="1"/>
-    <col min="10764" max="10766" width="9.140625" style="3"/>
-    <col min="10767" max="10767" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10768" max="11008" width="9.140625" style="3"/>
-    <col min="11009" max="11009" width="7.140625" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="15" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="59.28515625" style="3" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="3" customWidth="1"/>
-    <col min="11013" max="11013" width="18.7109375" style="3" customWidth="1"/>
-    <col min="11014" max="11014" width="93.7109375" style="3" customWidth="1"/>
-    <col min="11015" max="11015" width="12.140625" style="3" customWidth="1"/>
-    <col min="11016" max="11016" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11017" max="11017" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11018" max="11018" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11019" max="11019" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11020" max="11022" width="9.140625" style="3"/>
-    <col min="11023" max="11023" width="21.7109375" style="3" customWidth="1"/>
-    <col min="11024" max="11264" width="9.140625" style="3"/>
-    <col min="11265" max="11265" width="7.140625" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="15" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="59.28515625" style="3" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="3" customWidth="1"/>
-    <col min="11269" max="11269" width="18.7109375" style="3" customWidth="1"/>
-    <col min="11270" max="11270" width="93.7109375" style="3" customWidth="1"/>
-    <col min="11271" max="11271" width="12.140625" style="3" customWidth="1"/>
-    <col min="11272" max="11272" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11273" max="11273" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11274" max="11274" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11275" max="11275" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11276" max="11278" width="9.140625" style="3"/>
-    <col min="11279" max="11279" width="21.7109375" style="3" customWidth="1"/>
-    <col min="11280" max="11520" width="9.140625" style="3"/>
-    <col min="11521" max="11521" width="7.140625" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="15" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="59.28515625" style="3" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="3" customWidth="1"/>
-    <col min="11525" max="11525" width="18.7109375" style="3" customWidth="1"/>
-    <col min="11526" max="11526" width="93.7109375" style="3" customWidth="1"/>
-    <col min="11527" max="11527" width="12.140625" style="3" customWidth="1"/>
-    <col min="11528" max="11528" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11529" max="11529" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11530" max="11530" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11531" max="11531" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11532" max="11534" width="9.140625" style="3"/>
-    <col min="11535" max="11535" width="21.7109375" style="3" customWidth="1"/>
-    <col min="11536" max="11776" width="9.140625" style="3"/>
-    <col min="11777" max="11777" width="7.140625" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="15" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="59.28515625" style="3" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="3" customWidth="1"/>
-    <col min="11781" max="11781" width="18.7109375" style="3" customWidth="1"/>
-    <col min="11782" max="11782" width="93.7109375" style="3" customWidth="1"/>
-    <col min="11783" max="11783" width="12.140625" style="3" customWidth="1"/>
-    <col min="11784" max="11784" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11785" max="11785" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11786" max="11786" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11787" max="11787" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11788" max="11790" width="9.140625" style="3"/>
-    <col min="11791" max="11791" width="21.7109375" style="3" customWidth="1"/>
-    <col min="11792" max="12032" width="9.140625" style="3"/>
-    <col min="12033" max="12033" width="7.140625" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="15" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="59.28515625" style="3" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="3" customWidth="1"/>
-    <col min="12037" max="12037" width="18.7109375" style="3" customWidth="1"/>
-    <col min="12038" max="12038" width="93.7109375" style="3" customWidth="1"/>
-    <col min="12039" max="12039" width="12.140625" style="3" customWidth="1"/>
-    <col min="12040" max="12040" width="12.5703125" style="3" customWidth="1"/>
-    <col min="12041" max="12041" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12042" max="12042" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12043" max="12043" width="15.42578125" style="3" customWidth="1"/>
-    <col min="12044" max="12046" width="9.140625" style="3"/>
-    <col min="12047" max="12047" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12048" max="12288" width="9.140625" style="3"/>
-    <col min="12289" max="12289" width="7.140625" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="15" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="59.28515625" style="3" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="3" customWidth="1"/>
-    <col min="12293" max="12293" width="18.7109375" style="3" customWidth="1"/>
-    <col min="12294" max="12294" width="93.7109375" style="3" customWidth="1"/>
-    <col min="12295" max="12295" width="12.140625" style="3" customWidth="1"/>
-    <col min="12296" max="12296" width="12.5703125" style="3" customWidth="1"/>
-    <col min="12297" max="12297" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12298" max="12298" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12299" max="12299" width="15.42578125" style="3" customWidth="1"/>
-    <col min="12300" max="12302" width="9.140625" style="3"/>
-    <col min="12303" max="12303" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12304" max="12544" width="9.140625" style="3"/>
-    <col min="12545" max="12545" width="7.140625" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="15" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="59.28515625" style="3" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="3" customWidth="1"/>
-    <col min="12549" max="12549" width="18.7109375" style="3" customWidth="1"/>
-    <col min="12550" max="12550" width="93.7109375" style="3" customWidth="1"/>
-    <col min="12551" max="12551" width="12.140625" style="3" customWidth="1"/>
-    <col min="12552" max="12552" width="12.5703125" style="3" customWidth="1"/>
-    <col min="12553" max="12553" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12554" max="12554" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12555" max="12555" width="15.42578125" style="3" customWidth="1"/>
-    <col min="12556" max="12558" width="9.140625" style="3"/>
-    <col min="12559" max="12559" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12560" max="12800" width="9.140625" style="3"/>
-    <col min="12801" max="12801" width="7.140625" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="15" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="59.28515625" style="3" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="3" customWidth="1"/>
-    <col min="12805" max="12805" width="18.7109375" style="3" customWidth="1"/>
-    <col min="12806" max="12806" width="93.7109375" style="3" customWidth="1"/>
-    <col min="12807" max="12807" width="12.140625" style="3" customWidth="1"/>
-    <col min="12808" max="12808" width="12.5703125" style="3" customWidth="1"/>
-    <col min="12809" max="12809" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12810" max="12810" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12811" max="12811" width="15.42578125" style="3" customWidth="1"/>
-    <col min="12812" max="12814" width="9.140625" style="3"/>
-    <col min="12815" max="12815" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12816" max="13056" width="9.140625" style="3"/>
-    <col min="13057" max="13057" width="7.140625" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="15" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="59.28515625" style="3" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="3" customWidth="1"/>
-    <col min="13061" max="13061" width="18.7109375" style="3" customWidth="1"/>
-    <col min="13062" max="13062" width="93.7109375" style="3" customWidth="1"/>
-    <col min="13063" max="13063" width="12.140625" style="3" customWidth="1"/>
-    <col min="13064" max="13064" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13065" max="13065" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13066" max="13066" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13067" max="13067" width="15.42578125" style="3" customWidth="1"/>
-    <col min="13068" max="13070" width="9.140625" style="3"/>
-    <col min="13071" max="13071" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13072" max="13312" width="9.140625" style="3"/>
-    <col min="13313" max="13313" width="7.140625" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="15" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="59.28515625" style="3" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="3" customWidth="1"/>
-    <col min="13317" max="13317" width="18.7109375" style="3" customWidth="1"/>
-    <col min="13318" max="13318" width="93.7109375" style="3" customWidth="1"/>
-    <col min="13319" max="13319" width="12.140625" style="3" customWidth="1"/>
-    <col min="13320" max="13320" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13321" max="13321" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13322" max="13322" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13323" max="13323" width="15.42578125" style="3" customWidth="1"/>
-    <col min="13324" max="13326" width="9.140625" style="3"/>
-    <col min="13327" max="13327" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13328" max="13568" width="9.140625" style="3"/>
-    <col min="13569" max="13569" width="7.140625" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="15" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="59.28515625" style="3" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="3" customWidth="1"/>
-    <col min="13573" max="13573" width="18.7109375" style="3" customWidth="1"/>
-    <col min="13574" max="13574" width="93.7109375" style="3" customWidth="1"/>
-    <col min="13575" max="13575" width="12.140625" style="3" customWidth="1"/>
-    <col min="13576" max="13576" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13577" max="13577" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13578" max="13578" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13579" max="13579" width="15.42578125" style="3" customWidth="1"/>
-    <col min="13580" max="13582" width="9.140625" style="3"/>
-    <col min="13583" max="13583" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13584" max="13824" width="9.140625" style="3"/>
-    <col min="13825" max="13825" width="7.140625" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="15" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="59.28515625" style="3" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="3" customWidth="1"/>
-    <col min="13829" max="13829" width="18.7109375" style="3" customWidth="1"/>
-    <col min="13830" max="13830" width="93.7109375" style="3" customWidth="1"/>
-    <col min="13831" max="13831" width="12.140625" style="3" customWidth="1"/>
-    <col min="13832" max="13832" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13833" max="13833" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13834" max="13834" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13835" max="13835" width="15.42578125" style="3" customWidth="1"/>
-    <col min="13836" max="13838" width="9.140625" style="3"/>
-    <col min="13839" max="13839" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13840" max="14080" width="9.140625" style="3"/>
-    <col min="14081" max="14081" width="7.140625" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="15" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="59.28515625" style="3" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="3" customWidth="1"/>
-    <col min="14085" max="14085" width="18.7109375" style="3" customWidth="1"/>
-    <col min="14086" max="14086" width="93.7109375" style="3" customWidth="1"/>
-    <col min="14087" max="14087" width="12.140625" style="3" customWidth="1"/>
-    <col min="14088" max="14088" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14089" max="14089" width="11.42578125" style="3" customWidth="1"/>
-    <col min="14090" max="14090" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14091" max="14091" width="15.42578125" style="3" customWidth="1"/>
-    <col min="14092" max="14094" width="9.140625" style="3"/>
-    <col min="14095" max="14095" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14096" max="14336" width="9.140625" style="3"/>
-    <col min="14337" max="14337" width="7.140625" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="15" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="59.28515625" style="3" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="3" customWidth="1"/>
-    <col min="14341" max="14341" width="18.7109375" style="3" customWidth="1"/>
-    <col min="14342" max="14342" width="93.7109375" style="3" customWidth="1"/>
-    <col min="14343" max="14343" width="12.140625" style="3" customWidth="1"/>
-    <col min="14344" max="14344" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14345" max="14345" width="11.42578125" style="3" customWidth="1"/>
-    <col min="14346" max="14346" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14347" max="14347" width="15.42578125" style="3" customWidth="1"/>
-    <col min="14348" max="14350" width="9.140625" style="3"/>
-    <col min="14351" max="14351" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14352" max="14592" width="9.140625" style="3"/>
-    <col min="14593" max="14593" width="7.140625" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="15" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="59.28515625" style="3" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="3" customWidth="1"/>
-    <col min="14597" max="14597" width="18.7109375" style="3" customWidth="1"/>
-    <col min="14598" max="14598" width="93.7109375" style="3" customWidth="1"/>
-    <col min="14599" max="14599" width="12.140625" style="3" customWidth="1"/>
-    <col min="14600" max="14600" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14601" max="14601" width="11.42578125" style="3" customWidth="1"/>
-    <col min="14602" max="14602" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14603" max="14603" width="15.42578125" style="3" customWidth="1"/>
-    <col min="14604" max="14606" width="9.140625" style="3"/>
-    <col min="14607" max="14607" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14608" max="14848" width="9.140625" style="3"/>
-    <col min="14849" max="14849" width="7.140625" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="15" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="59.28515625" style="3" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="3" customWidth="1"/>
-    <col min="14853" max="14853" width="18.7109375" style="3" customWidth="1"/>
-    <col min="14854" max="14854" width="93.7109375" style="3" customWidth="1"/>
-    <col min="14855" max="14855" width="12.140625" style="3" customWidth="1"/>
-    <col min="14856" max="14856" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14857" max="14857" width="11.42578125" style="3" customWidth="1"/>
-    <col min="14858" max="14858" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14859" max="14859" width="15.42578125" style="3" customWidth="1"/>
-    <col min="14860" max="14862" width="9.140625" style="3"/>
-    <col min="14863" max="14863" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14864" max="15104" width="9.140625" style="3"/>
-    <col min="15105" max="15105" width="7.140625" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="15" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="59.28515625" style="3" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="3" customWidth="1"/>
-    <col min="15109" max="15109" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15110" max="15110" width="93.7109375" style="3" customWidth="1"/>
-    <col min="15111" max="15111" width="12.140625" style="3" customWidth="1"/>
-    <col min="15112" max="15112" width="12.5703125" style="3" customWidth="1"/>
-    <col min="15113" max="15113" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15114" max="15114" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15115" max="15115" width="15.42578125" style="3" customWidth="1"/>
-    <col min="15116" max="15118" width="9.140625" style="3"/>
-    <col min="15119" max="15119" width="21.7109375" style="3" customWidth="1"/>
-    <col min="15120" max="15360" width="9.140625" style="3"/>
-    <col min="15361" max="15361" width="7.140625" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="15" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="59.28515625" style="3" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="3" customWidth="1"/>
-    <col min="15365" max="15365" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15366" max="15366" width="93.7109375" style="3" customWidth="1"/>
-    <col min="15367" max="15367" width="12.140625" style="3" customWidth="1"/>
-    <col min="15368" max="15368" width="12.5703125" style="3" customWidth="1"/>
-    <col min="15369" max="15369" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15370" max="15370" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15371" max="15371" width="15.42578125" style="3" customWidth="1"/>
-    <col min="15372" max="15374" width="9.140625" style="3"/>
-    <col min="15375" max="15375" width="21.7109375" style="3" customWidth="1"/>
-    <col min="15376" max="15616" width="9.140625" style="3"/>
-    <col min="15617" max="15617" width="7.140625" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="15" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="59.28515625" style="3" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="3" customWidth="1"/>
-    <col min="15621" max="15621" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15622" max="15622" width="93.7109375" style="3" customWidth="1"/>
-    <col min="15623" max="15623" width="12.140625" style="3" customWidth="1"/>
-    <col min="15624" max="15624" width="12.5703125" style="3" customWidth="1"/>
-    <col min="15625" max="15625" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15626" max="15626" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15627" max="15627" width="15.42578125" style="3" customWidth="1"/>
-    <col min="15628" max="15630" width="9.140625" style="3"/>
-    <col min="15631" max="15631" width="21.7109375" style="3" customWidth="1"/>
-    <col min="15632" max="15872" width="9.140625" style="3"/>
-    <col min="15873" max="15873" width="7.140625" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="15" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="59.28515625" style="3" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="3" customWidth="1"/>
-    <col min="15877" max="15877" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15878" max="15878" width="93.7109375" style="3" customWidth="1"/>
-    <col min="15879" max="15879" width="12.140625" style="3" customWidth="1"/>
-    <col min="15880" max="15880" width="12.5703125" style="3" customWidth="1"/>
-    <col min="15881" max="15881" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15882" max="15882" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15883" max="15883" width="15.42578125" style="3" customWidth="1"/>
-    <col min="15884" max="15886" width="9.140625" style="3"/>
-    <col min="15887" max="15887" width="21.7109375" style="3" customWidth="1"/>
-    <col min="15888" max="16128" width="9.140625" style="3"/>
-    <col min="16129" max="16129" width="7.140625" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="15" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="59.28515625" style="3" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="3" customWidth="1"/>
-    <col min="16133" max="16133" width="18.7109375" style="3" customWidth="1"/>
-    <col min="16134" max="16134" width="93.7109375" style="3" customWidth="1"/>
-    <col min="16135" max="16135" width="12.140625" style="3" customWidth="1"/>
-    <col min="16136" max="16136" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16137" max="16137" width="11.42578125" style="3" customWidth="1"/>
-    <col min="16138" max="16138" width="11.7109375" style="3" customWidth="1"/>
-    <col min="16139" max="16139" width="15.42578125" style="3" customWidth="1"/>
-    <col min="16140" max="16142" width="9.140625" style="3"/>
-    <col min="16143" max="16143" width="21.7109375" style="3" customWidth="1"/>
-    <col min="16144" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15" style="103" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="111" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="109" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="109" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="109" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="109" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="116" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="21.7109375" style="3" customWidth="1"/>
+    <col min="19" max="259" width="9.140625" style="3"/>
+    <col min="260" max="260" width="7.140625" style="3" customWidth="1"/>
+    <col min="261" max="261" width="15" style="3" customWidth="1"/>
+    <col min="262" max="262" width="59.28515625" style="3" customWidth="1"/>
+    <col min="263" max="263" width="15.140625" style="3" customWidth="1"/>
+    <col min="264" max="264" width="18.7109375" style="3" customWidth="1"/>
+    <col min="265" max="265" width="93.7109375" style="3" customWidth="1"/>
+    <col min="266" max="266" width="12.140625" style="3" customWidth="1"/>
+    <col min="267" max="267" width="12.5703125" style="3" customWidth="1"/>
+    <col min="268" max="268" width="11.42578125" style="3" customWidth="1"/>
+    <col min="269" max="269" width="11.7109375" style="3" customWidth="1"/>
+    <col min="270" max="270" width="15.42578125" style="3" customWidth="1"/>
+    <col min="271" max="273" width="9.140625" style="3"/>
+    <col min="274" max="274" width="21.7109375" style="3" customWidth="1"/>
+    <col min="275" max="515" width="9.140625" style="3"/>
+    <col min="516" max="516" width="7.140625" style="3" customWidth="1"/>
+    <col min="517" max="517" width="15" style="3" customWidth="1"/>
+    <col min="518" max="518" width="59.28515625" style="3" customWidth="1"/>
+    <col min="519" max="519" width="15.140625" style="3" customWidth="1"/>
+    <col min="520" max="520" width="18.7109375" style="3" customWidth="1"/>
+    <col min="521" max="521" width="93.7109375" style="3" customWidth="1"/>
+    <col min="522" max="522" width="12.140625" style="3" customWidth="1"/>
+    <col min="523" max="523" width="12.5703125" style="3" customWidth="1"/>
+    <col min="524" max="524" width="11.42578125" style="3" customWidth="1"/>
+    <col min="525" max="525" width="11.7109375" style="3" customWidth="1"/>
+    <col min="526" max="526" width="15.42578125" style="3" customWidth="1"/>
+    <col min="527" max="529" width="9.140625" style="3"/>
+    <col min="530" max="530" width="21.7109375" style="3" customWidth="1"/>
+    <col min="531" max="771" width="9.140625" style="3"/>
+    <col min="772" max="772" width="7.140625" style="3" customWidth="1"/>
+    <col min="773" max="773" width="15" style="3" customWidth="1"/>
+    <col min="774" max="774" width="59.28515625" style="3" customWidth="1"/>
+    <col min="775" max="775" width="15.140625" style="3" customWidth="1"/>
+    <col min="776" max="776" width="18.7109375" style="3" customWidth="1"/>
+    <col min="777" max="777" width="93.7109375" style="3" customWidth="1"/>
+    <col min="778" max="778" width="12.140625" style="3" customWidth="1"/>
+    <col min="779" max="779" width="12.5703125" style="3" customWidth="1"/>
+    <col min="780" max="780" width="11.42578125" style="3" customWidth="1"/>
+    <col min="781" max="781" width="11.7109375" style="3" customWidth="1"/>
+    <col min="782" max="782" width="15.42578125" style="3" customWidth="1"/>
+    <col min="783" max="785" width="9.140625" style="3"/>
+    <col min="786" max="786" width="21.7109375" style="3" customWidth="1"/>
+    <col min="787" max="1027" width="9.140625" style="3"/>
+    <col min="1028" max="1028" width="7.140625" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="15" style="3" customWidth="1"/>
+    <col min="1030" max="1030" width="59.28515625" style="3" customWidth="1"/>
+    <col min="1031" max="1031" width="15.140625" style="3" customWidth="1"/>
+    <col min="1032" max="1032" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1033" max="1033" width="93.7109375" style="3" customWidth="1"/>
+    <col min="1034" max="1034" width="12.140625" style="3" customWidth="1"/>
+    <col min="1035" max="1035" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1036" max="1036" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1037" max="1037" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1038" max="1038" width="15.42578125" style="3" customWidth="1"/>
+    <col min="1039" max="1041" width="9.140625" style="3"/>
+    <col min="1042" max="1042" width="21.7109375" style="3" customWidth="1"/>
+    <col min="1043" max="1283" width="9.140625" style="3"/>
+    <col min="1284" max="1284" width="7.140625" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="15" style="3" customWidth="1"/>
+    <col min="1286" max="1286" width="59.28515625" style="3" customWidth="1"/>
+    <col min="1287" max="1287" width="15.140625" style="3" customWidth="1"/>
+    <col min="1288" max="1288" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1289" max="1289" width="93.7109375" style="3" customWidth="1"/>
+    <col min="1290" max="1290" width="12.140625" style="3" customWidth="1"/>
+    <col min="1291" max="1291" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1292" max="1292" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1293" max="1293" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1294" max="1294" width="15.42578125" style="3" customWidth="1"/>
+    <col min="1295" max="1297" width="9.140625" style="3"/>
+    <col min="1298" max="1298" width="21.7109375" style="3" customWidth="1"/>
+    <col min="1299" max="1539" width="9.140625" style="3"/>
+    <col min="1540" max="1540" width="7.140625" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="15" style="3" customWidth="1"/>
+    <col min="1542" max="1542" width="59.28515625" style="3" customWidth="1"/>
+    <col min="1543" max="1543" width="15.140625" style="3" customWidth="1"/>
+    <col min="1544" max="1544" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1545" max="1545" width="93.7109375" style="3" customWidth="1"/>
+    <col min="1546" max="1546" width="12.140625" style="3" customWidth="1"/>
+    <col min="1547" max="1547" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1548" max="1548" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1549" max="1549" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1550" max="1550" width="15.42578125" style="3" customWidth="1"/>
+    <col min="1551" max="1553" width="9.140625" style="3"/>
+    <col min="1554" max="1554" width="21.7109375" style="3" customWidth="1"/>
+    <col min="1555" max="1795" width="9.140625" style="3"/>
+    <col min="1796" max="1796" width="7.140625" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="15" style="3" customWidth="1"/>
+    <col min="1798" max="1798" width="59.28515625" style="3" customWidth="1"/>
+    <col min="1799" max="1799" width="15.140625" style="3" customWidth="1"/>
+    <col min="1800" max="1800" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1801" max="1801" width="93.7109375" style="3" customWidth="1"/>
+    <col min="1802" max="1802" width="12.140625" style="3" customWidth="1"/>
+    <col min="1803" max="1803" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1804" max="1804" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1805" max="1805" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1806" max="1806" width="15.42578125" style="3" customWidth="1"/>
+    <col min="1807" max="1809" width="9.140625" style="3"/>
+    <col min="1810" max="1810" width="21.7109375" style="3" customWidth="1"/>
+    <col min="1811" max="2051" width="9.140625" style="3"/>
+    <col min="2052" max="2052" width="7.140625" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="15" style="3" customWidth="1"/>
+    <col min="2054" max="2054" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2055" max="2055" width="15.140625" style="3" customWidth="1"/>
+    <col min="2056" max="2056" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2057" max="2057" width="93.7109375" style="3" customWidth="1"/>
+    <col min="2058" max="2058" width="12.140625" style="3" customWidth="1"/>
+    <col min="2059" max="2059" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2060" max="2060" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2061" max="2061" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2062" max="2062" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2063" max="2065" width="9.140625" style="3"/>
+    <col min="2066" max="2066" width="21.7109375" style="3" customWidth="1"/>
+    <col min="2067" max="2307" width="9.140625" style="3"/>
+    <col min="2308" max="2308" width="7.140625" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="15" style="3" customWidth="1"/>
+    <col min="2310" max="2310" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2311" max="2311" width="15.140625" style="3" customWidth="1"/>
+    <col min="2312" max="2312" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2313" max="2313" width="93.7109375" style="3" customWidth="1"/>
+    <col min="2314" max="2314" width="12.140625" style="3" customWidth="1"/>
+    <col min="2315" max="2315" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2316" max="2316" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2317" max="2317" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2318" max="2318" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2319" max="2321" width="9.140625" style="3"/>
+    <col min="2322" max="2322" width="21.7109375" style="3" customWidth="1"/>
+    <col min="2323" max="2563" width="9.140625" style="3"/>
+    <col min="2564" max="2564" width="7.140625" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="15" style="3" customWidth="1"/>
+    <col min="2566" max="2566" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2567" max="2567" width="15.140625" style="3" customWidth="1"/>
+    <col min="2568" max="2568" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2569" max="2569" width="93.7109375" style="3" customWidth="1"/>
+    <col min="2570" max="2570" width="12.140625" style="3" customWidth="1"/>
+    <col min="2571" max="2571" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2572" max="2572" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2573" max="2573" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2574" max="2574" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2575" max="2577" width="9.140625" style="3"/>
+    <col min="2578" max="2578" width="21.7109375" style="3" customWidth="1"/>
+    <col min="2579" max="2819" width="9.140625" style="3"/>
+    <col min="2820" max="2820" width="7.140625" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="15" style="3" customWidth="1"/>
+    <col min="2822" max="2822" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2823" max="2823" width="15.140625" style="3" customWidth="1"/>
+    <col min="2824" max="2824" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2825" max="2825" width="93.7109375" style="3" customWidth="1"/>
+    <col min="2826" max="2826" width="12.140625" style="3" customWidth="1"/>
+    <col min="2827" max="2827" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2828" max="2828" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2829" max="2829" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2830" max="2830" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2831" max="2833" width="9.140625" style="3"/>
+    <col min="2834" max="2834" width="21.7109375" style="3" customWidth="1"/>
+    <col min="2835" max="3075" width="9.140625" style="3"/>
+    <col min="3076" max="3076" width="7.140625" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="15" style="3" customWidth="1"/>
+    <col min="3078" max="3078" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3079" max="3079" width="15.140625" style="3" customWidth="1"/>
+    <col min="3080" max="3080" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3081" max="3081" width="93.7109375" style="3" customWidth="1"/>
+    <col min="3082" max="3082" width="12.140625" style="3" customWidth="1"/>
+    <col min="3083" max="3083" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3084" max="3084" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3085" max="3085" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3086" max="3086" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3087" max="3089" width="9.140625" style="3"/>
+    <col min="3090" max="3090" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3091" max="3331" width="9.140625" style="3"/>
+    <col min="3332" max="3332" width="7.140625" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="15" style="3" customWidth="1"/>
+    <col min="3334" max="3334" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3335" max="3335" width="15.140625" style="3" customWidth="1"/>
+    <col min="3336" max="3336" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3337" max="3337" width="93.7109375" style="3" customWidth="1"/>
+    <col min="3338" max="3338" width="12.140625" style="3" customWidth="1"/>
+    <col min="3339" max="3339" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3340" max="3340" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3341" max="3341" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3342" max="3342" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3343" max="3345" width="9.140625" style="3"/>
+    <col min="3346" max="3346" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3347" max="3587" width="9.140625" style="3"/>
+    <col min="3588" max="3588" width="7.140625" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="15" style="3" customWidth="1"/>
+    <col min="3590" max="3590" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3591" max="3591" width="15.140625" style="3" customWidth="1"/>
+    <col min="3592" max="3592" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3593" max="3593" width="93.7109375" style="3" customWidth="1"/>
+    <col min="3594" max="3594" width="12.140625" style="3" customWidth="1"/>
+    <col min="3595" max="3595" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3596" max="3596" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3597" max="3597" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3598" max="3598" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3599" max="3601" width="9.140625" style="3"/>
+    <col min="3602" max="3602" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3603" max="3843" width="9.140625" style="3"/>
+    <col min="3844" max="3844" width="7.140625" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="15" style="3" customWidth="1"/>
+    <col min="3846" max="3846" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3847" max="3847" width="15.140625" style="3" customWidth="1"/>
+    <col min="3848" max="3848" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3849" max="3849" width="93.7109375" style="3" customWidth="1"/>
+    <col min="3850" max="3850" width="12.140625" style="3" customWidth="1"/>
+    <col min="3851" max="3851" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3852" max="3852" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3853" max="3853" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3854" max="3854" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3855" max="3857" width="9.140625" style="3"/>
+    <col min="3858" max="3858" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3859" max="4099" width="9.140625" style="3"/>
+    <col min="4100" max="4100" width="7.140625" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="15" style="3" customWidth="1"/>
+    <col min="4102" max="4102" width="59.28515625" style="3" customWidth="1"/>
+    <col min="4103" max="4103" width="15.140625" style="3" customWidth="1"/>
+    <col min="4104" max="4104" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4105" max="4105" width="93.7109375" style="3" customWidth="1"/>
+    <col min="4106" max="4106" width="12.140625" style="3" customWidth="1"/>
+    <col min="4107" max="4107" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4108" max="4108" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4109" max="4109" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4110" max="4110" width="15.42578125" style="3" customWidth="1"/>
+    <col min="4111" max="4113" width="9.140625" style="3"/>
+    <col min="4114" max="4114" width="21.7109375" style="3" customWidth="1"/>
+    <col min="4115" max="4355" width="9.140625" style="3"/>
+    <col min="4356" max="4356" width="7.140625" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="15" style="3" customWidth="1"/>
+    <col min="4358" max="4358" width="59.28515625" style="3" customWidth="1"/>
+    <col min="4359" max="4359" width="15.140625" style="3" customWidth="1"/>
+    <col min="4360" max="4360" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4361" max="4361" width="93.7109375" style="3" customWidth="1"/>
+    <col min="4362" max="4362" width="12.140625" style="3" customWidth="1"/>
+    <col min="4363" max="4363" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4364" max="4364" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4365" max="4365" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4366" max="4366" width="15.42578125" style="3" customWidth="1"/>
+    <col min="4367" max="4369" width="9.140625" style="3"/>
+    <col min="4370" max="4370" width="21.7109375" style="3" customWidth="1"/>
+    <col min="4371" max="4611" width="9.140625" style="3"/>
+    <col min="4612" max="4612" width="7.140625" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="15" style="3" customWidth="1"/>
+    <col min="4614" max="4614" width="59.28515625" style="3" customWidth="1"/>
+    <col min="4615" max="4615" width="15.140625" style="3" customWidth="1"/>
+    <col min="4616" max="4616" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4617" max="4617" width="93.7109375" style="3" customWidth="1"/>
+    <col min="4618" max="4618" width="12.140625" style="3" customWidth="1"/>
+    <col min="4619" max="4619" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4620" max="4620" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4621" max="4621" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4622" max="4622" width="15.42578125" style="3" customWidth="1"/>
+    <col min="4623" max="4625" width="9.140625" style="3"/>
+    <col min="4626" max="4626" width="21.7109375" style="3" customWidth="1"/>
+    <col min="4627" max="4867" width="9.140625" style="3"/>
+    <col min="4868" max="4868" width="7.140625" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="15" style="3" customWidth="1"/>
+    <col min="4870" max="4870" width="59.28515625" style="3" customWidth="1"/>
+    <col min="4871" max="4871" width="15.140625" style="3" customWidth="1"/>
+    <col min="4872" max="4872" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4873" max="4873" width="93.7109375" style="3" customWidth="1"/>
+    <col min="4874" max="4874" width="12.140625" style="3" customWidth="1"/>
+    <col min="4875" max="4875" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4876" max="4876" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4877" max="4877" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4878" max="4878" width="15.42578125" style="3" customWidth="1"/>
+    <col min="4879" max="4881" width="9.140625" style="3"/>
+    <col min="4882" max="4882" width="21.7109375" style="3" customWidth="1"/>
+    <col min="4883" max="5123" width="9.140625" style="3"/>
+    <col min="5124" max="5124" width="7.140625" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="15" style="3" customWidth="1"/>
+    <col min="5126" max="5126" width="59.28515625" style="3" customWidth="1"/>
+    <col min="5127" max="5127" width="15.140625" style="3" customWidth="1"/>
+    <col min="5128" max="5128" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5129" max="5129" width="93.7109375" style="3" customWidth="1"/>
+    <col min="5130" max="5130" width="12.140625" style="3" customWidth="1"/>
+    <col min="5131" max="5131" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5132" max="5132" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5133" max="5133" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5134" max="5134" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5135" max="5137" width="9.140625" style="3"/>
+    <col min="5138" max="5138" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5139" max="5379" width="9.140625" style="3"/>
+    <col min="5380" max="5380" width="7.140625" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="15" style="3" customWidth="1"/>
+    <col min="5382" max="5382" width="59.28515625" style="3" customWidth="1"/>
+    <col min="5383" max="5383" width="15.140625" style="3" customWidth="1"/>
+    <col min="5384" max="5384" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5385" max="5385" width="93.7109375" style="3" customWidth="1"/>
+    <col min="5386" max="5386" width="12.140625" style="3" customWidth="1"/>
+    <col min="5387" max="5387" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5388" max="5388" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5389" max="5389" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5390" max="5390" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5391" max="5393" width="9.140625" style="3"/>
+    <col min="5394" max="5394" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5395" max="5635" width="9.140625" style="3"/>
+    <col min="5636" max="5636" width="7.140625" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="15" style="3" customWidth="1"/>
+    <col min="5638" max="5638" width="59.28515625" style="3" customWidth="1"/>
+    <col min="5639" max="5639" width="15.140625" style="3" customWidth="1"/>
+    <col min="5640" max="5640" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5641" max="5641" width="93.7109375" style="3" customWidth="1"/>
+    <col min="5642" max="5642" width="12.140625" style="3" customWidth="1"/>
+    <col min="5643" max="5643" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5644" max="5644" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5645" max="5645" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5646" max="5646" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5647" max="5649" width="9.140625" style="3"/>
+    <col min="5650" max="5650" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5651" max="5891" width="9.140625" style="3"/>
+    <col min="5892" max="5892" width="7.140625" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="15" style="3" customWidth="1"/>
+    <col min="5894" max="5894" width="59.28515625" style="3" customWidth="1"/>
+    <col min="5895" max="5895" width="15.140625" style="3" customWidth="1"/>
+    <col min="5896" max="5896" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5897" max="5897" width="93.7109375" style="3" customWidth="1"/>
+    <col min="5898" max="5898" width="12.140625" style="3" customWidth="1"/>
+    <col min="5899" max="5899" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5900" max="5900" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5901" max="5901" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5902" max="5902" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5903" max="5905" width="9.140625" style="3"/>
+    <col min="5906" max="5906" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5907" max="6147" width="9.140625" style="3"/>
+    <col min="6148" max="6148" width="7.140625" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="15" style="3" customWidth="1"/>
+    <col min="6150" max="6150" width="59.28515625" style="3" customWidth="1"/>
+    <col min="6151" max="6151" width="15.140625" style="3" customWidth="1"/>
+    <col min="6152" max="6152" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6153" max="6153" width="93.7109375" style="3" customWidth="1"/>
+    <col min="6154" max="6154" width="12.140625" style="3" customWidth="1"/>
+    <col min="6155" max="6155" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6156" max="6156" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6157" max="6157" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6158" max="6158" width="15.42578125" style="3" customWidth="1"/>
+    <col min="6159" max="6161" width="9.140625" style="3"/>
+    <col min="6162" max="6162" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6163" max="6403" width="9.140625" style="3"/>
+    <col min="6404" max="6404" width="7.140625" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="15" style="3" customWidth="1"/>
+    <col min="6406" max="6406" width="59.28515625" style="3" customWidth="1"/>
+    <col min="6407" max="6407" width="15.140625" style="3" customWidth="1"/>
+    <col min="6408" max="6408" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6409" max="6409" width="93.7109375" style="3" customWidth="1"/>
+    <col min="6410" max="6410" width="12.140625" style="3" customWidth="1"/>
+    <col min="6411" max="6411" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6412" max="6412" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6413" max="6413" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6414" max="6414" width="15.42578125" style="3" customWidth="1"/>
+    <col min="6415" max="6417" width="9.140625" style="3"/>
+    <col min="6418" max="6418" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6419" max="6659" width="9.140625" style="3"/>
+    <col min="6660" max="6660" width="7.140625" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="15" style="3" customWidth="1"/>
+    <col min="6662" max="6662" width="59.28515625" style="3" customWidth="1"/>
+    <col min="6663" max="6663" width="15.140625" style="3" customWidth="1"/>
+    <col min="6664" max="6664" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6665" max="6665" width="93.7109375" style="3" customWidth="1"/>
+    <col min="6666" max="6666" width="12.140625" style="3" customWidth="1"/>
+    <col min="6667" max="6667" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6668" max="6668" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6669" max="6669" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6670" max="6670" width="15.42578125" style="3" customWidth="1"/>
+    <col min="6671" max="6673" width="9.140625" style="3"/>
+    <col min="6674" max="6674" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6675" max="6915" width="9.140625" style="3"/>
+    <col min="6916" max="6916" width="7.140625" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="15" style="3" customWidth="1"/>
+    <col min="6918" max="6918" width="59.28515625" style="3" customWidth="1"/>
+    <col min="6919" max="6919" width="15.140625" style="3" customWidth="1"/>
+    <col min="6920" max="6920" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6921" max="6921" width="93.7109375" style="3" customWidth="1"/>
+    <col min="6922" max="6922" width="12.140625" style="3" customWidth="1"/>
+    <col min="6923" max="6923" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6924" max="6924" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6925" max="6925" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6926" max="6926" width="15.42578125" style="3" customWidth="1"/>
+    <col min="6927" max="6929" width="9.140625" style="3"/>
+    <col min="6930" max="6930" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6931" max="7171" width="9.140625" style="3"/>
+    <col min="7172" max="7172" width="7.140625" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="15" style="3" customWidth="1"/>
+    <col min="7174" max="7174" width="59.28515625" style="3" customWidth="1"/>
+    <col min="7175" max="7175" width="15.140625" style="3" customWidth="1"/>
+    <col min="7176" max="7176" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7177" max="7177" width="93.7109375" style="3" customWidth="1"/>
+    <col min="7178" max="7178" width="12.140625" style="3" customWidth="1"/>
+    <col min="7179" max="7179" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7180" max="7180" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7181" max="7181" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7182" max="7182" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7183" max="7185" width="9.140625" style="3"/>
+    <col min="7186" max="7186" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7187" max="7427" width="9.140625" style="3"/>
+    <col min="7428" max="7428" width="7.140625" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="15" style="3" customWidth="1"/>
+    <col min="7430" max="7430" width="59.28515625" style="3" customWidth="1"/>
+    <col min="7431" max="7431" width="15.140625" style="3" customWidth="1"/>
+    <col min="7432" max="7432" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7433" max="7433" width="93.7109375" style="3" customWidth="1"/>
+    <col min="7434" max="7434" width="12.140625" style="3" customWidth="1"/>
+    <col min="7435" max="7435" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7436" max="7436" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7437" max="7437" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7438" max="7438" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7439" max="7441" width="9.140625" style="3"/>
+    <col min="7442" max="7442" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7443" max="7683" width="9.140625" style="3"/>
+    <col min="7684" max="7684" width="7.140625" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="15" style="3" customWidth="1"/>
+    <col min="7686" max="7686" width="59.28515625" style="3" customWidth="1"/>
+    <col min="7687" max="7687" width="15.140625" style="3" customWidth="1"/>
+    <col min="7688" max="7688" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7689" max="7689" width="93.7109375" style="3" customWidth="1"/>
+    <col min="7690" max="7690" width="12.140625" style="3" customWidth="1"/>
+    <col min="7691" max="7691" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7692" max="7692" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7693" max="7693" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7694" max="7694" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7695" max="7697" width="9.140625" style="3"/>
+    <col min="7698" max="7698" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7699" max="7939" width="9.140625" style="3"/>
+    <col min="7940" max="7940" width="7.140625" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="15" style="3" customWidth="1"/>
+    <col min="7942" max="7942" width="59.28515625" style="3" customWidth="1"/>
+    <col min="7943" max="7943" width="15.140625" style="3" customWidth="1"/>
+    <col min="7944" max="7944" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7945" max="7945" width="93.7109375" style="3" customWidth="1"/>
+    <col min="7946" max="7946" width="12.140625" style="3" customWidth="1"/>
+    <col min="7947" max="7947" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7948" max="7948" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7949" max="7949" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7950" max="7950" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7951" max="7953" width="9.140625" style="3"/>
+    <col min="7954" max="7954" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7955" max="8195" width="9.140625" style="3"/>
+    <col min="8196" max="8196" width="7.140625" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="15" style="3" customWidth="1"/>
+    <col min="8198" max="8198" width="59.28515625" style="3" customWidth="1"/>
+    <col min="8199" max="8199" width="15.140625" style="3" customWidth="1"/>
+    <col min="8200" max="8200" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8201" max="8201" width="93.7109375" style="3" customWidth="1"/>
+    <col min="8202" max="8202" width="12.140625" style="3" customWidth="1"/>
+    <col min="8203" max="8203" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8204" max="8204" width="11.42578125" style="3" customWidth="1"/>
+    <col min="8205" max="8205" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8206" max="8206" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8207" max="8209" width="9.140625" style="3"/>
+    <col min="8210" max="8210" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8211" max="8451" width="9.140625" style="3"/>
+    <col min="8452" max="8452" width="7.140625" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="15" style="3" customWidth="1"/>
+    <col min="8454" max="8454" width="59.28515625" style="3" customWidth="1"/>
+    <col min="8455" max="8455" width="15.140625" style="3" customWidth="1"/>
+    <col min="8456" max="8456" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8457" max="8457" width="93.7109375" style="3" customWidth="1"/>
+    <col min="8458" max="8458" width="12.140625" style="3" customWidth="1"/>
+    <col min="8459" max="8459" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8460" max="8460" width="11.42578125" style="3" customWidth="1"/>
+    <col min="8461" max="8461" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8462" max="8462" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8463" max="8465" width="9.140625" style="3"/>
+    <col min="8466" max="8466" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8467" max="8707" width="9.140625" style="3"/>
+    <col min="8708" max="8708" width="7.140625" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="15" style="3" customWidth="1"/>
+    <col min="8710" max="8710" width="59.28515625" style="3" customWidth="1"/>
+    <col min="8711" max="8711" width="15.140625" style="3" customWidth="1"/>
+    <col min="8712" max="8712" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8713" max="8713" width="93.7109375" style="3" customWidth="1"/>
+    <col min="8714" max="8714" width="12.140625" style="3" customWidth="1"/>
+    <col min="8715" max="8715" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8716" max="8716" width="11.42578125" style="3" customWidth="1"/>
+    <col min="8717" max="8717" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8718" max="8718" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8719" max="8721" width="9.140625" style="3"/>
+    <col min="8722" max="8722" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8723" max="8963" width="9.140625" style="3"/>
+    <col min="8964" max="8964" width="7.140625" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="15" style="3" customWidth="1"/>
+    <col min="8966" max="8966" width="59.28515625" style="3" customWidth="1"/>
+    <col min="8967" max="8967" width="15.140625" style="3" customWidth="1"/>
+    <col min="8968" max="8968" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8969" max="8969" width="93.7109375" style="3" customWidth="1"/>
+    <col min="8970" max="8970" width="12.140625" style="3" customWidth="1"/>
+    <col min="8971" max="8971" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8972" max="8972" width="11.42578125" style="3" customWidth="1"/>
+    <col min="8973" max="8973" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8974" max="8974" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8975" max="8977" width="9.140625" style="3"/>
+    <col min="8978" max="8978" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8979" max="9219" width="9.140625" style="3"/>
+    <col min="9220" max="9220" width="7.140625" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="15" style="3" customWidth="1"/>
+    <col min="9222" max="9222" width="59.28515625" style="3" customWidth="1"/>
+    <col min="9223" max="9223" width="15.140625" style="3" customWidth="1"/>
+    <col min="9224" max="9224" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9225" max="9225" width="93.7109375" style="3" customWidth="1"/>
+    <col min="9226" max="9226" width="12.140625" style="3" customWidth="1"/>
+    <col min="9227" max="9227" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9228" max="9228" width="11.42578125" style="3" customWidth="1"/>
+    <col min="9229" max="9229" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9230" max="9230" width="15.42578125" style="3" customWidth="1"/>
+    <col min="9231" max="9233" width="9.140625" style="3"/>
+    <col min="9234" max="9234" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9235" max="9475" width="9.140625" style="3"/>
+    <col min="9476" max="9476" width="7.140625" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="15" style="3" customWidth="1"/>
+    <col min="9478" max="9478" width="59.28515625" style="3" customWidth="1"/>
+    <col min="9479" max="9479" width="15.140625" style="3" customWidth="1"/>
+    <col min="9480" max="9480" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9481" max="9481" width="93.7109375" style="3" customWidth="1"/>
+    <col min="9482" max="9482" width="12.140625" style="3" customWidth="1"/>
+    <col min="9483" max="9483" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9484" max="9484" width="11.42578125" style="3" customWidth="1"/>
+    <col min="9485" max="9485" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9486" max="9486" width="15.42578125" style="3" customWidth="1"/>
+    <col min="9487" max="9489" width="9.140625" style="3"/>
+    <col min="9490" max="9490" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9491" max="9731" width="9.140625" style="3"/>
+    <col min="9732" max="9732" width="7.140625" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="15" style="3" customWidth="1"/>
+    <col min="9734" max="9734" width="59.28515625" style="3" customWidth="1"/>
+    <col min="9735" max="9735" width="15.140625" style="3" customWidth="1"/>
+    <col min="9736" max="9736" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9737" max="9737" width="93.7109375" style="3" customWidth="1"/>
+    <col min="9738" max="9738" width="12.140625" style="3" customWidth="1"/>
+    <col min="9739" max="9739" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9740" max="9740" width="11.42578125" style="3" customWidth="1"/>
+    <col min="9741" max="9741" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9742" max="9742" width="15.42578125" style="3" customWidth="1"/>
+    <col min="9743" max="9745" width="9.140625" style="3"/>
+    <col min="9746" max="9746" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9747" max="9987" width="9.140625" style="3"/>
+    <col min="9988" max="9988" width="7.140625" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="15" style="3" customWidth="1"/>
+    <col min="9990" max="9990" width="59.28515625" style="3" customWidth="1"/>
+    <col min="9991" max="9991" width="15.140625" style="3" customWidth="1"/>
+    <col min="9992" max="9992" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9993" max="9993" width="93.7109375" style="3" customWidth="1"/>
+    <col min="9994" max="9994" width="12.140625" style="3" customWidth="1"/>
+    <col min="9995" max="9995" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9996" max="9996" width="11.42578125" style="3" customWidth="1"/>
+    <col min="9997" max="9997" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9998" max="9998" width="15.42578125" style="3" customWidth="1"/>
+    <col min="9999" max="10001" width="9.140625" style="3"/>
+    <col min="10002" max="10002" width="21.7109375" style="3" customWidth="1"/>
+    <col min="10003" max="10243" width="9.140625" style="3"/>
+    <col min="10244" max="10244" width="7.140625" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="15" style="3" customWidth="1"/>
+    <col min="10246" max="10246" width="59.28515625" style="3" customWidth="1"/>
+    <col min="10247" max="10247" width="15.140625" style="3" customWidth="1"/>
+    <col min="10248" max="10248" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10249" max="10249" width="93.7109375" style="3" customWidth="1"/>
+    <col min="10250" max="10250" width="12.140625" style="3" customWidth="1"/>
+    <col min="10251" max="10251" width="12.5703125" style="3" customWidth="1"/>
+    <col min="10252" max="10252" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10253" max="10253" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10254" max="10254" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10255" max="10257" width="9.140625" style="3"/>
+    <col min="10258" max="10258" width="21.7109375" style="3" customWidth="1"/>
+    <col min="10259" max="10499" width="9.140625" style="3"/>
+    <col min="10500" max="10500" width="7.140625" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="15" style="3" customWidth="1"/>
+    <col min="10502" max="10502" width="59.28515625" style="3" customWidth="1"/>
+    <col min="10503" max="10503" width="15.140625" style="3" customWidth="1"/>
+    <col min="10504" max="10504" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10505" max="10505" width="93.7109375" style="3" customWidth="1"/>
+    <col min="10506" max="10506" width="12.140625" style="3" customWidth="1"/>
+    <col min="10507" max="10507" width="12.5703125" style="3" customWidth="1"/>
+    <col min="10508" max="10508" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10509" max="10509" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10510" max="10510" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10511" max="10513" width="9.140625" style="3"/>
+    <col min="10514" max="10514" width="21.7109375" style="3" customWidth="1"/>
+    <col min="10515" max="10755" width="9.140625" style="3"/>
+    <col min="10756" max="10756" width="7.140625" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="15" style="3" customWidth="1"/>
+    <col min="10758" max="10758" width="59.28515625" style="3" customWidth="1"/>
+    <col min="10759" max="10759" width="15.140625" style="3" customWidth="1"/>
+    <col min="10760" max="10760" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10761" max="10761" width="93.7109375" style="3" customWidth="1"/>
+    <col min="10762" max="10762" width="12.140625" style="3" customWidth="1"/>
+    <col min="10763" max="10763" width="12.5703125" style="3" customWidth="1"/>
+    <col min="10764" max="10764" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10765" max="10765" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10766" max="10766" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10767" max="10769" width="9.140625" style="3"/>
+    <col min="10770" max="10770" width="21.7109375" style="3" customWidth="1"/>
+    <col min="10771" max="11011" width="9.140625" style="3"/>
+    <col min="11012" max="11012" width="7.140625" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="15" style="3" customWidth="1"/>
+    <col min="11014" max="11014" width="59.28515625" style="3" customWidth="1"/>
+    <col min="11015" max="11015" width="15.140625" style="3" customWidth="1"/>
+    <col min="11016" max="11016" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11017" max="11017" width="93.7109375" style="3" customWidth="1"/>
+    <col min="11018" max="11018" width="12.140625" style="3" customWidth="1"/>
+    <col min="11019" max="11019" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11020" max="11020" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11021" max="11021" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11022" max="11022" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11023" max="11025" width="9.140625" style="3"/>
+    <col min="11026" max="11026" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11027" max="11267" width="9.140625" style="3"/>
+    <col min="11268" max="11268" width="7.140625" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="15" style="3" customWidth="1"/>
+    <col min="11270" max="11270" width="59.28515625" style="3" customWidth="1"/>
+    <col min="11271" max="11271" width="15.140625" style="3" customWidth="1"/>
+    <col min="11272" max="11272" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11273" max="11273" width="93.7109375" style="3" customWidth="1"/>
+    <col min="11274" max="11274" width="12.140625" style="3" customWidth="1"/>
+    <col min="11275" max="11275" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11276" max="11276" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11277" max="11277" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11278" max="11278" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11279" max="11281" width="9.140625" style="3"/>
+    <col min="11282" max="11282" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11283" max="11523" width="9.140625" style="3"/>
+    <col min="11524" max="11524" width="7.140625" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="15" style="3" customWidth="1"/>
+    <col min="11526" max="11526" width="59.28515625" style="3" customWidth="1"/>
+    <col min="11527" max="11527" width="15.140625" style="3" customWidth="1"/>
+    <col min="11528" max="11528" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11529" max="11529" width="93.7109375" style="3" customWidth="1"/>
+    <col min="11530" max="11530" width="12.140625" style="3" customWidth="1"/>
+    <col min="11531" max="11531" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11532" max="11532" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11533" max="11533" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11534" max="11534" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11535" max="11537" width="9.140625" style="3"/>
+    <col min="11538" max="11538" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11539" max="11779" width="9.140625" style="3"/>
+    <col min="11780" max="11780" width="7.140625" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="15" style="3" customWidth="1"/>
+    <col min="11782" max="11782" width="59.28515625" style="3" customWidth="1"/>
+    <col min="11783" max="11783" width="15.140625" style="3" customWidth="1"/>
+    <col min="11784" max="11784" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11785" max="11785" width="93.7109375" style="3" customWidth="1"/>
+    <col min="11786" max="11786" width="12.140625" style="3" customWidth="1"/>
+    <col min="11787" max="11787" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11788" max="11788" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11789" max="11789" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11790" max="11790" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11791" max="11793" width="9.140625" style="3"/>
+    <col min="11794" max="11794" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11795" max="12035" width="9.140625" style="3"/>
+    <col min="12036" max="12036" width="7.140625" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="15" style="3" customWidth="1"/>
+    <col min="12038" max="12038" width="59.28515625" style="3" customWidth="1"/>
+    <col min="12039" max="12039" width="15.140625" style="3" customWidth="1"/>
+    <col min="12040" max="12040" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12041" max="12041" width="93.7109375" style="3" customWidth="1"/>
+    <col min="12042" max="12042" width="12.140625" style="3" customWidth="1"/>
+    <col min="12043" max="12043" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12044" max="12044" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12045" max="12045" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12046" max="12046" width="15.42578125" style="3" customWidth="1"/>
+    <col min="12047" max="12049" width="9.140625" style="3"/>
+    <col min="12050" max="12050" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12051" max="12291" width="9.140625" style="3"/>
+    <col min="12292" max="12292" width="7.140625" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="15" style="3" customWidth="1"/>
+    <col min="12294" max="12294" width="59.28515625" style="3" customWidth="1"/>
+    <col min="12295" max="12295" width="15.140625" style="3" customWidth="1"/>
+    <col min="12296" max="12296" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12297" max="12297" width="93.7109375" style="3" customWidth="1"/>
+    <col min="12298" max="12298" width="12.140625" style="3" customWidth="1"/>
+    <col min="12299" max="12299" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12300" max="12300" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12301" max="12301" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12302" max="12302" width="15.42578125" style="3" customWidth="1"/>
+    <col min="12303" max="12305" width="9.140625" style="3"/>
+    <col min="12306" max="12306" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12307" max="12547" width="9.140625" style="3"/>
+    <col min="12548" max="12548" width="7.140625" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="15" style="3" customWidth="1"/>
+    <col min="12550" max="12550" width="59.28515625" style="3" customWidth="1"/>
+    <col min="12551" max="12551" width="15.140625" style="3" customWidth="1"/>
+    <col min="12552" max="12552" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12553" max="12553" width="93.7109375" style="3" customWidth="1"/>
+    <col min="12554" max="12554" width="12.140625" style="3" customWidth="1"/>
+    <col min="12555" max="12555" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12556" max="12556" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12557" max="12557" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12558" max="12558" width="15.42578125" style="3" customWidth="1"/>
+    <col min="12559" max="12561" width="9.140625" style="3"/>
+    <col min="12562" max="12562" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12563" max="12803" width="9.140625" style="3"/>
+    <col min="12804" max="12804" width="7.140625" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="15" style="3" customWidth="1"/>
+    <col min="12806" max="12806" width="59.28515625" style="3" customWidth="1"/>
+    <col min="12807" max="12807" width="15.140625" style="3" customWidth="1"/>
+    <col min="12808" max="12808" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12809" max="12809" width="93.7109375" style="3" customWidth="1"/>
+    <col min="12810" max="12810" width="12.140625" style="3" customWidth="1"/>
+    <col min="12811" max="12811" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12812" max="12812" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12813" max="12813" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12814" max="12814" width="15.42578125" style="3" customWidth="1"/>
+    <col min="12815" max="12817" width="9.140625" style="3"/>
+    <col min="12818" max="12818" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12819" max="13059" width="9.140625" style="3"/>
+    <col min="13060" max="13060" width="7.140625" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="15" style="3" customWidth="1"/>
+    <col min="13062" max="13062" width="59.28515625" style="3" customWidth="1"/>
+    <col min="13063" max="13063" width="15.140625" style="3" customWidth="1"/>
+    <col min="13064" max="13064" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13065" max="13065" width="93.7109375" style="3" customWidth="1"/>
+    <col min="13066" max="13066" width="12.140625" style="3" customWidth="1"/>
+    <col min="13067" max="13067" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13068" max="13068" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13069" max="13069" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13070" max="13070" width="15.42578125" style="3" customWidth="1"/>
+    <col min="13071" max="13073" width="9.140625" style="3"/>
+    <col min="13074" max="13074" width="21.7109375" style="3" customWidth="1"/>
+    <col min="13075" max="13315" width="9.140625" style="3"/>
+    <col min="13316" max="13316" width="7.140625" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="15" style="3" customWidth="1"/>
+    <col min="13318" max="13318" width="59.28515625" style="3" customWidth="1"/>
+    <col min="13319" max="13319" width="15.140625" style="3" customWidth="1"/>
+    <col min="13320" max="13320" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13321" max="13321" width="93.7109375" style="3" customWidth="1"/>
+    <col min="13322" max="13322" width="12.140625" style="3" customWidth="1"/>
+    <col min="13323" max="13323" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13324" max="13324" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13325" max="13325" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13326" max="13326" width="15.42578125" style="3" customWidth="1"/>
+    <col min="13327" max="13329" width="9.140625" style="3"/>
+    <col min="13330" max="13330" width="21.7109375" style="3" customWidth="1"/>
+    <col min="13331" max="13571" width="9.140625" style="3"/>
+    <col min="13572" max="13572" width="7.140625" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="15" style="3" customWidth="1"/>
+    <col min="13574" max="13574" width="59.28515625" style="3" customWidth="1"/>
+    <col min="13575" max="13575" width="15.140625" style="3" customWidth="1"/>
+    <col min="13576" max="13576" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13577" max="13577" width="93.7109375" style="3" customWidth="1"/>
+    <col min="13578" max="13578" width="12.140625" style="3" customWidth="1"/>
+    <col min="13579" max="13579" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13580" max="13580" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13581" max="13581" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13582" max="13582" width="15.42578125" style="3" customWidth="1"/>
+    <col min="13583" max="13585" width="9.140625" style="3"/>
+    <col min="13586" max="13586" width="21.7109375" style="3" customWidth="1"/>
+    <col min="13587" max="13827" width="9.140625" style="3"/>
+    <col min="13828" max="13828" width="7.140625" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="15" style="3" customWidth="1"/>
+    <col min="13830" max="13830" width="59.28515625" style="3" customWidth="1"/>
+    <col min="13831" max="13831" width="15.140625" style="3" customWidth="1"/>
+    <col min="13832" max="13832" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13833" max="13833" width="93.7109375" style="3" customWidth="1"/>
+    <col min="13834" max="13834" width="12.140625" style="3" customWidth="1"/>
+    <col min="13835" max="13835" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13836" max="13836" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13837" max="13837" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13838" max="13838" width="15.42578125" style="3" customWidth="1"/>
+    <col min="13839" max="13841" width="9.140625" style="3"/>
+    <col min="13842" max="13842" width="21.7109375" style="3" customWidth="1"/>
+    <col min="13843" max="14083" width="9.140625" style="3"/>
+    <col min="14084" max="14084" width="7.140625" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="15" style="3" customWidth="1"/>
+    <col min="14086" max="14086" width="59.28515625" style="3" customWidth="1"/>
+    <col min="14087" max="14087" width="15.140625" style="3" customWidth="1"/>
+    <col min="14088" max="14088" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14089" max="14089" width="93.7109375" style="3" customWidth="1"/>
+    <col min="14090" max="14090" width="12.140625" style="3" customWidth="1"/>
+    <col min="14091" max="14091" width="12.5703125" style="3" customWidth="1"/>
+    <col min="14092" max="14092" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14093" max="14093" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14094" max="14094" width="15.42578125" style="3" customWidth="1"/>
+    <col min="14095" max="14097" width="9.140625" style="3"/>
+    <col min="14098" max="14098" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14099" max="14339" width="9.140625" style="3"/>
+    <col min="14340" max="14340" width="7.140625" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="15" style="3" customWidth="1"/>
+    <col min="14342" max="14342" width="59.28515625" style="3" customWidth="1"/>
+    <col min="14343" max="14343" width="15.140625" style="3" customWidth="1"/>
+    <col min="14344" max="14344" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14345" max="14345" width="93.7109375" style="3" customWidth="1"/>
+    <col min="14346" max="14346" width="12.140625" style="3" customWidth="1"/>
+    <col min="14347" max="14347" width="12.5703125" style="3" customWidth="1"/>
+    <col min="14348" max="14348" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14349" max="14349" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14350" max="14350" width="15.42578125" style="3" customWidth="1"/>
+    <col min="14351" max="14353" width="9.140625" style="3"/>
+    <col min="14354" max="14354" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14355" max="14595" width="9.140625" style="3"/>
+    <col min="14596" max="14596" width="7.140625" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="15" style="3" customWidth="1"/>
+    <col min="14598" max="14598" width="59.28515625" style="3" customWidth="1"/>
+    <col min="14599" max="14599" width="15.140625" style="3" customWidth="1"/>
+    <col min="14600" max="14600" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14601" max="14601" width="93.7109375" style="3" customWidth="1"/>
+    <col min="14602" max="14602" width="12.140625" style="3" customWidth="1"/>
+    <col min="14603" max="14603" width="12.5703125" style="3" customWidth="1"/>
+    <col min="14604" max="14604" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14605" max="14605" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14606" max="14606" width="15.42578125" style="3" customWidth="1"/>
+    <col min="14607" max="14609" width="9.140625" style="3"/>
+    <col min="14610" max="14610" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14611" max="14851" width="9.140625" style="3"/>
+    <col min="14852" max="14852" width="7.140625" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="15" style="3" customWidth="1"/>
+    <col min="14854" max="14854" width="59.28515625" style="3" customWidth="1"/>
+    <col min="14855" max="14855" width="15.140625" style="3" customWidth="1"/>
+    <col min="14856" max="14856" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14857" max="14857" width="93.7109375" style="3" customWidth="1"/>
+    <col min="14858" max="14858" width="12.140625" style="3" customWidth="1"/>
+    <col min="14859" max="14859" width="12.5703125" style="3" customWidth="1"/>
+    <col min="14860" max="14860" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14861" max="14861" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14862" max="14862" width="15.42578125" style="3" customWidth="1"/>
+    <col min="14863" max="14865" width="9.140625" style="3"/>
+    <col min="14866" max="14866" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14867" max="15107" width="9.140625" style="3"/>
+    <col min="15108" max="15108" width="7.140625" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="15" style="3" customWidth="1"/>
+    <col min="15110" max="15110" width="59.28515625" style="3" customWidth="1"/>
+    <col min="15111" max="15111" width="15.140625" style="3" customWidth="1"/>
+    <col min="15112" max="15112" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15113" max="15113" width="93.7109375" style="3" customWidth="1"/>
+    <col min="15114" max="15114" width="12.140625" style="3" customWidth="1"/>
+    <col min="15115" max="15115" width="12.5703125" style="3" customWidth="1"/>
+    <col min="15116" max="15116" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15117" max="15117" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15118" max="15118" width="15.42578125" style="3" customWidth="1"/>
+    <col min="15119" max="15121" width="9.140625" style="3"/>
+    <col min="15122" max="15122" width="21.7109375" style="3" customWidth="1"/>
+    <col min="15123" max="15363" width="9.140625" style="3"/>
+    <col min="15364" max="15364" width="7.140625" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="15" style="3" customWidth="1"/>
+    <col min="15366" max="15366" width="59.28515625" style="3" customWidth="1"/>
+    <col min="15367" max="15367" width="15.140625" style="3" customWidth="1"/>
+    <col min="15368" max="15368" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15369" max="15369" width="93.7109375" style="3" customWidth="1"/>
+    <col min="15370" max="15370" width="12.140625" style="3" customWidth="1"/>
+    <col min="15371" max="15371" width="12.5703125" style="3" customWidth="1"/>
+    <col min="15372" max="15372" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15373" max="15373" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15374" max="15374" width="15.42578125" style="3" customWidth="1"/>
+    <col min="15375" max="15377" width="9.140625" style="3"/>
+    <col min="15378" max="15378" width="21.7109375" style="3" customWidth="1"/>
+    <col min="15379" max="15619" width="9.140625" style="3"/>
+    <col min="15620" max="15620" width="7.140625" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="15" style="3" customWidth="1"/>
+    <col min="15622" max="15622" width="59.28515625" style="3" customWidth="1"/>
+    <col min="15623" max="15623" width="15.140625" style="3" customWidth="1"/>
+    <col min="15624" max="15624" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15625" max="15625" width="93.7109375" style="3" customWidth="1"/>
+    <col min="15626" max="15626" width="12.140625" style="3" customWidth="1"/>
+    <col min="15627" max="15627" width="12.5703125" style="3" customWidth="1"/>
+    <col min="15628" max="15628" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15629" max="15629" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15630" max="15630" width="15.42578125" style="3" customWidth="1"/>
+    <col min="15631" max="15633" width="9.140625" style="3"/>
+    <col min="15634" max="15634" width="21.7109375" style="3" customWidth="1"/>
+    <col min="15635" max="15875" width="9.140625" style="3"/>
+    <col min="15876" max="15876" width="7.140625" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="15" style="3" customWidth="1"/>
+    <col min="15878" max="15878" width="59.28515625" style="3" customWidth="1"/>
+    <col min="15879" max="15879" width="15.140625" style="3" customWidth="1"/>
+    <col min="15880" max="15880" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15881" max="15881" width="93.7109375" style="3" customWidth="1"/>
+    <col min="15882" max="15882" width="12.140625" style="3" customWidth="1"/>
+    <col min="15883" max="15883" width="12.5703125" style="3" customWidth="1"/>
+    <col min="15884" max="15884" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15885" max="15885" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15886" max="15886" width="15.42578125" style="3" customWidth="1"/>
+    <col min="15887" max="15889" width="9.140625" style="3"/>
+    <col min="15890" max="15890" width="21.7109375" style="3" customWidth="1"/>
+    <col min="15891" max="16131" width="9.140625" style="3"/>
+    <col min="16132" max="16132" width="7.140625" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="15" style="3" customWidth="1"/>
+    <col min="16134" max="16134" width="59.28515625" style="3" customWidth="1"/>
+    <col min="16135" max="16135" width="15.140625" style="3" customWidth="1"/>
+    <col min="16136" max="16136" width="18.7109375" style="3" customWidth="1"/>
+    <col min="16137" max="16137" width="93.7109375" style="3" customWidth="1"/>
+    <col min="16138" max="16138" width="12.140625" style="3" customWidth="1"/>
+    <col min="16139" max="16139" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16140" max="16140" width="11.42578125" style="3" customWidth="1"/>
+    <col min="16141" max="16141" width="11.7109375" style="3" customWidth="1"/>
+    <col min="16142" max="16142" width="15.42578125" style="3" customWidth="1"/>
+    <col min="16143" max="16145" width="9.140625" style="3"/>
+    <col min="16146" max="16146" width="21.7109375" style="3" customWidth="1"/>
+    <col min="16147" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2218,10 +2325,24 @@
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2237,10 +2358,19 @@
       <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="126">
+        <v>15</v>
+      </c>
+      <c r="G5" s="126">
+        <v>174654.37788018433</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -2257,10 +2387,19 @@
       <c r="E6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="127">
+        <v>17</v>
+      </c>
+      <c r="G6" s="127">
+        <v>137892.85714285713</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2277,10 +2416,19 @@
       <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="128">
+        <v>21</v>
+      </c>
+      <c r="G7" s="128">
+        <v>189624.06015037594</v>
+      </c>
+      <c r="H7" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2297,10 +2445,19 @@
       <c r="E8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="129">
+        <v>19</v>
+      </c>
+      <c r="G8" s="129">
+        <v>489176.4705882353</v>
+      </c>
+      <c r="H8" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2317,10 +2474,22 @@
       <c r="E9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="127">
+        <v>17</v>
+      </c>
+      <c r="G9" s="127">
+        <v>60000</v>
+      </c>
+      <c r="H9" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2337,10 +2506,19 @@
       <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="127">
+        <v>17</v>
+      </c>
+      <c r="G10" s="127">
+        <v>330504.2016806723</v>
+      </c>
+      <c r="H10" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2357,10 +2535,19 @@
       <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="130">
+        <v>19</v>
+      </c>
+      <c r="G11" s="130">
+        <v>104736.84210526316</v>
+      </c>
+      <c r="H11" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2377,10 +2564,19 @@
       <c r="E12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="130">
+        <v>18</v>
+      </c>
+      <c r="G12" s="130">
+        <v>95992.063492063491</v>
+      </c>
+      <c r="H12" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2397,10 +2593,19 @@
       <c r="E13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="131">
+        <v>15</v>
+      </c>
+      <c r="G13" s="131">
+        <v>237235.02304147466</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2417,12 +2622,21 @@
       <c r="E14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35">
+        <v>18</v>
+      </c>
+      <c r="G14" s="35">
+        <v>256628.57142857142</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -2439,10 +2653,19 @@
       <c r="E15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="129">
+        <v>17</v>
+      </c>
+      <c r="G15" s="129">
+        <v>484040.81632653059</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -2459,10 +2682,19 @@
       <c r="E16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="126">
+        <v>20</v>
+      </c>
+      <c r="G16" s="126">
+        <v>257936.50793650793</v>
+      </c>
+      <c r="H16" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -2479,12 +2711,21 @@
       <c r="E17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="27">
+        <v>19</v>
+      </c>
+      <c r="G17" s="27">
+        <v>159649.12280701756</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -2501,10 +2742,19 @@
       <c r="E18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="126">
+        <v>17</v>
+      </c>
+      <c r="G18" s="126">
+        <v>378832.6530612245</v>
+      </c>
+      <c r="H18" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -2521,10 +2771,19 @@
       <c r="E19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="126">
+        <v>17</v>
+      </c>
+      <c r="G19" s="126">
+        <v>370336.13445378153</v>
+      </c>
+      <c r="H19" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -2541,10 +2800,19 @@
       <c r="E20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="126">
+        <v>16</v>
+      </c>
+      <c r="G20" s="126">
+        <v>1021250</v>
+      </c>
+      <c r="H20" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -2561,12 +2829,24 @@
       <c r="E21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="44">
+        <v>17</v>
+      </c>
+      <c r="G21" s="44">
+        <v>300000</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -2583,10 +2863,19 @@
       <c r="E22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="126">
+        <v>18</v>
+      </c>
+      <c r="G22" s="126">
+        <v>388809.52380952379</v>
+      </c>
+      <c r="H22" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>19</v>
       </c>
@@ -2603,10 +2892,20 @@
       <c r="E23" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="130">
+        <v>10</v>
+      </c>
+      <c r="G23" s="130">
+        <v>100000</v>
+      </c>
+      <c r="H23" s="130"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>20</v>
       </c>
@@ -2623,10 +2922,13 @@
       <c r="E24" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="41"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>21</v>
       </c>
@@ -2643,10 +2945,20 @@
       <c r="E25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="130">
+        <v>10</v>
+      </c>
+      <c r="G25" s="130">
+        <v>100000</v>
+      </c>
+      <c r="H25" s="130"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>22</v>
       </c>
@@ -2663,10 +2975,13 @@
       <c r="E26" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="33"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>23</v>
       </c>
@@ -2683,10 +2998,22 @@
       <c r="E27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="127">
+        <v>17</v>
+      </c>
+      <c r="G27" s="127">
+        <v>60000</v>
+      </c>
+      <c r="H27" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>24</v>
       </c>
@@ -2703,10 +3030,13 @@
       <c r="E28" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="33"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>25</v>
       </c>
@@ -2723,10 +3053,19 @@
       <c r="E29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="130">
+        <v>19</v>
+      </c>
+      <c r="G29" s="130">
+        <v>104736.84210526316</v>
+      </c>
+      <c r="H29" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>26</v>
       </c>
@@ -2743,10 +3082,13 @@
       <c r="E30" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="52"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>27</v>
       </c>
@@ -2763,10 +3105,19 @@
       <c r="E31" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="126">
+        <v>17</v>
+      </c>
+      <c r="G31" s="126">
+        <v>378832.6530612245</v>
+      </c>
+      <c r="H31" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>28</v>
       </c>
@@ -2783,10 +3134,13 @@
       <c r="E32" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="33"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>29</v>
       </c>
@@ -2803,12 +3157,21 @@
       <c r="E33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35">
+        <v>18</v>
+      </c>
+      <c r="G33" s="35">
+        <v>256628.57142857142</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>30</v>
       </c>
@@ -2825,10 +3188,13 @@
       <c r="E34" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="33"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>31</v>
       </c>
@@ -2845,10 +3211,19 @@
       <c r="E35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="129">
+        <v>17</v>
+      </c>
+      <c r="G35" s="129">
+        <v>499159.66386554623</v>
+      </c>
+      <c r="H35" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>32</v>
       </c>
@@ -2865,10 +3240,13 @@
       <c r="E36" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="33"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>33</v>
       </c>
@@ -2885,10 +3263,19 @@
       <c r="E37" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="126">
+        <v>17</v>
+      </c>
+      <c r="G37" s="126">
+        <v>370336.13445378153</v>
+      </c>
+      <c r="H37" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>34</v>
       </c>
@@ -2905,10 +3292,13 @@
       <c r="E38" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="52"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>35</v>
       </c>
@@ -2925,10 +3315,19 @@
       <c r="E39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="129">
+        <v>19</v>
+      </c>
+      <c r="G39" s="129">
+        <v>489176.4705882353</v>
+      </c>
+      <c r="H39" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>36</v>
       </c>
@@ -2945,10 +3344,13 @@
       <c r="E40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="33"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>37</v>
       </c>
@@ -2965,10 +3367,19 @@
       <c r="E41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="127">
+        <v>17</v>
+      </c>
+      <c r="G41" s="127">
+        <v>137892.85714285713</v>
+      </c>
+      <c r="H41" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>38</v>
       </c>
@@ -2985,10 +3396,13 @@
       <c r="E42" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="33"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>39</v>
       </c>
@@ -3005,10 +3419,19 @@
       <c r="E43" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="131">
+        <v>17</v>
+      </c>
+      <c r="G43" s="131">
+        <v>210807.48663101604</v>
+      </c>
+      <c r="H43" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>40</v>
       </c>
@@ -3025,10 +3448,13 @@
       <c r="E44" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="33"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>41</v>
       </c>
@@ -3045,10 +3471,19 @@
       <c r="E45" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="129">
+        <v>17</v>
+      </c>
+      <c r="G45" s="135">
+        <v>484040.81632653059</v>
+      </c>
+      <c r="H45" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>42</v>
       </c>
@@ -3065,10 +3500,13 @@
       <c r="E46" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="52"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>43</v>
       </c>
@@ -3085,10 +3523,19 @@
       <c r="E47" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="126">
+        <v>16</v>
+      </c>
+      <c r="G47" s="126">
+        <v>1021250</v>
+      </c>
+      <c r="H47" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>44</v>
       </c>
@@ -3105,10 +3552,13 @@
       <c r="E48" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="33"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="33"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>45</v>
       </c>
@@ -3125,10 +3575,19 @@
       <c r="E49" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="126">
+        <v>18</v>
+      </c>
+      <c r="G49" s="126">
+        <v>446636.63663663663</v>
+      </c>
+      <c r="H49" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>46</v>
       </c>
@@ -3145,10 +3604,13 @@
       <c r="E50" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="33"/>
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>47</v>
       </c>
@@ -3165,12 +3627,24 @@
       <c r="E51" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="44">
+        <v>17</v>
+      </c>
+      <c r="G51" s="44">
+        <v>300000</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>48</v>
       </c>
@@ -3187,10 +3661,13 @@
       <c r="E52" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="33"/>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>49</v>
       </c>
@@ -3207,12 +3684,24 @@
       <c r="E53" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="56">
+        <v>30</v>
+      </c>
+      <c r="G53" s="56">
+        <v>300000</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="12">
+        <v>1</v>
+      </c>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>50</v>
       </c>
@@ -3229,10 +3718,13 @@
       <c r="E54" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="33"/>
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>51</v>
       </c>
@@ -3249,12 +3741,21 @@
       <c r="E55" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="32">
+        <v>32</v>
+      </c>
+      <c r="G55" s="32">
+        <v>300000</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="O55" s="13"/>
-    </row>
-    <row r="56" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R55" s="13"/>
+    </row>
+    <row r="56" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>52</v>
       </c>
@@ -3271,11 +3772,14 @@
       <c r="E56" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="59"/>
-      <c r="O56" s="13"/>
-    </row>
-    <row r="57" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="59"/>
+      <c r="R56" s="13"/>
+    </row>
+    <row r="57" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>53</v>
       </c>
@@ -3292,11 +3796,20 @@
       <c r="E57" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="59"/>
-      <c r="O57" s="13"/>
-    </row>
-    <row r="58" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="126">
+        <v>18</v>
+      </c>
+      <c r="G57" s="126">
+        <v>388809.52380952379</v>
+      </c>
+      <c r="H57" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="59"/>
+      <c r="R57" s="13"/>
+    </row>
+    <row r="58" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>54</v>
       </c>
@@ -3313,11 +3826,14 @@
       <c r="E58" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="59"/>
-      <c r="O58" s="13"/>
-    </row>
-    <row r="59" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="59"/>
+      <c r="R58" s="13"/>
+    </row>
+    <row r="59" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55</v>
       </c>
@@ -3334,13 +3850,22 @@
       <c r="E59" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="27">
+        <v>20</v>
+      </c>
+      <c r="G59" s="27">
+        <v>335750</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="59"/>
-      <c r="O59" s="13"/>
-    </row>
-    <row r="60" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="59"/>
+      <c r="R59" s="13"/>
+    </row>
+    <row r="60" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>56</v>
       </c>
@@ -3357,10 +3882,13 @@
       <c r="E60" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="O60" s="13"/>
-    </row>
-    <row r="61" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="52"/>
+      <c r="R60" s="13"/>
+    </row>
+    <row r="61" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>57</v>
       </c>
@@ -3377,10 +3905,19 @@
       <c r="E61" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="O61" s="13"/>
-    </row>
-    <row r="62" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="126">
+        <v>19</v>
+      </c>
+      <c r="G61" s="126">
+        <v>614097.74436090223</v>
+      </c>
+      <c r="H61" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="R61" s="13"/>
+    </row>
+    <row r="62" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>58</v>
       </c>
@@ -3397,10 +3934,13 @@
       <c r="E62" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="O62" s="13"/>
-    </row>
-    <row r="63" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="33"/>
+      <c r="R62" s="13"/>
+    </row>
+    <row r="63" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>59</v>
       </c>
@@ -3417,10 +3957,19 @@
       <c r="E63" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="O63" s="13"/>
-    </row>
-    <row r="64" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="126">
+        <v>19</v>
+      </c>
+      <c r="G63" s="126">
+        <v>501611.72161172162</v>
+      </c>
+      <c r="H63" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="R63" s="13"/>
+    </row>
+    <row r="64" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>60</v>
       </c>
@@ -3437,10 +3986,13 @@
       <c r="E64" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="O64" s="13"/>
-    </row>
-    <row r="65" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="33"/>
+      <c r="R64" s="13"/>
+    </row>
+    <row r="65" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>61</v>
       </c>
@@ -3457,10 +4009,19 @@
       <c r="E65" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="O65" s="13"/>
-    </row>
-    <row r="66" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="127">
+        <v>17</v>
+      </c>
+      <c r="G65" s="127">
+        <v>330504.2016806723</v>
+      </c>
+      <c r="H65" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="R65" s="13"/>
+    </row>
+    <row r="66" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>62</v>
       </c>
@@ -3477,10 +4038,13 @@
       <c r="E66" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="132"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="53"/>
+      <c r="R66" s="13"/>
+    </row>
+    <row r="67" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>63</v>
       </c>
@@ -3497,10 +4061,19 @@
       <c r="E67" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="126">
+        <v>17</v>
+      </c>
+      <c r="G67" s="126">
+        <v>378832.6530612245</v>
+      </c>
+      <c r="H67" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="53"/>
+      <c r="R67" s="13"/>
+    </row>
+    <row r="68" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>64</v>
       </c>
@@ -3517,10 +4090,13 @@
       <c r="E68" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="33"/>
-      <c r="O68" s="13"/>
-    </row>
-    <row r="69" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="133"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="33"/>
+      <c r="R68" s="13"/>
+    </row>
+    <row r="69" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>65</v>
       </c>
@@ -3537,10 +4113,19 @@
       <c r="E69" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="O69" s="13"/>
-    </row>
-    <row r="70" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="129">
+        <v>17</v>
+      </c>
+      <c r="G69" s="129">
+        <v>484040.81632653059</v>
+      </c>
+      <c r="H69" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="R69" s="13"/>
+    </row>
+    <row r="70" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>66</v>
       </c>
@@ -3557,10 +4142,13 @@
       <c r="E70" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="33"/>
+      <c r="R70" s="13"/>
+    </row>
+    <row r="71" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>67</v>
       </c>
@@ -3577,10 +4165,19 @@
       <c r="E71" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="33"/>
-      <c r="O71" s="13"/>
-    </row>
-    <row r="72" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="126">
+        <v>18</v>
+      </c>
+      <c r="G71" s="126">
+        <v>314357.14285714284</v>
+      </c>
+      <c r="H71" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I71" s="33"/>
+      <c r="R71" s="13"/>
+    </row>
+    <row r="72" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>68</v>
       </c>
@@ -3597,10 +4194,13 @@
       <c r="E72" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="132"/>
+      <c r="G72" s="132"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="52"/>
+      <c r="R72" s="13"/>
+    </row>
+    <row r="73" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>69</v>
       </c>
@@ -3617,10 +4217,19 @@
       <c r="E73" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="33"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="126">
+        <v>18</v>
+      </c>
+      <c r="G73" s="126">
+        <v>446636.63663663663</v>
+      </c>
+      <c r="H73" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="R73" s="13"/>
+    </row>
+    <row r="74" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>70</v>
       </c>
@@ -3637,10 +4246,13 @@
       <c r="E74" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="133"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="133"/>
+      <c r="I74" s="33"/>
+      <c r="R74" s="13"/>
+    </row>
+    <row r="75" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>71</v>
       </c>
@@ -3657,10 +4269,19 @@
       <c r="E75" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="129">
+        <v>19</v>
+      </c>
+      <c r="G75" s="129">
+        <v>489176.4705882353</v>
+      </c>
+      <c r="H75" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="R75" s="13"/>
+    </row>
+    <row r="76" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>72</v>
       </c>
@@ -3677,10 +4298,13 @@
       <c r="E76" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="O76" s="13"/>
-    </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="133"/>
+      <c r="I76" s="33"/>
+      <c r="R76" s="13"/>
+    </row>
+    <row r="77" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>73</v>
       </c>
@@ -3697,10 +4321,19 @@
       <c r="E77" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="33"/>
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="127">
+        <v>17</v>
+      </c>
+      <c r="G77" s="127">
+        <v>330504.2016806723</v>
+      </c>
+      <c r="H77" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="I77" s="33"/>
+      <c r="R77" s="13"/>
+    </row>
+    <row r="78" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>74</v>
       </c>
@@ -3717,10 +4350,13 @@
       <c r="E78" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="33"/>
-      <c r="O78" s="13"/>
-    </row>
-    <row r="79" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="33"/>
+      <c r="R78" s="13"/>
+    </row>
+    <row r="79" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>75</v>
       </c>
@@ -3737,12 +4373,24 @@
       <c r="E79" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="44">
+        <v>17</v>
+      </c>
+      <c r="G79" s="44">
+        <v>300000</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I79" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="13"/>
-    </row>
-    <row r="80" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+      <c r="R79" s="13"/>
+    </row>
+    <row r="80" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>76</v>
       </c>
@@ -3759,10 +4407,13 @@
       <c r="E80" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="O80" s="13"/>
-    </row>
-    <row r="81" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="132"/>
+      <c r="I80" s="33"/>
+      <c r="R80" s="13"/>
+    </row>
+    <row r="81" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>77</v>
       </c>
@@ -3779,12 +4430,21 @@
       <c r="E81" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="27">
+        <v>20</v>
+      </c>
+      <c r="G81" s="27">
+        <v>335750</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O81" s="13"/>
-    </row>
-    <row r="82" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="13"/>
+    </row>
+    <row r="82" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>78</v>
       </c>
@@ -3801,10 +4461,13 @@
       <c r="E82" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="41"/>
-      <c r="O82" s="13"/>
-    </row>
-    <row r="83" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F82" s="133"/>
+      <c r="G82" s="133"/>
+      <c r="H82" s="133"/>
+      <c r="I82" s="41"/>
+      <c r="R82" s="13"/>
+    </row>
+    <row r="83" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>79</v>
       </c>
@@ -3821,12 +4484,21 @@
       <c r="E83" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="61" t="s">
+      <c r="F83" s="60">
+        <v>28</v>
+      </c>
+      <c r="G83" s="60">
+        <v>305254.90196078434</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I83" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="O83" s="13"/>
-    </row>
-    <row r="84" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="13"/>
+    </row>
+    <row r="84" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>80</v>
       </c>
@@ -3843,10 +4515,13 @@
       <c r="E84" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="O84" s="13"/>
-    </row>
-    <row r="85" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="133"/>
+      <c r="G84" s="133"/>
+      <c r="H84" s="133"/>
+      <c r="I84" s="33"/>
+      <c r="R84" s="13"/>
+    </row>
+    <row r="85" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>81</v>
       </c>
@@ -3863,10 +4538,19 @@
       <c r="E85" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="33"/>
-      <c r="O85" s="13"/>
-    </row>
-    <row r="86" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="127">
+        <v>31</v>
+      </c>
+      <c r="G85" s="127">
+        <v>755852.53456221195</v>
+      </c>
+      <c r="H85" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="R85" s="13"/>
+    </row>
+    <row r="86" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>82</v>
       </c>
@@ -3883,10 +4567,13 @@
       <c r="E86" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="132"/>
+      <c r="G86" s="132"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="33"/>
+      <c r="R86" s="13"/>
+    </row>
+    <row r="87" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>83</v>
       </c>
@@ -3903,10 +4590,13 @@
       <c r="E87" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="33"/>
-      <c r="O87" s="13"/>
-    </row>
-    <row r="88" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="133"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="33"/>
+      <c r="R87" s="13"/>
+    </row>
+    <row r="88" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>84</v>
       </c>
@@ -3923,10 +4613,19 @@
       <c r="E88" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="O88" s="13"/>
-    </row>
-    <row r="89" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="126">
+        <v>25</v>
+      </c>
+      <c r="G88" s="126">
+        <v>841923.07692307688</v>
+      </c>
+      <c r="H88" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="R88" s="13"/>
+    </row>
+    <row r="89" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>85</v>
       </c>
@@ -3943,10 +4642,13 @@
       <c r="E89" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="33"/>
-      <c r="O89" s="13"/>
-    </row>
-    <row r="90" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="133"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="133"/>
+      <c r="I89" s="33"/>
+      <c r="R89" s="13"/>
+    </row>
+    <row r="90" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>86</v>
       </c>
@@ -3963,10 +4665,19 @@
       <c r="E90" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="O90" s="13"/>
-    </row>
-    <row r="91" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="126">
+        <v>30</v>
+      </c>
+      <c r="G90" s="126">
+        <v>445714.28571428574</v>
+      </c>
+      <c r="H90" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="R90" s="13"/>
+    </row>
+    <row r="91" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>87</v>
       </c>
@@ -3983,10 +4694,13 @@
       <c r="E91" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F91" s="33"/>
-      <c r="O91" s="13"/>
-    </row>
-    <row r="92" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="133"/>
+      <c r="G91" s="133"/>
+      <c r="H91" s="133"/>
+      <c r="I91" s="33"/>
+      <c r="R91" s="13"/>
+    </row>
+    <row r="92" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>88</v>
       </c>
@@ -4003,10 +4717,19 @@
       <c r="E92" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="O92" s="13"/>
-    </row>
-    <row r="93" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="126">
+        <v>19</v>
+      </c>
+      <c r="G92" s="126">
+        <v>614097.74436090223</v>
+      </c>
+      <c r="H92" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" s="33"/>
+      <c r="R92" s="13"/>
+    </row>
+    <row r="93" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>89</v>
       </c>
@@ -4023,10 +4746,13 @@
       <c r="E93" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F93" s="52"/>
-      <c r="O93" s="13"/>
-    </row>
-    <row r="94" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="52"/>
+      <c r="R93" s="13"/>
+    </row>
+    <row r="94" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>90</v>
       </c>
@@ -4043,10 +4769,19 @@
       <c r="E94" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F94" s="52"/>
-      <c r="O94" s="13"/>
-    </row>
-    <row r="95" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="126">
+        <v>22</v>
+      </c>
+      <c r="G94" s="135">
+        <v>252792.2077922078</v>
+      </c>
+      <c r="H94" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="I94" s="52"/>
+      <c r="R94" s="13"/>
+    </row>
+    <row r="95" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>91</v>
       </c>
@@ -4063,10 +4798,13 @@
       <c r="E95" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F95" s="33"/>
-      <c r="O95" s="13"/>
-    </row>
-    <row r="96" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="133"/>
+      <c r="G95" s="133"/>
+      <c r="H95" s="133"/>
+      <c r="I95" s="33"/>
+      <c r="R95" s="13"/>
+    </row>
+    <row r="96" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>92</v>
       </c>
@@ -4083,10 +4821,19 @@
       <c r="E96" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="28"/>
-      <c r="O96" s="13"/>
-    </row>
-    <row r="97" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="126">
+        <v>19</v>
+      </c>
+      <c r="G96" s="126">
+        <v>501611.72161172162</v>
+      </c>
+      <c r="H96" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" s="28"/>
+      <c r="R96" s="13"/>
+    </row>
+    <row r="97" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>93</v>
       </c>
@@ -4103,10 +4850,13 @@
       <c r="E97" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F97" s="33"/>
-      <c r="O97" s="13"/>
-    </row>
-    <row r="98" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="133"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="33"/>
+      <c r="R97" s="13"/>
+    </row>
+    <row r="98" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>94</v>
       </c>
@@ -4123,10 +4873,19 @@
       <c r="E98" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="53"/>
-      <c r="O98" s="13"/>
-    </row>
-    <row r="99" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="126">
+        <v>16</v>
+      </c>
+      <c r="G98" s="126">
+        <v>1021250</v>
+      </c>
+      <c r="H98" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I98" s="53"/>
+      <c r="R98" s="13"/>
+    </row>
+    <row r="99" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>95</v>
       </c>
@@ -4143,10 +4902,13 @@
       <c r="E99" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="O99" s="13"/>
-    </row>
-    <row r="100" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="133"/>
+      <c r="G99" s="133"/>
+      <c r="H99" s="133"/>
+      <c r="I99" s="33"/>
+      <c r="R99" s="13"/>
+    </row>
+    <row r="100" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>96</v>
       </c>
@@ -4163,10 +4925,19 @@
       <c r="E100" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="O100" s="13"/>
-    </row>
-    <row r="101" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="126">
+        <v>18</v>
+      </c>
+      <c r="G100" s="126">
+        <v>388809.52380952379</v>
+      </c>
+      <c r="H100" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" s="19"/>
+      <c r="R100" s="13"/>
+    </row>
+    <row r="101" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>97</v>
       </c>
@@ -4183,10 +4954,13 @@
       <c r="E101" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F101" s="33"/>
-      <c r="O101" s="13"/>
-    </row>
-    <row r="102" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="133"/>
+      <c r="G101" s="133"/>
+      <c r="H101" s="133"/>
+      <c r="I101" s="33"/>
+      <c r="R101" s="13"/>
+    </row>
+    <row r="102" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>98</v>
       </c>
@@ -4203,10 +4977,19 @@
       <c r="E102" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F102" s="63"/>
-      <c r="O102" s="13"/>
-    </row>
-    <row r="103" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="131">
+        <v>15</v>
+      </c>
+      <c r="G102" s="131">
+        <v>237235.02304147466</v>
+      </c>
+      <c r="H102" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="I102" s="63"/>
+      <c r="R102" s="13"/>
+    </row>
+    <row r="103" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>99</v>
       </c>
@@ -4223,10 +5006,13 @@
       <c r="E103" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F103" s="33"/>
-      <c r="O103" s="13"/>
-    </row>
-    <row r="104" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="133"/>
+      <c r="G103" s="133"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="33"/>
+      <c r="R103" s="13"/>
+    </row>
+    <row r="104" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>100</v>
       </c>
@@ -4243,10 +5029,19 @@
       <c r="E104" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F104" s="33"/>
-      <c r="O104" s="13"/>
-    </row>
-    <row r="105" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="126">
+        <v>16</v>
+      </c>
+      <c r="G104" s="135">
+        <v>1021250</v>
+      </c>
+      <c r="H104" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="R104" s="13"/>
+    </row>
+    <row r="105" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>101</v>
       </c>
@@ -4263,10 +5058,13 @@
       <c r="E105" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F105" s="33"/>
-      <c r="O105" s="13"/>
-    </row>
-    <row r="106" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="133"/>
+      <c r="G105" s="133"/>
+      <c r="H105" s="133"/>
+      <c r="I105" s="33"/>
+      <c r="R105" s="13"/>
+    </row>
+    <row r="106" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>102</v>
       </c>
@@ -4283,10 +5081,19 @@
       <c r="E106" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="33"/>
-      <c r="O106" s="13"/>
-    </row>
-    <row r="107" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="129">
+        <v>17</v>
+      </c>
+      <c r="G106" s="129">
+        <v>499159.66386554623</v>
+      </c>
+      <c r="H106" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I106" s="33"/>
+      <c r="R106" s="13"/>
+    </row>
+    <row r="107" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>103</v>
       </c>
@@ -4303,10 +5110,13 @@
       <c r="E107" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="52"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="132"/>
+      <c r="G107" s="132"/>
+      <c r="H107" s="132"/>
+      <c r="I107" s="52"/>
+      <c r="R107" s="13"/>
+    </row>
+    <row r="108" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>104</v>
       </c>
@@ -4323,10 +5133,19 @@
       <c r="E108" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F108" s="53"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="126">
+        <v>20</v>
+      </c>
+      <c r="G108" s="126">
+        <v>475263.15789473685</v>
+      </c>
+      <c r="H108" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="I108" s="53"/>
+      <c r="R108" s="13"/>
+    </row>
+    <row r="109" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>105</v>
       </c>
@@ -4343,10 +5162,13 @@
       <c r="E109" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F109" s="33"/>
-      <c r="O109" s="13"/>
-    </row>
-    <row r="110" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="133"/>
+      <c r="G109" s="133"/>
+      <c r="H109" s="133"/>
+      <c r="I109" s="33"/>
+      <c r="R109" s="13"/>
+    </row>
+    <row r="110" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>106</v>
       </c>
@@ -4363,12 +5185,21 @@
       <c r="E110" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="36" t="s">
+      <c r="F110" s="27">
+        <v>19</v>
+      </c>
+      <c r="G110" s="27">
+        <v>159649.12280701756</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O110" s="13"/>
-    </row>
-    <row r="111" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R110" s="13"/>
+    </row>
+    <row r="111" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>107</v>
       </c>
@@ -4385,10 +5216,13 @@
       <c r="E111" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="O111" s="13"/>
-    </row>
-    <row r="112" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="133"/>
+      <c r="G111" s="133"/>
+      <c r="H111" s="133"/>
+      <c r="I111" s="33"/>
+      <c r="R111" s="13"/>
+    </row>
+    <row r="112" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>108</v>
       </c>
@@ -4405,10 +5239,19 @@
       <c r="E112" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F112" s="33"/>
-      <c r="O112" s="13"/>
-    </row>
-    <row r="113" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="126">
+        <v>25</v>
+      </c>
+      <c r="G112" s="126">
+        <v>841923.07692307688</v>
+      </c>
+      <c r="H112" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I112" s="33"/>
+      <c r="R112" s="13"/>
+    </row>
+    <row r="113" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>109</v>
       </c>
@@ -4425,10 +5268,13 @@
       <c r="E113" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F113" s="33"/>
-      <c r="O113" s="13"/>
-    </row>
-    <row r="114" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="133"/>
+      <c r="G113" s="133"/>
+      <c r="H113" s="133"/>
+      <c r="I113" s="33"/>
+      <c r="R113" s="13"/>
+    </row>
+    <row r="114" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>110</v>
       </c>
@@ -4445,10 +5291,19 @@
       <c r="E114" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F114" s="33"/>
-      <c r="O114" s="13"/>
-    </row>
-    <row r="115" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="126">
+        <v>27</v>
+      </c>
+      <c r="G114" s="126">
+        <v>689470.89947089949</v>
+      </c>
+      <c r="H114" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I114" s="33"/>
+      <c r="R114" s="13"/>
+    </row>
+    <row r="115" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>111</v>
       </c>
@@ -4465,10 +5320,13 @@
       <c r="E115" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F115" s="33"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F115" s="133"/>
+      <c r="G115" s="133"/>
+      <c r="H115" s="133"/>
+      <c r="I115" s="33"/>
+      <c r="R115" s="13"/>
+    </row>
+    <row r="116" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>112</v>
       </c>
@@ -4485,10 +5343,19 @@
       <c r="E116" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F116" s="33"/>
-      <c r="O116" s="13"/>
-    </row>
-    <row r="117" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="130">
+        <v>31</v>
+      </c>
+      <c r="G116" s="130">
+        <v>484777.51756440283</v>
+      </c>
+      <c r="H116" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="I116" s="33"/>
+      <c r="R116" s="13"/>
+    </row>
+    <row r="117" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>113</v>
       </c>
@@ -4505,10 +5372,13 @@
       <c r="E117" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F117" s="33"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F117" s="133"/>
+      <c r="G117" s="133"/>
+      <c r="H117" s="133"/>
+      <c r="I117" s="33"/>
+      <c r="R117" s="13"/>
+    </row>
+    <row r="118" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>114</v>
       </c>
@@ -4525,10 +5395,19 @@
       <c r="E118" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F118" s="33"/>
-      <c r="O118" s="13"/>
-    </row>
-    <row r="119" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="127">
+        <v>29</v>
+      </c>
+      <c r="G118" s="127">
+        <v>1040774.818401937</v>
+      </c>
+      <c r="H118" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="I118" s="33"/>
+      <c r="R118" s="13"/>
+    </row>
+    <row r="119" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>115</v>
       </c>
@@ -4545,10 +5424,13 @@
       <c r="E119" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F119" s="33"/>
-      <c r="O119" s="13"/>
-    </row>
-    <row r="120" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="132"/>
+      <c r="G119" s="132"/>
+      <c r="H119" s="132"/>
+      <c r="I119" s="33"/>
+      <c r="R119" s="13"/>
+    </row>
+    <row r="120" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>116</v>
       </c>
@@ -4565,10 +5447,19 @@
       <c r="E120" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F120" s="52"/>
-      <c r="O120" s="13"/>
-    </row>
-    <row r="121" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="127">
+        <v>17</v>
+      </c>
+      <c r="G120" s="127">
+        <v>330504.2016806723</v>
+      </c>
+      <c r="H120" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="52"/>
+      <c r="R120" s="13"/>
+    </row>
+    <row r="121" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>117</v>
       </c>
@@ -4585,10 +5476,13 @@
       <c r="E121" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="33"/>
-      <c r="O121" s="13"/>
-    </row>
-    <row r="122" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="133"/>
+      <c r="G121" s="133"/>
+      <c r="H121" s="133"/>
+      <c r="I121" s="33"/>
+      <c r="R121" s="13"/>
+    </row>
+    <row r="122" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>118</v>
       </c>
@@ -4605,10 +5499,19 @@
       <c r="E122" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="28"/>
-      <c r="O122" s="13"/>
-    </row>
-    <row r="123" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="129">
+        <v>19</v>
+      </c>
+      <c r="G122" s="129">
+        <v>489176.4705882353</v>
+      </c>
+      <c r="H122" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="I122" s="28"/>
+      <c r="R122" s="13"/>
+    </row>
+    <row r="123" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>119</v>
       </c>
@@ -4625,10 +5528,13 @@
       <c r="E123" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F123" s="33"/>
-      <c r="O123" s="13"/>
-    </row>
-    <row r="124" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F123" s="133"/>
+      <c r="G123" s="133"/>
+      <c r="H123" s="133"/>
+      <c r="I123" s="33"/>
+      <c r="R123" s="13"/>
+    </row>
+    <row r="124" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="14">
         <v>120</v>
       </c>
@@ -4645,10 +5551,19 @@
       <c r="E124" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="19"/>
-      <c r="O124" s="13"/>
-    </row>
-    <row r="125" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="128">
+        <v>21</v>
+      </c>
+      <c r="G124" s="128">
+        <v>189624.06015037594</v>
+      </c>
+      <c r="H124" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" s="19"/>
+      <c r="R124" s="13"/>
+    </row>
+    <row r="125" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>121</v>
       </c>
@@ -4665,10 +5580,13 @@
       <c r="E125" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F125" s="33"/>
-      <c r="O125" s="13"/>
-    </row>
-    <row r="126" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="133"/>
+      <c r="G125" s="133"/>
+      <c r="H125" s="133"/>
+      <c r="I125" s="33"/>
+      <c r="R125" s="13"/>
+    </row>
+    <row r="126" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>122</v>
       </c>
@@ -4685,10 +5603,19 @@
       <c r="E126" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="28"/>
-      <c r="O126" s="13"/>
-    </row>
-    <row r="127" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="127">
+        <v>17</v>
+      </c>
+      <c r="G126" s="135">
+        <v>137892.85714285713</v>
+      </c>
+      <c r="H126" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" s="28"/>
+      <c r="R126" s="13"/>
+    </row>
+    <row r="127" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>123</v>
       </c>
@@ -4705,10 +5632,13 @@
       <c r="E127" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F127" s="33"/>
-      <c r="O127" s="13"/>
-    </row>
-    <row r="128" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="132"/>
+      <c r="G127" s="132"/>
+      <c r="H127" s="132"/>
+      <c r="I127" s="33"/>
+      <c r="R127" s="13"/>
+    </row>
+    <row r="128" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>124</v>
       </c>
@@ -4725,10 +5655,19 @@
       <c r="E128" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="O128" s="13"/>
-    </row>
-    <row r="129" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="126">
+        <v>20</v>
+      </c>
+      <c r="G128" s="126">
+        <v>257936.50793650793</v>
+      </c>
+      <c r="H128" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="I128" s="19"/>
+      <c r="R128" s="13"/>
+    </row>
+    <row r="129" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>125</v>
       </c>
@@ -4745,10 +5684,13 @@
       <c r="E129" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="52"/>
-      <c r="O129" s="13"/>
-    </row>
-    <row r="130" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="133"/>
+      <c r="G129" s="133"/>
+      <c r="H129" s="133"/>
+      <c r="I129" s="52"/>
+      <c r="R129" s="13"/>
+    </row>
+    <row r="130" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>126</v>
       </c>
@@ -4765,12 +5707,21 @@
       <c r="E130" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="36" t="s">
+      <c r="F130" s="35">
+        <v>18</v>
+      </c>
+      <c r="G130" s="35">
+        <v>256628.57142857142</v>
+      </c>
+      <c r="H130" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I130" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O130" s="13"/>
-    </row>
-    <row r="131" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R130" s="13"/>
+    </row>
+    <row r="131" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>127</v>
       </c>
@@ -4787,10 +5738,13 @@
       <c r="E131" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="O131" s="13"/>
-    </row>
-    <row r="132" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="133"/>
+      <c r="G131" s="133"/>
+      <c r="H131" s="133"/>
+      <c r="I131" s="33"/>
+      <c r="R131" s="13"/>
+    </row>
+    <row r="132" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="14">
         <v>128</v>
       </c>
@@ -4807,10 +5761,19 @@
       <c r="E132" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F132" s="33"/>
-      <c r="O132" s="13"/>
-    </row>
-    <row r="133" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="130">
+        <v>18</v>
+      </c>
+      <c r="G132" s="130">
+        <v>95992.063492063491</v>
+      </c>
+      <c r="H132" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="I132" s="33"/>
+      <c r="R132" s="13"/>
+    </row>
+    <row r="133" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>129</v>
       </c>
@@ -4827,10 +5790,13 @@
       <c r="E133" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F133" s="33"/>
-      <c r="O133" s="13"/>
-    </row>
-    <row r="134" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="133"/>
+      <c r="G133" s="133"/>
+      <c r="H133" s="133"/>
+      <c r="I133" s="33"/>
+      <c r="R133" s="13"/>
+    </row>
+    <row r="134" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>130</v>
       </c>
@@ -4847,10 +5813,22 @@
       <c r="E134" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F134" s="33"/>
-      <c r="O134" s="13"/>
-    </row>
-    <row r="135" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="127">
+        <v>19</v>
+      </c>
+      <c r="G134" s="127">
+        <v>20000</v>
+      </c>
+      <c r="H134" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I134" s="33"/>
+      <c r="J134" s="12">
+        <v>1</v>
+      </c>
+      <c r="R134" s="13"/>
+    </row>
+    <row r="135" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>131</v>
       </c>
@@ -4867,128 +5845,158 @@
       <c r="E135" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F135" s="33"/>
-      <c r="O135" s="13"/>
-    </row>
-    <row r="136" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="133"/>
+      <c r="G135" s="133"/>
+      <c r="H135" s="133"/>
+      <c r="I135" s="33"/>
+      <c r="R135" s="13"/>
+    </row>
+    <row r="136" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="67"/>
       <c r="B136" s="15">
         <f>B135+D135</f>
         <v>0.99974537037037203</v>
       </c>
-      <c r="F136" s="68"/>
-      <c r="O136" s="13"/>
-    </row>
-    <row r="137" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I136" s="68"/>
+      <c r="R136" s="13"/>
+    </row>
+    <row r="137" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="67"/>
       <c r="B137" s="69"/>
       <c r="C137" s="70"/>
       <c r="D137" s="71"/>
       <c r="E137" s="72"/>
-      <c r="F137" s="73"/>
-      <c r="O137" s="13"/>
-    </row>
-    <row r="138" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="73"/>
+      <c r="R137" s="13"/>
+    </row>
+    <row r="138" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="67"/>
       <c r="B138" s="69"/>
       <c r="C138" s="70"/>
       <c r="D138" s="71"/>
       <c r="E138" s="72"/>
-      <c r="F138" s="73"/>
-      <c r="O138" s="13"/>
-    </row>
-    <row r="139" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="73"/>
+      <c r="R138" s="13"/>
+    </row>
+    <row r="139" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="67"/>
       <c r="B139" s="69"/>
       <c r="C139" s="74"/>
       <c r="D139" s="75"/>
       <c r="E139" s="76"/>
-      <c r="F139" s="11"/>
-      <c r="O139" s="13"/>
-    </row>
-    <row r="140" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="11"/>
+      <c r="R139" s="13"/>
+    </row>
+    <row r="140" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="77"/>
       <c r="B140" s="78"/>
       <c r="C140" s="79"/>
       <c r="D140" s="80"/>
       <c r="E140" s="81"/>
-      <c r="F140" s="82"/>
-      <c r="O140" s="13"/>
-    </row>
-    <row r="141" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="82"/>
+      <c r="R140" s="13"/>
+    </row>
+    <row r="141" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="67"/>
       <c r="B141" s="69"/>
       <c r="C141" s="83"/>
       <c r="D141" s="75"/>
       <c r="E141" s="76"/>
-      <c r="F141" s="84"/>
-      <c r="O141" s="13"/>
-    </row>
-    <row r="142" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="84"/>
+      <c r="R141" s="13"/>
+    </row>
+    <row r="142" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="85"/>
       <c r="B142" s="69"/>
       <c r="C142" s="86"/>
       <c r="D142" s="75"/>
       <c r="E142" s="72"/>
-      <c r="F142" s="87"/>
-      <c r="O142" s="13"/>
-    </row>
-    <row r="143" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="87"/>
+      <c r="R142" s="13"/>
+    </row>
+    <row r="143" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="88"/>
       <c r="B143" s="89"/>
       <c r="C143" s="86"/>
       <c r="D143" s="75"/>
       <c r="E143" s="72"/>
-      <c r="F143" s="84"/>
-      <c r="O143" s="13"/>
-    </row>
-    <row r="144" spans="1:15" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="84"/>
+      <c r="R143" s="13"/>
+    </row>
+    <row r="144" spans="1:18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="90"/>
       <c r="B144" s="91"/>
       <c r="C144" s="92"/>
-      <c r="D144" s="93" t="s">
+      <c r="D144" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E144" s="93"/>
-      <c r="F144" s="94"/>
-      <c r="O144" s="13"/>
-    </row>
-    <row r="145" spans="1:256" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="122"/>
+      <c r="F144" s="93"/>
+      <c r="G144" s="93"/>
+      <c r="H144" s="93"/>
+      <c r="I144" s="94"/>
+      <c r="R144" s="13"/>
+    </row>
+    <row r="145" spans="1:259" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="90"/>
       <c r="B145" s="91"/>
       <c r="C145" s="92"/>
-      <c r="D145" s="95" t="s">
+      <c r="D145" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="E145" s="95"/>
-      <c r="F145" s="96"/>
-      <c r="O145" s="13"/>
-    </row>
-    <row r="146" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="97" t="s">
+      <c r="E145" s="123"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="95"/>
+      <c r="R145" s="13"/>
+    </row>
+    <row r="146" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="97"/>
+      <c r="B146" s="124"/>
       <c r="C146" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="D146" s="95" t="s">
+      <c r="D146" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="E146" s="95"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
+      <c r="E146" s="123"/>
+      <c r="F146" s="97"/>
+      <c r="G146" s="97"/>
+      <c r="H146" s="97"/>
+      <c r="I146" s="82"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
       <c r="N146" s="12"/>
-      <c r="O146" s="13"/>
+      <c r="O146" s="12"/>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
+      <c r="R146" s="13"/>
       <c r="S146" s="12"/>
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
@@ -5227,26 +6235,29 @@
       <c r="IT146" s="12"/>
       <c r="IU146" s="12"/>
       <c r="IV146" s="12"/>
-    </row>
-    <row r="147" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="IW146" s="12"/>
+      <c r="IX146" s="12"/>
+      <c r="IY146" s="12"/>
+    </row>
+    <row r="147" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="90"/>
       <c r="B147" s="91"/>
       <c r="C147" s="92"/>
-      <c r="D147" s="99"/>
-      <c r="E147" s="99"/>
-      <c r="F147" s="87"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="87"/>
       <c r="J147" s="12"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
-      <c r="O147" s="13"/>
+      <c r="O147" s="12"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
+      <c r="R147" s="13"/>
       <c r="S147" s="12"/>
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
@@ -5485,17 +6496,20 @@
       <c r="IT147" s="12"/>
       <c r="IU147" s="12"/>
       <c r="IV147" s="12"/>
-    </row>
-    <row r="148" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="IW147" s="12"/>
+      <c r="IX147" s="12"/>
+      <c r="IY147" s="12"/>
+    </row>
+    <row r="148" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="90"/>
       <c r="B148" s="91"/>
       <c r="C148" s="92"/>
-      <c r="D148" s="99"/>
-      <c r="E148" s="99"/>
-      <c r="F148" s="87"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="97"/>
+      <c r="I148" s="87"/>
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
@@ -5743,1239 +6757,1285 @@
       <c r="IT148" s="12"/>
       <c r="IU148" s="12"/>
       <c r="IV148" s="12"/>
-    </row>
-    <row r="149" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IW148" s="12"/>
+      <c r="IX148" s="12"/>
+      <c r="IY148" s="12"/>
+    </row>
+    <row r="149" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="90"/>
       <c r="B149" s="91"/>
       <c r="C149" s="92"/>
-      <c r="D149" s="99"/>
-      <c r="E149" s="99"/>
-      <c r="F149" s="100"/>
-    </row>
-    <row r="150" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="98"/>
+    </row>
+    <row r="150" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="90"/>
       <c r="B150" s="91"/>
       <c r="C150" s="92"/>
-      <c r="D150" s="99"/>
-      <c r="E150" s="99"/>
-      <c r="F150" s="101"/>
-      <c r="G150" s="99"/>
-      <c r="H150" s="99"/>
+      <c r="D150" s="97"/>
+      <c r="E150" s="97"/>
+      <c r="F150" s="97"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="97"/>
       <c r="I150" s="99"/>
-      <c r="J150" s="102"/>
-      <c r="K150" s="102"/>
-    </row>
-    <row r="151" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J150" s="97"/>
+      <c r="K150" s="97"/>
+      <c r="L150" s="97"/>
+      <c r="M150" s="100"/>
+      <c r="N150" s="100"/>
+    </row>
+    <row r="151" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="90"/>
       <c r="B151" s="91"/>
       <c r="C151" s="92"/>
-      <c r="D151" s="99"/>
-      <c r="E151" s="99"/>
-      <c r="F151" s="101"/>
-      <c r="G151" s="99"/>
-      <c r="H151" s="99"/>
+      <c r="D151" s="97"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="97"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="97"/>
       <c r="I151" s="99"/>
-      <c r="J151" s="102"/>
-      <c r="K151" s="102"/>
-    </row>
-    <row r="152" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J151" s="97"/>
+      <c r="K151" s="97"/>
+      <c r="L151" s="97"/>
+      <c r="M151" s="100"/>
+      <c r="N151" s="100"/>
+    </row>
+    <row r="152" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="90"/>
       <c r="B152" s="91"/>
       <c r="C152" s="92"/>
-      <c r="D152" s="99"/>
-      <c r="E152" s="99"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="99"/>
-      <c r="H152" s="99"/>
+      <c r="D152" s="97"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="97"/>
       <c r="I152" s="99"/>
-      <c r="J152" s="102"/>
-      <c r="K152" s="102"/>
-    </row>
-    <row r="153" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J152" s="97"/>
+      <c r="K152" s="97"/>
+      <c r="L152" s="97"/>
+      <c r="M152" s="100"/>
+      <c r="N152" s="100"/>
+    </row>
+    <row r="153" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="90"/>
       <c r="B153" s="91"/>
-      <c r="C153" s="103" t="s">
+      <c r="C153" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D153" s="103"/>
-      <c r="E153" s="99"/>
-      <c r="F153" s="101"/>
-      <c r="G153" s="99"/>
-      <c r="H153" s="99"/>
+      <c r="D153" s="118"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
       <c r="I153" s="99"/>
-      <c r="J153" s="102"/>
-      <c r="K153" s="102"/>
-    </row>
-    <row r="154" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="100"/>
+      <c r="N153" s="100"/>
+    </row>
+    <row r="154" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="90"/>
       <c r="B154" s="91"/>
-      <c r="C154" s="103" t="s">
+      <c r="C154" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="D154" s="103"/>
-      <c r="E154" s="99"/>
-      <c r="F154" s="101"/>
-      <c r="G154" s="99"/>
-      <c r="H154" s="99"/>
+      <c r="D154" s="118"/>
+      <c r="E154" s="97"/>
+      <c r="F154" s="97"/>
+      <c r="G154" s="97"/>
+      <c r="H154" s="97"/>
       <c r="I154" s="99"/>
-      <c r="J154" s="102"/>
-      <c r="K154" s="102"/>
-    </row>
-    <row r="155" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J154" s="97"/>
+      <c r="K154" s="97"/>
+      <c r="L154" s="97"/>
+      <c r="M154" s="100"/>
+      <c r="N154" s="100"/>
+    </row>
+    <row r="155" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="90"/>
       <c r="B155" s="91"/>
       <c r="C155" s="92"/>
-      <c r="D155" s="99"/>
-      <c r="E155" s="99"/>
-      <c r="F155" s="101"/>
-      <c r="G155" s="99"/>
-      <c r="H155" s="99"/>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="97"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="97"/>
       <c r="I155" s="99"/>
-      <c r="J155" s="102"/>
-      <c r="K155" s="102"/>
-    </row>
-    <row r="156" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J155" s="97"/>
+      <c r="K155" s="97"/>
+      <c r="L155" s="97"/>
+      <c r="M155" s="100"/>
+      <c r="N155" s="100"/>
+    </row>
+    <row r="156" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="90"/>
       <c r="B156" s="91"/>
       <c r="C156" s="92"/>
-      <c r="D156" s="99"/>
-      <c r="E156" s="99"/>
-      <c r="F156" s="101"/>
-      <c r="G156" s="99"/>
-      <c r="H156" s="99"/>
+      <c r="D156" s="97"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="97"/>
       <c r="I156" s="99"/>
-      <c r="J156" s="102"/>
-      <c r="K156" s="102"/>
-    </row>
-    <row r="157" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J156" s="97"/>
+      <c r="K156" s="97"/>
+      <c r="L156" s="97"/>
+      <c r="M156" s="100"/>
+      <c r="N156" s="100"/>
+    </row>
+    <row r="157" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="90"/>
       <c r="B157" s="91"/>
       <c r="C157" s="92"/>
-      <c r="D157" s="99"/>
-      <c r="E157" s="99"/>
-      <c r="F157" s="101"/>
-      <c r="G157" s="99"/>
-      <c r="H157" s="99"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
       <c r="I157" s="99"/>
-      <c r="J157" s="102"/>
-      <c r="K157" s="102"/>
-    </row>
-    <row r="158" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J157" s="97"/>
+      <c r="K157" s="97"/>
+      <c r="L157" s="97"/>
+      <c r="M157" s="100"/>
+      <c r="N157" s="100"/>
+    </row>
+    <row r="158" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="90"/>
       <c r="B158" s="91"/>
-      <c r="C158" s="103"/>
-      <c r="D158" s="103"/>
-      <c r="E158" s="99"/>
-      <c r="F158" s="101"/>
-      <c r="G158" s="99"/>
-      <c r="H158" s="99"/>
+      <c r="C158" s="118"/>
+      <c r="D158" s="118"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="97"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
       <c r="I158" s="99"/>
-      <c r="J158" s="102"/>
-      <c r="K158" s="102"/>
-    </row>
-    <row r="159" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J158" s="97"/>
+      <c r="K158" s="97"/>
+      <c r="L158" s="97"/>
+      <c r="M158" s="100"/>
+      <c r="N158" s="100"/>
+    </row>
+    <row r="159" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="90"/>
       <c r="B159" s="91"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="105"/>
-      <c r="E159" s="105"/>
-      <c r="F159" s="101"/>
-      <c r="G159" s="99"/>
-      <c r="H159" s="99"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="102"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="102"/>
+      <c r="H159" s="102"/>
       <c r="I159" s="99"/>
-      <c r="J159" s="102"/>
-      <c r="K159" s="102"/>
-    </row>
-    <row r="160" spans="1:256" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J159" s="97"/>
+      <c r="K159" s="97"/>
+      <c r="L159" s="97"/>
+      <c r="M159" s="100"/>
+      <c r="N159" s="100"/>
+    </row>
+    <row r="160" spans="1:259" s="96" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="88"/>
-      <c r="B160" s="106"/>
-      <c r="C160" s="107"/>
-      <c r="D160" s="107"/>
-      <c r="E160" s="107"/>
-      <c r="F160" s="101"/>
-      <c r="G160" s="99"/>
-      <c r="H160" s="99"/>
+      <c r="B160" s="103"/>
+      <c r="C160" s="104"/>
+      <c r="D160" s="104"/>
+      <c r="E160" s="104"/>
+      <c r="F160" s="104"/>
+      <c r="G160" s="104"/>
+      <c r="H160" s="104"/>
       <c r="I160" s="99"/>
-      <c r="J160" s="102"/>
-      <c r="K160" s="102"/>
-    </row>
-    <row r="161" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="108"/>
-      <c r="B161" s="109"/>
-      <c r="C161" s="110"/>
-      <c r="D161" s="110"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="99"/>
-      <c r="H161" s="99"/>
+      <c r="J160" s="97"/>
+      <c r="K160" s="97"/>
+      <c r="L160" s="97"/>
+      <c r="M160" s="100"/>
+      <c r="N160" s="100"/>
+    </row>
+    <row r="161" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="105"/>
+      <c r="B161" s="106"/>
+      <c r="C161" s="107"/>
+      <c r="D161" s="107"/>
+      <c r="E161" s="108"/>
+      <c r="F161" s="134"/>
+      <c r="G161" s="134"/>
+      <c r="H161" s="134"/>
       <c r="I161" s="99"/>
-      <c r="J161" s="102"/>
-      <c r="K161" s="102"/>
-      <c r="L161" s="98"/>
-      <c r="M161" s="98"/>
-      <c r="N161" s="98"/>
-      <c r="O161" s="98"/>
-      <c r="P161" s="98"/>
-      <c r="Q161" s="98"/>
-      <c r="R161" s="98"/>
-      <c r="S161" s="98"/>
-      <c r="T161" s="98"/>
-      <c r="U161" s="98"/>
-      <c r="V161" s="98"/>
-      <c r="W161" s="98"/>
-      <c r="X161" s="98"/>
-      <c r="Y161" s="98"/>
-      <c r="Z161" s="98"/>
-      <c r="AA161" s="98"/>
-      <c r="AB161" s="98"/>
-      <c r="AC161" s="98"/>
-      <c r="AD161" s="98"/>
-      <c r="AE161" s="98"/>
-      <c r="AF161" s="98"/>
-      <c r="AG161" s="98"/>
-      <c r="AH161" s="98"/>
-      <c r="AI161" s="98"/>
-      <c r="AJ161" s="98"/>
-      <c r="AK161" s="98"/>
-      <c r="AL161" s="98"/>
-      <c r="AM161" s="98"/>
-      <c r="AN161" s="98"/>
-      <c r="AO161" s="98"/>
-      <c r="AP161" s="98"/>
-      <c r="AQ161" s="98"/>
-      <c r="AR161" s="98"/>
-      <c r="AS161" s="98"/>
-      <c r="AT161" s="98"/>
-      <c r="AU161" s="98"/>
-      <c r="AV161" s="98"/>
-      <c r="AW161" s="98"/>
-      <c r="AX161" s="98"/>
-      <c r="AY161" s="98"/>
-      <c r="AZ161" s="98"/>
-      <c r="BA161" s="98"/>
-      <c r="BB161" s="98"/>
-      <c r="BC161" s="98"/>
-      <c r="BD161" s="98"/>
-      <c r="BE161" s="98"/>
-      <c r="BF161" s="98"/>
-      <c r="BG161" s="98"/>
-      <c r="BH161" s="98"/>
-      <c r="BI161" s="98"/>
-      <c r="BJ161" s="98"/>
-      <c r="BK161" s="98"/>
-      <c r="BL161" s="98"/>
-      <c r="BM161" s="98"/>
-      <c r="BN161" s="98"/>
-      <c r="BO161" s="98"/>
-      <c r="BP161" s="98"/>
-      <c r="BQ161" s="98"/>
-      <c r="BR161" s="98"/>
-      <c r="BS161" s="98"/>
-      <c r="BT161" s="98"/>
-      <c r="BU161" s="98"/>
-      <c r="BV161" s="98"/>
-      <c r="BW161" s="98"/>
-      <c r="BX161" s="98"/>
-      <c r="BY161" s="98"/>
-      <c r="BZ161" s="98"/>
-      <c r="CA161" s="98"/>
-      <c r="CB161" s="98"/>
-      <c r="CC161" s="98"/>
-      <c r="CD161" s="98"/>
-      <c r="CE161" s="98"/>
-      <c r="CF161" s="98"/>
-      <c r="CG161" s="98"/>
-      <c r="CH161" s="98"/>
-      <c r="CI161" s="98"/>
-      <c r="CJ161" s="98"/>
-      <c r="CK161" s="98"/>
-      <c r="CL161" s="98"/>
-      <c r="CM161" s="98"/>
-      <c r="CN161" s="98"/>
-      <c r="CO161" s="98"/>
-      <c r="CP161" s="98"/>
-      <c r="CQ161" s="98"/>
-      <c r="CR161" s="98"/>
-      <c r="CS161" s="98"/>
-      <c r="CT161" s="98"/>
-      <c r="CU161" s="98"/>
-      <c r="CV161" s="98"/>
-      <c r="CW161" s="98"/>
-      <c r="CX161" s="98"/>
-      <c r="CY161" s="98"/>
-      <c r="CZ161" s="98"/>
-      <c r="DA161" s="98"/>
-      <c r="DB161" s="98"/>
-      <c r="DC161" s="98"/>
-      <c r="DD161" s="98"/>
-      <c r="DE161" s="98"/>
-      <c r="DF161" s="98"/>
-      <c r="DG161" s="98"/>
-      <c r="DH161" s="98"/>
-      <c r="DI161" s="98"/>
-      <c r="DJ161" s="98"/>
-      <c r="DK161" s="98"/>
-      <c r="DL161" s="98"/>
-      <c r="DM161" s="98"/>
-      <c r="DN161" s="98"/>
-      <c r="DO161" s="98"/>
-      <c r="DP161" s="98"/>
-      <c r="DQ161" s="98"/>
-      <c r="DR161" s="98"/>
-      <c r="DS161" s="98"/>
-      <c r="DT161" s="98"/>
-      <c r="DU161" s="98"/>
-      <c r="DV161" s="98"/>
-      <c r="DW161" s="98"/>
-      <c r="DX161" s="98"/>
-      <c r="DY161" s="98"/>
-      <c r="DZ161" s="98"/>
-      <c r="EA161" s="98"/>
-      <c r="EB161" s="98"/>
-      <c r="EC161" s="98"/>
-      <c r="ED161" s="98"/>
-      <c r="EE161" s="98"/>
-      <c r="EF161" s="98"/>
-      <c r="EG161" s="98"/>
-      <c r="EH161" s="98"/>
-      <c r="EI161" s="98"/>
-      <c r="EJ161" s="98"/>
-      <c r="EK161" s="98"/>
-      <c r="EL161" s="98"/>
-      <c r="EM161" s="98"/>
-      <c r="EN161" s="98"/>
-      <c r="EO161" s="98"/>
-      <c r="EP161" s="98"/>
-      <c r="EQ161" s="98"/>
-      <c r="ER161" s="98"/>
-      <c r="ES161" s="98"/>
-      <c r="ET161" s="98"/>
-      <c r="EU161" s="98"/>
-      <c r="EV161" s="98"/>
-      <c r="EW161" s="98"/>
-      <c r="EX161" s="98"/>
-      <c r="EY161" s="98"/>
-      <c r="EZ161" s="98"/>
-      <c r="FA161" s="98"/>
-      <c r="FB161" s="98"/>
-      <c r="FC161" s="98"/>
-      <c r="FD161" s="98"/>
-      <c r="FE161" s="98"/>
-      <c r="FF161" s="98"/>
-      <c r="FG161" s="98"/>
-      <c r="FH161" s="98"/>
-      <c r="FI161" s="98"/>
-      <c r="FJ161" s="98"/>
-      <c r="FK161" s="98"/>
-      <c r="FL161" s="98"/>
-      <c r="FM161" s="98"/>
-      <c r="FN161" s="98"/>
-      <c r="FO161" s="98"/>
-      <c r="FP161" s="98"/>
-      <c r="FQ161" s="98"/>
-      <c r="FR161" s="98"/>
-      <c r="FS161" s="98"/>
-      <c r="FT161" s="98"/>
-      <c r="FU161" s="98"/>
-      <c r="FV161" s="98"/>
-      <c r="FW161" s="98"/>
-      <c r="FX161" s="98"/>
-      <c r="FY161" s="98"/>
-      <c r="FZ161" s="98"/>
-      <c r="GA161" s="98"/>
-      <c r="GB161" s="98"/>
-      <c r="GC161" s="98"/>
-      <c r="GD161" s="98"/>
-      <c r="GE161" s="98"/>
-      <c r="GF161" s="98"/>
-      <c r="GG161" s="98"/>
-      <c r="GH161" s="98"/>
-      <c r="GI161" s="98"/>
-      <c r="GJ161" s="98"/>
-      <c r="GK161" s="98"/>
-      <c r="GL161" s="98"/>
-      <c r="GM161" s="98"/>
-      <c r="GN161" s="98"/>
-      <c r="GO161" s="98"/>
-      <c r="GP161" s="98"/>
-      <c r="GQ161" s="98"/>
-      <c r="GR161" s="98"/>
-      <c r="GS161" s="98"/>
-      <c r="GT161" s="98"/>
-      <c r="GU161" s="98"/>
-      <c r="GV161" s="98"/>
-      <c r="GW161" s="98"/>
-      <c r="GX161" s="98"/>
-      <c r="GY161" s="98"/>
-      <c r="GZ161" s="98"/>
-      <c r="HA161" s="98"/>
-      <c r="HB161" s="98"/>
-      <c r="HC161" s="98"/>
-      <c r="HD161" s="98"/>
-      <c r="HE161" s="98"/>
-      <c r="HF161" s="98"/>
-      <c r="HG161" s="98"/>
-      <c r="HH161" s="98"/>
-      <c r="HI161" s="98"/>
-      <c r="HJ161" s="98"/>
-      <c r="HK161" s="98"/>
-      <c r="HL161" s="98"/>
-      <c r="HM161" s="98"/>
-      <c r="HN161" s="98"/>
-      <c r="HO161" s="98"/>
-      <c r="HP161" s="98"/>
-      <c r="HQ161" s="98"/>
-      <c r="HR161" s="98"/>
-      <c r="HS161" s="98"/>
-      <c r="HT161" s="98"/>
-      <c r="HU161" s="98"/>
-      <c r="HV161" s="98"/>
-      <c r="HW161" s="98"/>
-      <c r="HX161" s="98"/>
-      <c r="HY161" s="98"/>
-      <c r="HZ161" s="98"/>
-      <c r="IA161" s="98"/>
-      <c r="IB161" s="98"/>
-      <c r="IC161" s="98"/>
-      <c r="ID161" s="98"/>
-      <c r="IE161" s="98"/>
-      <c r="IF161" s="98"/>
-      <c r="IG161" s="98"/>
-      <c r="IH161" s="98"/>
-      <c r="II161" s="98"/>
-      <c r="IJ161" s="98"/>
-      <c r="IK161" s="98"/>
-      <c r="IL161" s="98"/>
-      <c r="IM161" s="98"/>
-      <c r="IN161" s="98"/>
-      <c r="IO161" s="98"/>
-      <c r="IP161" s="98"/>
-      <c r="IQ161" s="98"/>
-      <c r="IR161" s="98"/>
-      <c r="IS161" s="98"/>
-      <c r="IT161" s="98"/>
-      <c r="IU161" s="98"/>
-      <c r="IV161" s="98"/>
-    </row>
-    <row r="162" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="112" t="s">
+      <c r="J161" s="97"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="97"/>
+      <c r="M161" s="100"/>
+      <c r="N161" s="100"/>
+      <c r="O161" s="96"/>
+      <c r="P161" s="96"/>
+      <c r="Q161" s="96"/>
+      <c r="R161" s="96"/>
+      <c r="S161" s="96"/>
+      <c r="T161" s="96"/>
+      <c r="U161" s="96"/>
+      <c r="V161" s="96"/>
+      <c r="W161" s="96"/>
+      <c r="X161" s="96"/>
+      <c r="Y161" s="96"/>
+      <c r="Z161" s="96"/>
+      <c r="AA161" s="96"/>
+      <c r="AB161" s="96"/>
+      <c r="AC161" s="96"/>
+      <c r="AD161" s="96"/>
+      <c r="AE161" s="96"/>
+      <c r="AF161" s="96"/>
+      <c r="AG161" s="96"/>
+      <c r="AH161" s="96"/>
+      <c r="AI161" s="96"/>
+      <c r="AJ161" s="96"/>
+      <c r="AK161" s="96"/>
+      <c r="AL161" s="96"/>
+      <c r="AM161" s="96"/>
+      <c r="AN161" s="96"/>
+      <c r="AO161" s="96"/>
+      <c r="AP161" s="96"/>
+      <c r="AQ161" s="96"/>
+      <c r="AR161" s="96"/>
+      <c r="AS161" s="96"/>
+      <c r="AT161" s="96"/>
+      <c r="AU161" s="96"/>
+      <c r="AV161" s="96"/>
+      <c r="AW161" s="96"/>
+      <c r="AX161" s="96"/>
+      <c r="AY161" s="96"/>
+      <c r="AZ161" s="96"/>
+      <c r="BA161" s="96"/>
+      <c r="BB161" s="96"/>
+      <c r="BC161" s="96"/>
+      <c r="BD161" s="96"/>
+      <c r="BE161" s="96"/>
+      <c r="BF161" s="96"/>
+      <c r="BG161" s="96"/>
+      <c r="BH161" s="96"/>
+      <c r="BI161" s="96"/>
+      <c r="BJ161" s="96"/>
+      <c r="BK161" s="96"/>
+      <c r="BL161" s="96"/>
+      <c r="BM161" s="96"/>
+      <c r="BN161" s="96"/>
+      <c r="BO161" s="96"/>
+      <c r="BP161" s="96"/>
+      <c r="BQ161" s="96"/>
+      <c r="BR161" s="96"/>
+      <c r="BS161" s="96"/>
+      <c r="BT161" s="96"/>
+      <c r="BU161" s="96"/>
+      <c r="BV161" s="96"/>
+      <c r="BW161" s="96"/>
+      <c r="BX161" s="96"/>
+      <c r="BY161" s="96"/>
+      <c r="BZ161" s="96"/>
+      <c r="CA161" s="96"/>
+      <c r="CB161" s="96"/>
+      <c r="CC161" s="96"/>
+      <c r="CD161" s="96"/>
+      <c r="CE161" s="96"/>
+      <c r="CF161" s="96"/>
+      <c r="CG161" s="96"/>
+      <c r="CH161" s="96"/>
+      <c r="CI161" s="96"/>
+      <c r="CJ161" s="96"/>
+      <c r="CK161" s="96"/>
+      <c r="CL161" s="96"/>
+      <c r="CM161" s="96"/>
+      <c r="CN161" s="96"/>
+      <c r="CO161" s="96"/>
+      <c r="CP161" s="96"/>
+      <c r="CQ161" s="96"/>
+      <c r="CR161" s="96"/>
+      <c r="CS161" s="96"/>
+      <c r="CT161" s="96"/>
+      <c r="CU161" s="96"/>
+      <c r="CV161" s="96"/>
+      <c r="CW161" s="96"/>
+      <c r="CX161" s="96"/>
+      <c r="CY161" s="96"/>
+      <c r="CZ161" s="96"/>
+      <c r="DA161" s="96"/>
+      <c r="DB161" s="96"/>
+      <c r="DC161" s="96"/>
+      <c r="DD161" s="96"/>
+      <c r="DE161" s="96"/>
+      <c r="DF161" s="96"/>
+      <c r="DG161" s="96"/>
+      <c r="DH161" s="96"/>
+      <c r="DI161" s="96"/>
+      <c r="DJ161" s="96"/>
+      <c r="DK161" s="96"/>
+      <c r="DL161" s="96"/>
+      <c r="DM161" s="96"/>
+      <c r="DN161" s="96"/>
+      <c r="DO161" s="96"/>
+      <c r="DP161" s="96"/>
+      <c r="DQ161" s="96"/>
+      <c r="DR161" s="96"/>
+      <c r="DS161" s="96"/>
+      <c r="DT161" s="96"/>
+      <c r="DU161" s="96"/>
+      <c r="DV161" s="96"/>
+      <c r="DW161" s="96"/>
+      <c r="DX161" s="96"/>
+      <c r="DY161" s="96"/>
+      <c r="DZ161" s="96"/>
+      <c r="EA161" s="96"/>
+      <c r="EB161" s="96"/>
+      <c r="EC161" s="96"/>
+      <c r="ED161" s="96"/>
+      <c r="EE161" s="96"/>
+      <c r="EF161" s="96"/>
+      <c r="EG161" s="96"/>
+      <c r="EH161" s="96"/>
+      <c r="EI161" s="96"/>
+      <c r="EJ161" s="96"/>
+      <c r="EK161" s="96"/>
+      <c r="EL161" s="96"/>
+      <c r="EM161" s="96"/>
+      <c r="EN161" s="96"/>
+      <c r="EO161" s="96"/>
+      <c r="EP161" s="96"/>
+      <c r="EQ161" s="96"/>
+      <c r="ER161" s="96"/>
+      <c r="ES161" s="96"/>
+      <c r="ET161" s="96"/>
+      <c r="EU161" s="96"/>
+      <c r="EV161" s="96"/>
+      <c r="EW161" s="96"/>
+      <c r="EX161" s="96"/>
+      <c r="EY161" s="96"/>
+      <c r="EZ161" s="96"/>
+      <c r="FA161" s="96"/>
+      <c r="FB161" s="96"/>
+      <c r="FC161" s="96"/>
+      <c r="FD161" s="96"/>
+      <c r="FE161" s="96"/>
+      <c r="FF161" s="96"/>
+      <c r="FG161" s="96"/>
+      <c r="FH161" s="96"/>
+      <c r="FI161" s="96"/>
+      <c r="FJ161" s="96"/>
+      <c r="FK161" s="96"/>
+      <c r="FL161" s="96"/>
+      <c r="FM161" s="96"/>
+      <c r="FN161" s="96"/>
+      <c r="FO161" s="96"/>
+      <c r="FP161" s="96"/>
+      <c r="FQ161" s="96"/>
+      <c r="FR161" s="96"/>
+      <c r="FS161" s="96"/>
+      <c r="FT161" s="96"/>
+      <c r="FU161" s="96"/>
+      <c r="FV161" s="96"/>
+      <c r="FW161" s="96"/>
+      <c r="FX161" s="96"/>
+      <c r="FY161" s="96"/>
+      <c r="FZ161" s="96"/>
+      <c r="GA161" s="96"/>
+      <c r="GB161" s="96"/>
+      <c r="GC161" s="96"/>
+      <c r="GD161" s="96"/>
+      <c r="GE161" s="96"/>
+      <c r="GF161" s="96"/>
+      <c r="GG161" s="96"/>
+      <c r="GH161" s="96"/>
+      <c r="GI161" s="96"/>
+      <c r="GJ161" s="96"/>
+      <c r="GK161" s="96"/>
+      <c r="GL161" s="96"/>
+      <c r="GM161" s="96"/>
+      <c r="GN161" s="96"/>
+      <c r="GO161" s="96"/>
+      <c r="GP161" s="96"/>
+      <c r="GQ161" s="96"/>
+      <c r="GR161" s="96"/>
+      <c r="GS161" s="96"/>
+      <c r="GT161" s="96"/>
+      <c r="GU161" s="96"/>
+      <c r="GV161" s="96"/>
+      <c r="GW161" s="96"/>
+      <c r="GX161" s="96"/>
+      <c r="GY161" s="96"/>
+      <c r="GZ161" s="96"/>
+      <c r="HA161" s="96"/>
+      <c r="HB161" s="96"/>
+      <c r="HC161" s="96"/>
+      <c r="HD161" s="96"/>
+      <c r="HE161" s="96"/>
+      <c r="HF161" s="96"/>
+      <c r="HG161" s="96"/>
+      <c r="HH161" s="96"/>
+      <c r="HI161" s="96"/>
+      <c r="HJ161" s="96"/>
+      <c r="HK161" s="96"/>
+      <c r="HL161" s="96"/>
+      <c r="HM161" s="96"/>
+      <c r="HN161" s="96"/>
+      <c r="HO161" s="96"/>
+      <c r="HP161" s="96"/>
+      <c r="HQ161" s="96"/>
+      <c r="HR161" s="96"/>
+      <c r="HS161" s="96"/>
+      <c r="HT161" s="96"/>
+      <c r="HU161" s="96"/>
+      <c r="HV161" s="96"/>
+      <c r="HW161" s="96"/>
+      <c r="HX161" s="96"/>
+      <c r="HY161" s="96"/>
+      <c r="HZ161" s="96"/>
+      <c r="IA161" s="96"/>
+      <c r="IB161" s="96"/>
+      <c r="IC161" s="96"/>
+      <c r="ID161" s="96"/>
+      <c r="IE161" s="96"/>
+      <c r="IF161" s="96"/>
+      <c r="IG161" s="96"/>
+      <c r="IH161" s="96"/>
+      <c r="II161" s="96"/>
+      <c r="IJ161" s="96"/>
+      <c r="IK161" s="96"/>
+      <c r="IL161" s="96"/>
+      <c r="IM161" s="96"/>
+      <c r="IN161" s="96"/>
+      <c r="IO161" s="96"/>
+      <c r="IP161" s="96"/>
+      <c r="IQ161" s="96"/>
+      <c r="IR161" s="96"/>
+      <c r="IS161" s="96"/>
+      <c r="IT161" s="96"/>
+      <c r="IU161" s="96"/>
+      <c r="IV161" s="96"/>
+      <c r="IW161" s="96"/>
+      <c r="IX161" s="96"/>
+      <c r="IY161" s="96"/>
+    </row>
+    <row r="162" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D162" s="112"/>
-      <c r="F162" s="101"/>
-      <c r="G162" s="99"/>
-      <c r="H162" s="99"/>
+      <c r="D162" s="119"/>
       <c r="I162" s="99"/>
-      <c r="J162" s="102"/>
-      <c r="K162" s="102"/>
-      <c r="L162" s="98"/>
-      <c r="M162" s="98"/>
-      <c r="N162" s="98"/>
-      <c r="O162" s="98"/>
-      <c r="P162" s="98"/>
-      <c r="Q162" s="98"/>
-      <c r="R162" s="98"/>
-      <c r="S162" s="98"/>
-      <c r="T162" s="98"/>
-      <c r="U162" s="98"/>
-      <c r="V162" s="98"/>
-      <c r="W162" s="98"/>
-      <c r="X162" s="98"/>
-      <c r="Y162" s="98"/>
-      <c r="Z162" s="98"/>
-      <c r="AA162" s="98"/>
-      <c r="AB162" s="98"/>
-      <c r="AC162" s="98"/>
-      <c r="AD162" s="98"/>
-      <c r="AE162" s="98"/>
-      <c r="AF162" s="98"/>
-      <c r="AG162" s="98"/>
-      <c r="AH162" s="98"/>
-      <c r="AI162" s="98"/>
-      <c r="AJ162" s="98"/>
-      <c r="AK162" s="98"/>
-      <c r="AL162" s="98"/>
-      <c r="AM162" s="98"/>
-      <c r="AN162" s="98"/>
-      <c r="AO162" s="98"/>
-      <c r="AP162" s="98"/>
-      <c r="AQ162" s="98"/>
-      <c r="AR162" s="98"/>
-      <c r="AS162" s="98"/>
-      <c r="AT162" s="98"/>
-      <c r="AU162" s="98"/>
-      <c r="AV162" s="98"/>
-      <c r="AW162" s="98"/>
-      <c r="AX162" s="98"/>
-      <c r="AY162" s="98"/>
-      <c r="AZ162" s="98"/>
-      <c r="BA162" s="98"/>
-      <c r="BB162" s="98"/>
-      <c r="BC162" s="98"/>
-      <c r="BD162" s="98"/>
-      <c r="BE162" s="98"/>
-      <c r="BF162" s="98"/>
-      <c r="BG162" s="98"/>
-      <c r="BH162" s="98"/>
-      <c r="BI162" s="98"/>
-      <c r="BJ162" s="98"/>
-      <c r="BK162" s="98"/>
-      <c r="BL162" s="98"/>
-      <c r="BM162" s="98"/>
-      <c r="BN162" s="98"/>
-      <c r="BO162" s="98"/>
-      <c r="BP162" s="98"/>
-      <c r="BQ162" s="98"/>
-      <c r="BR162" s="98"/>
-      <c r="BS162" s="98"/>
-      <c r="BT162" s="98"/>
-      <c r="BU162" s="98"/>
-      <c r="BV162" s="98"/>
-      <c r="BW162" s="98"/>
-      <c r="BX162" s="98"/>
-      <c r="BY162" s="98"/>
-      <c r="BZ162" s="98"/>
-      <c r="CA162" s="98"/>
-      <c r="CB162" s="98"/>
-      <c r="CC162" s="98"/>
-      <c r="CD162" s="98"/>
-      <c r="CE162" s="98"/>
-      <c r="CF162" s="98"/>
-      <c r="CG162" s="98"/>
-      <c r="CH162" s="98"/>
-      <c r="CI162" s="98"/>
-      <c r="CJ162" s="98"/>
-      <c r="CK162" s="98"/>
-      <c r="CL162" s="98"/>
-      <c r="CM162" s="98"/>
-      <c r="CN162" s="98"/>
-      <c r="CO162" s="98"/>
-      <c r="CP162" s="98"/>
-      <c r="CQ162" s="98"/>
-      <c r="CR162" s="98"/>
-      <c r="CS162" s="98"/>
-      <c r="CT162" s="98"/>
-      <c r="CU162" s="98"/>
-      <c r="CV162" s="98"/>
-      <c r="CW162" s="98"/>
-      <c r="CX162" s="98"/>
-      <c r="CY162" s="98"/>
-      <c r="CZ162" s="98"/>
-      <c r="DA162" s="98"/>
-      <c r="DB162" s="98"/>
-      <c r="DC162" s="98"/>
-      <c r="DD162" s="98"/>
-      <c r="DE162" s="98"/>
-      <c r="DF162" s="98"/>
-      <c r="DG162" s="98"/>
-      <c r="DH162" s="98"/>
-      <c r="DI162" s="98"/>
-      <c r="DJ162" s="98"/>
-      <c r="DK162" s="98"/>
-      <c r="DL162" s="98"/>
-      <c r="DM162" s="98"/>
-      <c r="DN162" s="98"/>
-      <c r="DO162" s="98"/>
-      <c r="DP162" s="98"/>
-      <c r="DQ162" s="98"/>
-      <c r="DR162" s="98"/>
-      <c r="DS162" s="98"/>
-      <c r="DT162" s="98"/>
-      <c r="DU162" s="98"/>
-      <c r="DV162" s="98"/>
-      <c r="DW162" s="98"/>
-      <c r="DX162" s="98"/>
-      <c r="DY162" s="98"/>
-      <c r="DZ162" s="98"/>
-      <c r="EA162" s="98"/>
-      <c r="EB162" s="98"/>
-      <c r="EC162" s="98"/>
-      <c r="ED162" s="98"/>
-      <c r="EE162" s="98"/>
-      <c r="EF162" s="98"/>
-      <c r="EG162" s="98"/>
-      <c r="EH162" s="98"/>
-      <c r="EI162" s="98"/>
-      <c r="EJ162" s="98"/>
-      <c r="EK162" s="98"/>
-      <c r="EL162" s="98"/>
-      <c r="EM162" s="98"/>
-      <c r="EN162" s="98"/>
-      <c r="EO162" s="98"/>
-      <c r="EP162" s="98"/>
-      <c r="EQ162" s="98"/>
-      <c r="ER162" s="98"/>
-      <c r="ES162" s="98"/>
-      <c r="ET162" s="98"/>
-      <c r="EU162" s="98"/>
-      <c r="EV162" s="98"/>
-      <c r="EW162" s="98"/>
-      <c r="EX162" s="98"/>
-      <c r="EY162" s="98"/>
-      <c r="EZ162" s="98"/>
-      <c r="FA162" s="98"/>
-      <c r="FB162" s="98"/>
-      <c r="FC162" s="98"/>
-      <c r="FD162" s="98"/>
-      <c r="FE162" s="98"/>
-      <c r="FF162" s="98"/>
-      <c r="FG162" s="98"/>
-      <c r="FH162" s="98"/>
-      <c r="FI162" s="98"/>
-      <c r="FJ162" s="98"/>
-      <c r="FK162" s="98"/>
-      <c r="FL162" s="98"/>
-      <c r="FM162" s="98"/>
-      <c r="FN162" s="98"/>
-      <c r="FO162" s="98"/>
-      <c r="FP162" s="98"/>
-      <c r="FQ162" s="98"/>
-      <c r="FR162" s="98"/>
-      <c r="FS162" s="98"/>
-      <c r="FT162" s="98"/>
-      <c r="FU162" s="98"/>
-      <c r="FV162" s="98"/>
-      <c r="FW162" s="98"/>
-      <c r="FX162" s="98"/>
-      <c r="FY162" s="98"/>
-      <c r="FZ162" s="98"/>
-      <c r="GA162" s="98"/>
-      <c r="GB162" s="98"/>
-      <c r="GC162" s="98"/>
-      <c r="GD162" s="98"/>
-      <c r="GE162" s="98"/>
-      <c r="GF162" s="98"/>
-      <c r="GG162" s="98"/>
-      <c r="GH162" s="98"/>
-      <c r="GI162" s="98"/>
-      <c r="GJ162" s="98"/>
-      <c r="GK162" s="98"/>
-      <c r="GL162" s="98"/>
-      <c r="GM162" s="98"/>
-      <c r="GN162" s="98"/>
-      <c r="GO162" s="98"/>
-      <c r="GP162" s="98"/>
-      <c r="GQ162" s="98"/>
-      <c r="GR162" s="98"/>
-      <c r="GS162" s="98"/>
-      <c r="GT162" s="98"/>
-      <c r="GU162" s="98"/>
-      <c r="GV162" s="98"/>
-      <c r="GW162" s="98"/>
-      <c r="GX162" s="98"/>
-      <c r="GY162" s="98"/>
-      <c r="GZ162" s="98"/>
-      <c r="HA162" s="98"/>
-      <c r="HB162" s="98"/>
-      <c r="HC162" s="98"/>
-      <c r="HD162" s="98"/>
-      <c r="HE162" s="98"/>
-      <c r="HF162" s="98"/>
-      <c r="HG162" s="98"/>
-      <c r="HH162" s="98"/>
-      <c r="HI162" s="98"/>
-      <c r="HJ162" s="98"/>
-      <c r="HK162" s="98"/>
-      <c r="HL162" s="98"/>
-      <c r="HM162" s="98"/>
-      <c r="HN162" s="98"/>
-      <c r="HO162" s="98"/>
-      <c r="HP162" s="98"/>
-      <c r="HQ162" s="98"/>
-      <c r="HR162" s="98"/>
-      <c r="HS162" s="98"/>
-      <c r="HT162" s="98"/>
-      <c r="HU162" s="98"/>
-      <c r="HV162" s="98"/>
-      <c r="HW162" s="98"/>
-      <c r="HX162" s="98"/>
-      <c r="HY162" s="98"/>
-      <c r="HZ162" s="98"/>
-      <c r="IA162" s="98"/>
-      <c r="IB162" s="98"/>
-      <c r="IC162" s="98"/>
-      <c r="ID162" s="98"/>
-      <c r="IE162" s="98"/>
-      <c r="IF162" s="98"/>
-      <c r="IG162" s="98"/>
-      <c r="IH162" s="98"/>
-      <c r="II162" s="98"/>
-      <c r="IJ162" s="98"/>
-      <c r="IK162" s="98"/>
-      <c r="IL162" s="98"/>
-      <c r="IM162" s="98"/>
-      <c r="IN162" s="98"/>
-      <c r="IO162" s="98"/>
-      <c r="IP162" s="98"/>
-      <c r="IQ162" s="98"/>
-      <c r="IR162" s="98"/>
-      <c r="IS162" s="98"/>
-      <c r="IT162" s="98"/>
-      <c r="IU162" s="98"/>
-      <c r="IV162" s="98"/>
-    </row>
-    <row r="163" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J162" s="97"/>
+      <c r="K162" s="97"/>
+      <c r="L162" s="97"/>
+      <c r="M162" s="100"/>
+      <c r="N162" s="100"/>
+      <c r="O162" s="96"/>
+      <c r="P162" s="96"/>
+      <c r="Q162" s="96"/>
+      <c r="R162" s="96"/>
+      <c r="S162" s="96"/>
+      <c r="T162" s="96"/>
+      <c r="U162" s="96"/>
+      <c r="V162" s="96"/>
+      <c r="W162" s="96"/>
+      <c r="X162" s="96"/>
+      <c r="Y162" s="96"/>
+      <c r="Z162" s="96"/>
+      <c r="AA162" s="96"/>
+      <c r="AB162" s="96"/>
+      <c r="AC162" s="96"/>
+      <c r="AD162" s="96"/>
+      <c r="AE162" s="96"/>
+      <c r="AF162" s="96"/>
+      <c r="AG162" s="96"/>
+      <c r="AH162" s="96"/>
+      <c r="AI162" s="96"/>
+      <c r="AJ162" s="96"/>
+      <c r="AK162" s="96"/>
+      <c r="AL162" s="96"/>
+      <c r="AM162" s="96"/>
+      <c r="AN162" s="96"/>
+      <c r="AO162" s="96"/>
+      <c r="AP162" s="96"/>
+      <c r="AQ162" s="96"/>
+      <c r="AR162" s="96"/>
+      <c r="AS162" s="96"/>
+      <c r="AT162" s="96"/>
+      <c r="AU162" s="96"/>
+      <c r="AV162" s="96"/>
+      <c r="AW162" s="96"/>
+      <c r="AX162" s="96"/>
+      <c r="AY162" s="96"/>
+      <c r="AZ162" s="96"/>
+      <c r="BA162" s="96"/>
+      <c r="BB162" s="96"/>
+      <c r="BC162" s="96"/>
+      <c r="BD162" s="96"/>
+      <c r="BE162" s="96"/>
+      <c r="BF162" s="96"/>
+      <c r="BG162" s="96"/>
+      <c r="BH162" s="96"/>
+      <c r="BI162" s="96"/>
+      <c r="BJ162" s="96"/>
+      <c r="BK162" s="96"/>
+      <c r="BL162" s="96"/>
+      <c r="BM162" s="96"/>
+      <c r="BN162" s="96"/>
+      <c r="BO162" s="96"/>
+      <c r="BP162" s="96"/>
+      <c r="BQ162" s="96"/>
+      <c r="BR162" s="96"/>
+      <c r="BS162" s="96"/>
+      <c r="BT162" s="96"/>
+      <c r="BU162" s="96"/>
+      <c r="BV162" s="96"/>
+      <c r="BW162" s="96"/>
+      <c r="BX162" s="96"/>
+      <c r="BY162" s="96"/>
+      <c r="BZ162" s="96"/>
+      <c r="CA162" s="96"/>
+      <c r="CB162" s="96"/>
+      <c r="CC162" s="96"/>
+      <c r="CD162" s="96"/>
+      <c r="CE162" s="96"/>
+      <c r="CF162" s="96"/>
+      <c r="CG162" s="96"/>
+      <c r="CH162" s="96"/>
+      <c r="CI162" s="96"/>
+      <c r="CJ162" s="96"/>
+      <c r="CK162" s="96"/>
+      <c r="CL162" s="96"/>
+      <c r="CM162" s="96"/>
+      <c r="CN162" s="96"/>
+      <c r="CO162" s="96"/>
+      <c r="CP162" s="96"/>
+      <c r="CQ162" s="96"/>
+      <c r="CR162" s="96"/>
+      <c r="CS162" s="96"/>
+      <c r="CT162" s="96"/>
+      <c r="CU162" s="96"/>
+      <c r="CV162" s="96"/>
+      <c r="CW162" s="96"/>
+      <c r="CX162" s="96"/>
+      <c r="CY162" s="96"/>
+      <c r="CZ162" s="96"/>
+      <c r="DA162" s="96"/>
+      <c r="DB162" s="96"/>
+      <c r="DC162" s="96"/>
+      <c r="DD162" s="96"/>
+      <c r="DE162" s="96"/>
+      <c r="DF162" s="96"/>
+      <c r="DG162" s="96"/>
+      <c r="DH162" s="96"/>
+      <c r="DI162" s="96"/>
+      <c r="DJ162" s="96"/>
+      <c r="DK162" s="96"/>
+      <c r="DL162" s="96"/>
+      <c r="DM162" s="96"/>
+      <c r="DN162" s="96"/>
+      <c r="DO162" s="96"/>
+      <c r="DP162" s="96"/>
+      <c r="DQ162" s="96"/>
+      <c r="DR162" s="96"/>
+      <c r="DS162" s="96"/>
+      <c r="DT162" s="96"/>
+      <c r="DU162" s="96"/>
+      <c r="DV162" s="96"/>
+      <c r="DW162" s="96"/>
+      <c r="DX162" s="96"/>
+      <c r="DY162" s="96"/>
+      <c r="DZ162" s="96"/>
+      <c r="EA162" s="96"/>
+      <c r="EB162" s="96"/>
+      <c r="EC162" s="96"/>
+      <c r="ED162" s="96"/>
+      <c r="EE162" s="96"/>
+      <c r="EF162" s="96"/>
+      <c r="EG162" s="96"/>
+      <c r="EH162" s="96"/>
+      <c r="EI162" s="96"/>
+      <c r="EJ162" s="96"/>
+      <c r="EK162" s="96"/>
+      <c r="EL162" s="96"/>
+      <c r="EM162" s="96"/>
+      <c r="EN162" s="96"/>
+      <c r="EO162" s="96"/>
+      <c r="EP162" s="96"/>
+      <c r="EQ162" s="96"/>
+      <c r="ER162" s="96"/>
+      <c r="ES162" s="96"/>
+      <c r="ET162" s="96"/>
+      <c r="EU162" s="96"/>
+      <c r="EV162" s="96"/>
+      <c r="EW162" s="96"/>
+      <c r="EX162" s="96"/>
+      <c r="EY162" s="96"/>
+      <c r="EZ162" s="96"/>
+      <c r="FA162" s="96"/>
+      <c r="FB162" s="96"/>
+      <c r="FC162" s="96"/>
+      <c r="FD162" s="96"/>
+      <c r="FE162" s="96"/>
+      <c r="FF162" s="96"/>
+      <c r="FG162" s="96"/>
+      <c r="FH162" s="96"/>
+      <c r="FI162" s="96"/>
+      <c r="FJ162" s="96"/>
+      <c r="FK162" s="96"/>
+      <c r="FL162" s="96"/>
+      <c r="FM162" s="96"/>
+      <c r="FN162" s="96"/>
+      <c r="FO162" s="96"/>
+      <c r="FP162" s="96"/>
+      <c r="FQ162" s="96"/>
+      <c r="FR162" s="96"/>
+      <c r="FS162" s="96"/>
+      <c r="FT162" s="96"/>
+      <c r="FU162" s="96"/>
+      <c r="FV162" s="96"/>
+      <c r="FW162" s="96"/>
+      <c r="FX162" s="96"/>
+      <c r="FY162" s="96"/>
+      <c r="FZ162" s="96"/>
+      <c r="GA162" s="96"/>
+      <c r="GB162" s="96"/>
+      <c r="GC162" s="96"/>
+      <c r="GD162" s="96"/>
+      <c r="GE162" s="96"/>
+      <c r="GF162" s="96"/>
+      <c r="GG162" s="96"/>
+      <c r="GH162" s="96"/>
+      <c r="GI162" s="96"/>
+      <c r="GJ162" s="96"/>
+      <c r="GK162" s="96"/>
+      <c r="GL162" s="96"/>
+      <c r="GM162" s="96"/>
+      <c r="GN162" s="96"/>
+      <c r="GO162" s="96"/>
+      <c r="GP162" s="96"/>
+      <c r="GQ162" s="96"/>
+      <c r="GR162" s="96"/>
+      <c r="GS162" s="96"/>
+      <c r="GT162" s="96"/>
+      <c r="GU162" s="96"/>
+      <c r="GV162" s="96"/>
+      <c r="GW162" s="96"/>
+      <c r="GX162" s="96"/>
+      <c r="GY162" s="96"/>
+      <c r="GZ162" s="96"/>
+      <c r="HA162" s="96"/>
+      <c r="HB162" s="96"/>
+      <c r="HC162" s="96"/>
+      <c r="HD162" s="96"/>
+      <c r="HE162" s="96"/>
+      <c r="HF162" s="96"/>
+      <c r="HG162" s="96"/>
+      <c r="HH162" s="96"/>
+      <c r="HI162" s="96"/>
+      <c r="HJ162" s="96"/>
+      <c r="HK162" s="96"/>
+      <c r="HL162" s="96"/>
+      <c r="HM162" s="96"/>
+      <c r="HN162" s="96"/>
+      <c r="HO162" s="96"/>
+      <c r="HP162" s="96"/>
+      <c r="HQ162" s="96"/>
+      <c r="HR162" s="96"/>
+      <c r="HS162" s="96"/>
+      <c r="HT162" s="96"/>
+      <c r="HU162" s="96"/>
+      <c r="HV162" s="96"/>
+      <c r="HW162" s="96"/>
+      <c r="HX162" s="96"/>
+      <c r="HY162" s="96"/>
+      <c r="HZ162" s="96"/>
+      <c r="IA162" s="96"/>
+      <c r="IB162" s="96"/>
+      <c r="IC162" s="96"/>
+      <c r="ID162" s="96"/>
+      <c r="IE162" s="96"/>
+      <c r="IF162" s="96"/>
+      <c r="IG162" s="96"/>
+      <c r="IH162" s="96"/>
+      <c r="II162" s="96"/>
+      <c r="IJ162" s="96"/>
+      <c r="IK162" s="96"/>
+      <c r="IL162" s="96"/>
+      <c r="IM162" s="96"/>
+      <c r="IN162" s="96"/>
+      <c r="IO162" s="96"/>
+      <c r="IP162" s="96"/>
+      <c r="IQ162" s="96"/>
+      <c r="IR162" s="96"/>
+      <c r="IS162" s="96"/>
+      <c r="IT162" s="96"/>
+      <c r="IU162" s="96"/>
+      <c r="IV162" s="96"/>
+      <c r="IW162" s="96"/>
+      <c r="IX162" s="96"/>
+      <c r="IY162" s="96"/>
+    </row>
+    <row r="163" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="103" t="s">
+      <c r="C163" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="D163" s="103"/>
-      <c r="E163" s="105"/>
-      <c r="F163" s="101"/>
-      <c r="G163" s="99"/>
-      <c r="H163" s="99"/>
+      <c r="D163" s="118"/>
+      <c r="E163" s="102"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="102"/>
+      <c r="H163" s="102"/>
       <c r="I163" s="99"/>
-      <c r="J163" s="102"/>
-      <c r="K163" s="102"/>
-      <c r="L163" s="98"/>
-      <c r="M163" s="98"/>
-      <c r="N163" s="98"/>
-      <c r="O163" s="98"/>
-      <c r="P163" s="98"/>
-      <c r="Q163" s="98"/>
-      <c r="R163" s="98"/>
-      <c r="S163" s="98"/>
-      <c r="T163" s="98"/>
-      <c r="U163" s="98"/>
-      <c r="V163" s="98"/>
-      <c r="W163" s="98"/>
-      <c r="X163" s="98"/>
-      <c r="Y163" s="98"/>
-      <c r="Z163" s="98"/>
-      <c r="AA163" s="98"/>
-      <c r="AB163" s="98"/>
-      <c r="AC163" s="98"/>
-      <c r="AD163" s="98"/>
-      <c r="AE163" s="98"/>
-      <c r="AF163" s="98"/>
-      <c r="AG163" s="98"/>
-      <c r="AH163" s="98"/>
-      <c r="AI163" s="98"/>
-      <c r="AJ163" s="98"/>
-      <c r="AK163" s="98"/>
-      <c r="AL163" s="98"/>
-      <c r="AM163" s="98"/>
-      <c r="AN163" s="98"/>
-      <c r="AO163" s="98"/>
-      <c r="AP163" s="98"/>
-      <c r="AQ163" s="98"/>
-      <c r="AR163" s="98"/>
-      <c r="AS163" s="98"/>
-      <c r="AT163" s="98"/>
-      <c r="AU163" s="98"/>
-      <c r="AV163" s="98"/>
-      <c r="AW163" s="98"/>
-      <c r="AX163" s="98"/>
-      <c r="AY163" s="98"/>
-      <c r="AZ163" s="98"/>
-      <c r="BA163" s="98"/>
-      <c r="BB163" s="98"/>
-      <c r="BC163" s="98"/>
-      <c r="BD163" s="98"/>
-      <c r="BE163" s="98"/>
-      <c r="BF163" s="98"/>
-      <c r="BG163" s="98"/>
-      <c r="BH163" s="98"/>
-      <c r="BI163" s="98"/>
-      <c r="BJ163" s="98"/>
-      <c r="BK163" s="98"/>
-      <c r="BL163" s="98"/>
-      <c r="BM163" s="98"/>
-      <c r="BN163" s="98"/>
-      <c r="BO163" s="98"/>
-      <c r="BP163" s="98"/>
-      <c r="BQ163" s="98"/>
-      <c r="BR163" s="98"/>
-      <c r="BS163" s="98"/>
-      <c r="BT163" s="98"/>
-      <c r="BU163" s="98"/>
-      <c r="BV163" s="98"/>
-      <c r="BW163" s="98"/>
-      <c r="BX163" s="98"/>
-      <c r="BY163" s="98"/>
-      <c r="BZ163" s="98"/>
-      <c r="CA163" s="98"/>
-      <c r="CB163" s="98"/>
-      <c r="CC163" s="98"/>
-      <c r="CD163" s="98"/>
-      <c r="CE163" s="98"/>
-      <c r="CF163" s="98"/>
-      <c r="CG163" s="98"/>
-      <c r="CH163" s="98"/>
-      <c r="CI163" s="98"/>
-      <c r="CJ163" s="98"/>
-      <c r="CK163" s="98"/>
-      <c r="CL163" s="98"/>
-      <c r="CM163" s="98"/>
-      <c r="CN163" s="98"/>
-      <c r="CO163" s="98"/>
-      <c r="CP163" s="98"/>
-      <c r="CQ163" s="98"/>
-      <c r="CR163" s="98"/>
-      <c r="CS163" s="98"/>
-      <c r="CT163" s="98"/>
-      <c r="CU163" s="98"/>
-      <c r="CV163" s="98"/>
-      <c r="CW163" s="98"/>
-      <c r="CX163" s="98"/>
-      <c r="CY163" s="98"/>
-      <c r="CZ163" s="98"/>
-      <c r="DA163" s="98"/>
-      <c r="DB163" s="98"/>
-      <c r="DC163" s="98"/>
-      <c r="DD163" s="98"/>
-      <c r="DE163" s="98"/>
-      <c r="DF163" s="98"/>
-      <c r="DG163" s="98"/>
-      <c r="DH163" s="98"/>
-      <c r="DI163" s="98"/>
-      <c r="DJ163" s="98"/>
-      <c r="DK163" s="98"/>
-      <c r="DL163" s="98"/>
-      <c r="DM163" s="98"/>
-      <c r="DN163" s="98"/>
-      <c r="DO163" s="98"/>
-      <c r="DP163" s="98"/>
-      <c r="DQ163" s="98"/>
-      <c r="DR163" s="98"/>
-      <c r="DS163" s="98"/>
-      <c r="DT163" s="98"/>
-      <c r="DU163" s="98"/>
-      <c r="DV163" s="98"/>
-      <c r="DW163" s="98"/>
-      <c r="DX163" s="98"/>
-      <c r="DY163" s="98"/>
-      <c r="DZ163" s="98"/>
-      <c r="EA163" s="98"/>
-      <c r="EB163" s="98"/>
-      <c r="EC163" s="98"/>
-      <c r="ED163" s="98"/>
-      <c r="EE163" s="98"/>
-      <c r="EF163" s="98"/>
-      <c r="EG163" s="98"/>
-      <c r="EH163" s="98"/>
-      <c r="EI163" s="98"/>
-      <c r="EJ163" s="98"/>
-      <c r="EK163" s="98"/>
-      <c r="EL163" s="98"/>
-      <c r="EM163" s="98"/>
-      <c r="EN163" s="98"/>
-      <c r="EO163" s="98"/>
-      <c r="EP163" s="98"/>
-      <c r="EQ163" s="98"/>
-      <c r="ER163" s="98"/>
-      <c r="ES163" s="98"/>
-      <c r="ET163" s="98"/>
-      <c r="EU163" s="98"/>
-      <c r="EV163" s="98"/>
-      <c r="EW163" s="98"/>
-      <c r="EX163" s="98"/>
-      <c r="EY163" s="98"/>
-      <c r="EZ163" s="98"/>
-      <c r="FA163" s="98"/>
-      <c r="FB163" s="98"/>
-      <c r="FC163" s="98"/>
-      <c r="FD163" s="98"/>
-      <c r="FE163" s="98"/>
-      <c r="FF163" s="98"/>
-      <c r="FG163" s="98"/>
-      <c r="FH163" s="98"/>
-      <c r="FI163" s="98"/>
-      <c r="FJ163" s="98"/>
-      <c r="FK163" s="98"/>
-      <c r="FL163" s="98"/>
-      <c r="FM163" s="98"/>
-      <c r="FN163" s="98"/>
-      <c r="FO163" s="98"/>
-      <c r="FP163" s="98"/>
-      <c r="FQ163" s="98"/>
-      <c r="FR163" s="98"/>
-      <c r="FS163" s="98"/>
-      <c r="FT163" s="98"/>
-      <c r="FU163" s="98"/>
-      <c r="FV163" s="98"/>
-      <c r="FW163" s="98"/>
-      <c r="FX163" s="98"/>
-      <c r="FY163" s="98"/>
-      <c r="FZ163" s="98"/>
-      <c r="GA163" s="98"/>
-      <c r="GB163" s="98"/>
-      <c r="GC163" s="98"/>
-      <c r="GD163" s="98"/>
-      <c r="GE163" s="98"/>
-      <c r="GF163" s="98"/>
-      <c r="GG163" s="98"/>
-      <c r="GH163" s="98"/>
-      <c r="GI163" s="98"/>
-      <c r="GJ163" s="98"/>
-      <c r="GK163" s="98"/>
-      <c r="GL163" s="98"/>
-      <c r="GM163" s="98"/>
-      <c r="GN163" s="98"/>
-      <c r="GO163" s="98"/>
-      <c r="GP163" s="98"/>
-      <c r="GQ163" s="98"/>
-      <c r="GR163" s="98"/>
-      <c r="GS163" s="98"/>
-      <c r="GT163" s="98"/>
-      <c r="GU163" s="98"/>
-      <c r="GV163" s="98"/>
-      <c r="GW163" s="98"/>
-      <c r="GX163" s="98"/>
-      <c r="GY163" s="98"/>
-      <c r="GZ163" s="98"/>
-      <c r="HA163" s="98"/>
-      <c r="HB163" s="98"/>
-      <c r="HC163" s="98"/>
-      <c r="HD163" s="98"/>
-      <c r="HE163" s="98"/>
-      <c r="HF163" s="98"/>
-      <c r="HG163" s="98"/>
-      <c r="HH163" s="98"/>
-      <c r="HI163" s="98"/>
-      <c r="HJ163" s="98"/>
-      <c r="HK163" s="98"/>
-      <c r="HL163" s="98"/>
-      <c r="HM163" s="98"/>
-      <c r="HN163" s="98"/>
-      <c r="HO163" s="98"/>
-      <c r="HP163" s="98"/>
-      <c r="HQ163" s="98"/>
-      <c r="HR163" s="98"/>
-      <c r="HS163" s="98"/>
-      <c r="HT163" s="98"/>
-      <c r="HU163" s="98"/>
-      <c r="HV163" s="98"/>
-      <c r="HW163" s="98"/>
-      <c r="HX163" s="98"/>
-      <c r="HY163" s="98"/>
-      <c r="HZ163" s="98"/>
-      <c r="IA163" s="98"/>
-      <c r="IB163" s="98"/>
-      <c r="IC163" s="98"/>
-      <c r="ID163" s="98"/>
-      <c r="IE163" s="98"/>
-      <c r="IF163" s="98"/>
-      <c r="IG163" s="98"/>
-      <c r="IH163" s="98"/>
-      <c r="II163" s="98"/>
-      <c r="IJ163" s="98"/>
-      <c r="IK163" s="98"/>
-      <c r="IL163" s="98"/>
-      <c r="IM163" s="98"/>
-      <c r="IN163" s="98"/>
-      <c r="IO163" s="98"/>
-      <c r="IP163" s="98"/>
-      <c r="IQ163" s="98"/>
-      <c r="IR163" s="98"/>
-      <c r="IS163" s="98"/>
-      <c r="IT163" s="98"/>
-      <c r="IU163" s="98"/>
-      <c r="IV163" s="98"/>
-    </row>
-    <row r="164" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="97"/>
+      <c r="K163" s="97"/>
+      <c r="L163" s="97"/>
+      <c r="M163" s="100"/>
+      <c r="N163" s="100"/>
+      <c r="O163" s="96"/>
+      <c r="P163" s="96"/>
+      <c r="Q163" s="96"/>
+      <c r="R163" s="96"/>
+      <c r="S163" s="96"/>
+      <c r="T163" s="96"/>
+      <c r="U163" s="96"/>
+      <c r="V163" s="96"/>
+      <c r="W163" s="96"/>
+      <c r="X163" s="96"/>
+      <c r="Y163" s="96"/>
+      <c r="Z163" s="96"/>
+      <c r="AA163" s="96"/>
+      <c r="AB163" s="96"/>
+      <c r="AC163" s="96"/>
+      <c r="AD163" s="96"/>
+      <c r="AE163" s="96"/>
+      <c r="AF163" s="96"/>
+      <c r="AG163" s="96"/>
+      <c r="AH163" s="96"/>
+      <c r="AI163" s="96"/>
+      <c r="AJ163" s="96"/>
+      <c r="AK163" s="96"/>
+      <c r="AL163" s="96"/>
+      <c r="AM163" s="96"/>
+      <c r="AN163" s="96"/>
+      <c r="AO163" s="96"/>
+      <c r="AP163" s="96"/>
+      <c r="AQ163" s="96"/>
+      <c r="AR163" s="96"/>
+      <c r="AS163" s="96"/>
+      <c r="AT163" s="96"/>
+      <c r="AU163" s="96"/>
+      <c r="AV163" s="96"/>
+      <c r="AW163" s="96"/>
+      <c r="AX163" s="96"/>
+      <c r="AY163" s="96"/>
+      <c r="AZ163" s="96"/>
+      <c r="BA163" s="96"/>
+      <c r="BB163" s="96"/>
+      <c r="BC163" s="96"/>
+      <c r="BD163" s="96"/>
+      <c r="BE163" s="96"/>
+      <c r="BF163" s="96"/>
+      <c r="BG163" s="96"/>
+      <c r="BH163" s="96"/>
+      <c r="BI163" s="96"/>
+      <c r="BJ163" s="96"/>
+      <c r="BK163" s="96"/>
+      <c r="BL163" s="96"/>
+      <c r="BM163" s="96"/>
+      <c r="BN163" s="96"/>
+      <c r="BO163" s="96"/>
+      <c r="BP163" s="96"/>
+      <c r="BQ163" s="96"/>
+      <c r="BR163" s="96"/>
+      <c r="BS163" s="96"/>
+      <c r="BT163" s="96"/>
+      <c r="BU163" s="96"/>
+      <c r="BV163" s="96"/>
+      <c r="BW163" s="96"/>
+      <c r="BX163" s="96"/>
+      <c r="BY163" s="96"/>
+      <c r="BZ163" s="96"/>
+      <c r="CA163" s="96"/>
+      <c r="CB163" s="96"/>
+      <c r="CC163" s="96"/>
+      <c r="CD163" s="96"/>
+      <c r="CE163" s="96"/>
+      <c r="CF163" s="96"/>
+      <c r="CG163" s="96"/>
+      <c r="CH163" s="96"/>
+      <c r="CI163" s="96"/>
+      <c r="CJ163" s="96"/>
+      <c r="CK163" s="96"/>
+      <c r="CL163" s="96"/>
+      <c r="CM163" s="96"/>
+      <c r="CN163" s="96"/>
+      <c r="CO163" s="96"/>
+      <c r="CP163" s="96"/>
+      <c r="CQ163" s="96"/>
+      <c r="CR163" s="96"/>
+      <c r="CS163" s="96"/>
+      <c r="CT163" s="96"/>
+      <c r="CU163" s="96"/>
+      <c r="CV163" s="96"/>
+      <c r="CW163" s="96"/>
+      <c r="CX163" s="96"/>
+      <c r="CY163" s="96"/>
+      <c r="CZ163" s="96"/>
+      <c r="DA163" s="96"/>
+      <c r="DB163" s="96"/>
+      <c r="DC163" s="96"/>
+      <c r="DD163" s="96"/>
+      <c r="DE163" s="96"/>
+      <c r="DF163" s="96"/>
+      <c r="DG163" s="96"/>
+      <c r="DH163" s="96"/>
+      <c r="DI163" s="96"/>
+      <c r="DJ163" s="96"/>
+      <c r="DK163" s="96"/>
+      <c r="DL163" s="96"/>
+      <c r="DM163" s="96"/>
+      <c r="DN163" s="96"/>
+      <c r="DO163" s="96"/>
+      <c r="DP163" s="96"/>
+      <c r="DQ163" s="96"/>
+      <c r="DR163" s="96"/>
+      <c r="DS163" s="96"/>
+      <c r="DT163" s="96"/>
+      <c r="DU163" s="96"/>
+      <c r="DV163" s="96"/>
+      <c r="DW163" s="96"/>
+      <c r="DX163" s="96"/>
+      <c r="DY163" s="96"/>
+      <c r="DZ163" s="96"/>
+      <c r="EA163" s="96"/>
+      <c r="EB163" s="96"/>
+      <c r="EC163" s="96"/>
+      <c r="ED163" s="96"/>
+      <c r="EE163" s="96"/>
+      <c r="EF163" s="96"/>
+      <c r="EG163" s="96"/>
+      <c r="EH163" s="96"/>
+      <c r="EI163" s="96"/>
+      <c r="EJ163" s="96"/>
+      <c r="EK163" s="96"/>
+      <c r="EL163" s="96"/>
+      <c r="EM163" s="96"/>
+      <c r="EN163" s="96"/>
+      <c r="EO163" s="96"/>
+      <c r="EP163" s="96"/>
+      <c r="EQ163" s="96"/>
+      <c r="ER163" s="96"/>
+      <c r="ES163" s="96"/>
+      <c r="ET163" s="96"/>
+      <c r="EU163" s="96"/>
+      <c r="EV163" s="96"/>
+      <c r="EW163" s="96"/>
+      <c r="EX163" s="96"/>
+      <c r="EY163" s="96"/>
+      <c r="EZ163" s="96"/>
+      <c r="FA163" s="96"/>
+      <c r="FB163" s="96"/>
+      <c r="FC163" s="96"/>
+      <c r="FD163" s="96"/>
+      <c r="FE163" s="96"/>
+      <c r="FF163" s="96"/>
+      <c r="FG163" s="96"/>
+      <c r="FH163" s="96"/>
+      <c r="FI163" s="96"/>
+      <c r="FJ163" s="96"/>
+      <c r="FK163" s="96"/>
+      <c r="FL163" s="96"/>
+      <c r="FM163" s="96"/>
+      <c r="FN163" s="96"/>
+      <c r="FO163" s="96"/>
+      <c r="FP163" s="96"/>
+      <c r="FQ163" s="96"/>
+      <c r="FR163" s="96"/>
+      <c r="FS163" s="96"/>
+      <c r="FT163" s="96"/>
+      <c r="FU163" s="96"/>
+      <c r="FV163" s="96"/>
+      <c r="FW163" s="96"/>
+      <c r="FX163" s="96"/>
+      <c r="FY163" s="96"/>
+      <c r="FZ163" s="96"/>
+      <c r="GA163" s="96"/>
+      <c r="GB163" s="96"/>
+      <c r="GC163" s="96"/>
+      <c r="GD163" s="96"/>
+      <c r="GE163" s="96"/>
+      <c r="GF163" s="96"/>
+      <c r="GG163" s="96"/>
+      <c r="GH163" s="96"/>
+      <c r="GI163" s="96"/>
+      <c r="GJ163" s="96"/>
+      <c r="GK163" s="96"/>
+      <c r="GL163" s="96"/>
+      <c r="GM163" s="96"/>
+      <c r="GN163" s="96"/>
+      <c r="GO163" s="96"/>
+      <c r="GP163" s="96"/>
+      <c r="GQ163" s="96"/>
+      <c r="GR163" s="96"/>
+      <c r="GS163" s="96"/>
+      <c r="GT163" s="96"/>
+      <c r="GU163" s="96"/>
+      <c r="GV163" s="96"/>
+      <c r="GW163" s="96"/>
+      <c r="GX163" s="96"/>
+      <c r="GY163" s="96"/>
+      <c r="GZ163" s="96"/>
+      <c r="HA163" s="96"/>
+      <c r="HB163" s="96"/>
+      <c r="HC163" s="96"/>
+      <c r="HD163" s="96"/>
+      <c r="HE163" s="96"/>
+      <c r="HF163" s="96"/>
+      <c r="HG163" s="96"/>
+      <c r="HH163" s="96"/>
+      <c r="HI163" s="96"/>
+      <c r="HJ163" s="96"/>
+      <c r="HK163" s="96"/>
+      <c r="HL163" s="96"/>
+      <c r="HM163" s="96"/>
+      <c r="HN163" s="96"/>
+      <c r="HO163" s="96"/>
+      <c r="HP163" s="96"/>
+      <c r="HQ163" s="96"/>
+      <c r="HR163" s="96"/>
+      <c r="HS163" s="96"/>
+      <c r="HT163" s="96"/>
+      <c r="HU163" s="96"/>
+      <c r="HV163" s="96"/>
+      <c r="HW163" s="96"/>
+      <c r="HX163" s="96"/>
+      <c r="HY163" s="96"/>
+      <c r="HZ163" s="96"/>
+      <c r="IA163" s="96"/>
+      <c r="IB163" s="96"/>
+      <c r="IC163" s="96"/>
+      <c r="ID163" s="96"/>
+      <c r="IE163" s="96"/>
+      <c r="IF163" s="96"/>
+      <c r="IG163" s="96"/>
+      <c r="IH163" s="96"/>
+      <c r="II163" s="96"/>
+      <c r="IJ163" s="96"/>
+      <c r="IK163" s="96"/>
+      <c r="IL163" s="96"/>
+      <c r="IM163" s="96"/>
+      <c r="IN163" s="96"/>
+      <c r="IO163" s="96"/>
+      <c r="IP163" s="96"/>
+      <c r="IQ163" s="96"/>
+      <c r="IR163" s="96"/>
+      <c r="IS163" s="96"/>
+      <c r="IT163" s="96"/>
+      <c r="IU163" s="96"/>
+      <c r="IV163" s="96"/>
+      <c r="IW163" s="96"/>
+      <c r="IX163" s="96"/>
+      <c r="IY163" s="96"/>
+    </row>
+    <row r="164" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="F164" s="101"/>
-      <c r="G164" s="99"/>
-      <c r="H164" s="99"/>
       <c r="I164" s="99"/>
-      <c r="J164" s="102"/>
-      <c r="K164" s="102"/>
-      <c r="L164" s="98"/>
-      <c r="M164" s="98"/>
-      <c r="N164" s="98"/>
-      <c r="O164" s="98"/>
-      <c r="P164" s="98"/>
-      <c r="Q164" s="98"/>
-      <c r="R164" s="98"/>
-      <c r="S164" s="98"/>
-      <c r="T164" s="98"/>
-      <c r="U164" s="98"/>
-      <c r="V164" s="98"/>
-      <c r="W164" s="98"/>
-      <c r="X164" s="98"/>
-      <c r="Y164" s="98"/>
-      <c r="Z164" s="98"/>
-      <c r="AA164" s="98"/>
-      <c r="AB164" s="98"/>
-      <c r="AC164" s="98"/>
-      <c r="AD164" s="98"/>
-      <c r="AE164" s="98"/>
-      <c r="AF164" s="98"/>
-      <c r="AG164" s="98"/>
-      <c r="AH164" s="98"/>
-      <c r="AI164" s="98"/>
-      <c r="AJ164" s="98"/>
-      <c r="AK164" s="98"/>
-      <c r="AL164" s="98"/>
-      <c r="AM164" s="98"/>
-      <c r="AN164" s="98"/>
-      <c r="AO164" s="98"/>
-      <c r="AP164" s="98"/>
-      <c r="AQ164" s="98"/>
-      <c r="AR164" s="98"/>
-      <c r="AS164" s="98"/>
-      <c r="AT164" s="98"/>
-      <c r="AU164" s="98"/>
-      <c r="AV164" s="98"/>
-      <c r="AW164" s="98"/>
-      <c r="AX164" s="98"/>
-      <c r="AY164" s="98"/>
-      <c r="AZ164" s="98"/>
-      <c r="BA164" s="98"/>
-      <c r="BB164" s="98"/>
-      <c r="BC164" s="98"/>
-      <c r="BD164" s="98"/>
-      <c r="BE164" s="98"/>
-      <c r="BF164" s="98"/>
-      <c r="BG164" s="98"/>
-      <c r="BH164" s="98"/>
-      <c r="BI164" s="98"/>
-      <c r="BJ164" s="98"/>
-      <c r="BK164" s="98"/>
-      <c r="BL164" s="98"/>
-      <c r="BM164" s="98"/>
-      <c r="BN164" s="98"/>
-      <c r="BO164" s="98"/>
-      <c r="BP164" s="98"/>
-      <c r="BQ164" s="98"/>
-      <c r="BR164" s="98"/>
-      <c r="BS164" s="98"/>
-      <c r="BT164" s="98"/>
-      <c r="BU164" s="98"/>
-      <c r="BV164" s="98"/>
-      <c r="BW164" s="98"/>
-      <c r="BX164" s="98"/>
-      <c r="BY164" s="98"/>
-      <c r="BZ164" s="98"/>
-      <c r="CA164" s="98"/>
-      <c r="CB164" s="98"/>
-      <c r="CC164" s="98"/>
-      <c r="CD164" s="98"/>
-      <c r="CE164" s="98"/>
-      <c r="CF164" s="98"/>
-      <c r="CG164" s="98"/>
-      <c r="CH164" s="98"/>
-      <c r="CI164" s="98"/>
-      <c r="CJ164" s="98"/>
-      <c r="CK164" s="98"/>
-      <c r="CL164" s="98"/>
-      <c r="CM164" s="98"/>
-      <c r="CN164" s="98"/>
-      <c r="CO164" s="98"/>
-      <c r="CP164" s="98"/>
-      <c r="CQ164" s="98"/>
-      <c r="CR164" s="98"/>
-      <c r="CS164" s="98"/>
-      <c r="CT164" s="98"/>
-      <c r="CU164" s="98"/>
-      <c r="CV164" s="98"/>
-      <c r="CW164" s="98"/>
-      <c r="CX164" s="98"/>
-      <c r="CY164" s="98"/>
-      <c r="CZ164" s="98"/>
-      <c r="DA164" s="98"/>
-      <c r="DB164" s="98"/>
-      <c r="DC164" s="98"/>
-      <c r="DD164" s="98"/>
-      <c r="DE164" s="98"/>
-      <c r="DF164" s="98"/>
-      <c r="DG164" s="98"/>
-      <c r="DH164" s="98"/>
-      <c r="DI164" s="98"/>
-      <c r="DJ164" s="98"/>
-      <c r="DK164" s="98"/>
-      <c r="DL164" s="98"/>
-      <c r="DM164" s="98"/>
-      <c r="DN164" s="98"/>
-      <c r="DO164" s="98"/>
-      <c r="DP164" s="98"/>
-      <c r="DQ164" s="98"/>
-      <c r="DR164" s="98"/>
-      <c r="DS164" s="98"/>
-      <c r="DT164" s="98"/>
-      <c r="DU164" s="98"/>
-      <c r="DV164" s="98"/>
-      <c r="DW164" s="98"/>
-      <c r="DX164" s="98"/>
-      <c r="DY164" s="98"/>
-      <c r="DZ164" s="98"/>
-      <c r="EA164" s="98"/>
-      <c r="EB164" s="98"/>
-      <c r="EC164" s="98"/>
-      <c r="ED164" s="98"/>
-      <c r="EE164" s="98"/>
-      <c r="EF164" s="98"/>
-      <c r="EG164" s="98"/>
-      <c r="EH164" s="98"/>
-      <c r="EI164" s="98"/>
-      <c r="EJ164" s="98"/>
-      <c r="EK164" s="98"/>
-      <c r="EL164" s="98"/>
-      <c r="EM164" s="98"/>
-      <c r="EN164" s="98"/>
-      <c r="EO164" s="98"/>
-      <c r="EP164" s="98"/>
-      <c r="EQ164" s="98"/>
-      <c r="ER164" s="98"/>
-      <c r="ES164" s="98"/>
-      <c r="ET164" s="98"/>
-      <c r="EU164" s="98"/>
-      <c r="EV164" s="98"/>
-      <c r="EW164" s="98"/>
-      <c r="EX164" s="98"/>
-      <c r="EY164" s="98"/>
-      <c r="EZ164" s="98"/>
-      <c r="FA164" s="98"/>
-      <c r="FB164" s="98"/>
-      <c r="FC164" s="98"/>
-      <c r="FD164" s="98"/>
-      <c r="FE164" s="98"/>
-      <c r="FF164" s="98"/>
-      <c r="FG164" s="98"/>
-      <c r="FH164" s="98"/>
-      <c r="FI164" s="98"/>
-      <c r="FJ164" s="98"/>
-      <c r="FK164" s="98"/>
-      <c r="FL164" s="98"/>
-      <c r="FM164" s="98"/>
-      <c r="FN164" s="98"/>
-      <c r="FO164" s="98"/>
-      <c r="FP164" s="98"/>
-      <c r="FQ164" s="98"/>
-      <c r="FR164" s="98"/>
-      <c r="FS164" s="98"/>
-      <c r="FT164" s="98"/>
-      <c r="FU164" s="98"/>
-      <c r="FV164" s="98"/>
-      <c r="FW164" s="98"/>
-      <c r="FX164" s="98"/>
-      <c r="FY164" s="98"/>
-      <c r="FZ164" s="98"/>
-      <c r="GA164" s="98"/>
-      <c r="GB164" s="98"/>
-      <c r="GC164" s="98"/>
-      <c r="GD164" s="98"/>
-      <c r="GE164" s="98"/>
-      <c r="GF164" s="98"/>
-      <c r="GG164" s="98"/>
-      <c r="GH164" s="98"/>
-      <c r="GI164" s="98"/>
-      <c r="GJ164" s="98"/>
-      <c r="GK164" s="98"/>
-      <c r="GL164" s="98"/>
-      <c r="GM164" s="98"/>
-      <c r="GN164" s="98"/>
-      <c r="GO164" s="98"/>
-      <c r="GP164" s="98"/>
-      <c r="GQ164" s="98"/>
-      <c r="GR164" s="98"/>
-      <c r="GS164" s="98"/>
-      <c r="GT164" s="98"/>
-      <c r="GU164" s="98"/>
-      <c r="GV164" s="98"/>
-      <c r="GW164" s="98"/>
-      <c r="GX164" s="98"/>
-      <c r="GY164" s="98"/>
-      <c r="GZ164" s="98"/>
-      <c r="HA164" s="98"/>
-      <c r="HB164" s="98"/>
-      <c r="HC164" s="98"/>
-      <c r="HD164" s="98"/>
-      <c r="HE164" s="98"/>
-      <c r="HF164" s="98"/>
-      <c r="HG164" s="98"/>
-      <c r="HH164" s="98"/>
-      <c r="HI164" s="98"/>
-      <c r="HJ164" s="98"/>
-      <c r="HK164" s="98"/>
-      <c r="HL164" s="98"/>
-      <c r="HM164" s="98"/>
-      <c r="HN164" s="98"/>
-      <c r="HO164" s="98"/>
-      <c r="HP164" s="98"/>
-      <c r="HQ164" s="98"/>
-      <c r="HR164" s="98"/>
-      <c r="HS164" s="98"/>
-      <c r="HT164" s="98"/>
-      <c r="HU164" s="98"/>
-      <c r="HV164" s="98"/>
-      <c r="HW164" s="98"/>
-      <c r="HX164" s="98"/>
-      <c r="HY164" s="98"/>
-      <c r="HZ164" s="98"/>
-      <c r="IA164" s="98"/>
-      <c r="IB164" s="98"/>
-      <c r="IC164" s="98"/>
-      <c r="ID164" s="98"/>
-      <c r="IE164" s="98"/>
-      <c r="IF164" s="98"/>
-      <c r="IG164" s="98"/>
-      <c r="IH164" s="98"/>
-      <c r="II164" s="98"/>
-      <c r="IJ164" s="98"/>
-      <c r="IK164" s="98"/>
-      <c r="IL164" s="98"/>
-      <c r="IM164" s="98"/>
-      <c r="IN164" s="98"/>
-      <c r="IO164" s="98"/>
-      <c r="IP164" s="98"/>
-      <c r="IQ164" s="98"/>
-      <c r="IR164" s="98"/>
-      <c r="IS164" s="98"/>
-      <c r="IT164" s="98"/>
-      <c r="IU164" s="98"/>
-      <c r="IV164" s="98"/>
-    </row>
-    <row r="165" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J164" s="97"/>
+      <c r="K164" s="97"/>
+      <c r="L164" s="97"/>
+      <c r="M164" s="100"/>
+      <c r="N164" s="100"/>
+      <c r="O164" s="96"/>
+      <c r="P164" s="96"/>
+      <c r="Q164" s="96"/>
+      <c r="R164" s="96"/>
+      <c r="S164" s="96"/>
+      <c r="T164" s="96"/>
+      <c r="U164" s="96"/>
+      <c r="V164" s="96"/>
+      <c r="W164" s="96"/>
+      <c r="X164" s="96"/>
+      <c r="Y164" s="96"/>
+      <c r="Z164" s="96"/>
+      <c r="AA164" s="96"/>
+      <c r="AB164" s="96"/>
+      <c r="AC164" s="96"/>
+      <c r="AD164" s="96"/>
+      <c r="AE164" s="96"/>
+      <c r="AF164" s="96"/>
+      <c r="AG164" s="96"/>
+      <c r="AH164" s="96"/>
+      <c r="AI164" s="96"/>
+      <c r="AJ164" s="96"/>
+      <c r="AK164" s="96"/>
+      <c r="AL164" s="96"/>
+      <c r="AM164" s="96"/>
+      <c r="AN164" s="96"/>
+      <c r="AO164" s="96"/>
+      <c r="AP164" s="96"/>
+      <c r="AQ164" s="96"/>
+      <c r="AR164" s="96"/>
+      <c r="AS164" s="96"/>
+      <c r="AT164" s="96"/>
+      <c r="AU164" s="96"/>
+      <c r="AV164" s="96"/>
+      <c r="AW164" s="96"/>
+      <c r="AX164" s="96"/>
+      <c r="AY164" s="96"/>
+      <c r="AZ164" s="96"/>
+      <c r="BA164" s="96"/>
+      <c r="BB164" s="96"/>
+      <c r="BC164" s="96"/>
+      <c r="BD164" s="96"/>
+      <c r="BE164" s="96"/>
+      <c r="BF164" s="96"/>
+      <c r="BG164" s="96"/>
+      <c r="BH164" s="96"/>
+      <c r="BI164" s="96"/>
+      <c r="BJ164" s="96"/>
+      <c r="BK164" s="96"/>
+      <c r="BL164" s="96"/>
+      <c r="BM164" s="96"/>
+      <c r="BN164" s="96"/>
+      <c r="BO164" s="96"/>
+      <c r="BP164" s="96"/>
+      <c r="BQ164" s="96"/>
+      <c r="BR164" s="96"/>
+      <c r="BS164" s="96"/>
+      <c r="BT164" s="96"/>
+      <c r="BU164" s="96"/>
+      <c r="BV164" s="96"/>
+      <c r="BW164" s="96"/>
+      <c r="BX164" s="96"/>
+      <c r="BY164" s="96"/>
+      <c r="BZ164" s="96"/>
+      <c r="CA164" s="96"/>
+      <c r="CB164" s="96"/>
+      <c r="CC164" s="96"/>
+      <c r="CD164" s="96"/>
+      <c r="CE164" s="96"/>
+      <c r="CF164" s="96"/>
+      <c r="CG164" s="96"/>
+      <c r="CH164" s="96"/>
+      <c r="CI164" s="96"/>
+      <c r="CJ164" s="96"/>
+      <c r="CK164" s="96"/>
+      <c r="CL164" s="96"/>
+      <c r="CM164" s="96"/>
+      <c r="CN164" s="96"/>
+      <c r="CO164" s="96"/>
+      <c r="CP164" s="96"/>
+      <c r="CQ164" s="96"/>
+      <c r="CR164" s="96"/>
+      <c r="CS164" s="96"/>
+      <c r="CT164" s="96"/>
+      <c r="CU164" s="96"/>
+      <c r="CV164" s="96"/>
+      <c r="CW164" s="96"/>
+      <c r="CX164" s="96"/>
+      <c r="CY164" s="96"/>
+      <c r="CZ164" s="96"/>
+      <c r="DA164" s="96"/>
+      <c r="DB164" s="96"/>
+      <c r="DC164" s="96"/>
+      <c r="DD164" s="96"/>
+      <c r="DE164" s="96"/>
+      <c r="DF164" s="96"/>
+      <c r="DG164" s="96"/>
+      <c r="DH164" s="96"/>
+      <c r="DI164" s="96"/>
+      <c r="DJ164" s="96"/>
+      <c r="DK164" s="96"/>
+      <c r="DL164" s="96"/>
+      <c r="DM164" s="96"/>
+      <c r="DN164" s="96"/>
+      <c r="DO164" s="96"/>
+      <c r="DP164" s="96"/>
+      <c r="DQ164" s="96"/>
+      <c r="DR164" s="96"/>
+      <c r="DS164" s="96"/>
+      <c r="DT164" s="96"/>
+      <c r="DU164" s="96"/>
+      <c r="DV164" s="96"/>
+      <c r="DW164" s="96"/>
+      <c r="DX164" s="96"/>
+      <c r="DY164" s="96"/>
+      <c r="DZ164" s="96"/>
+      <c r="EA164" s="96"/>
+      <c r="EB164" s="96"/>
+      <c r="EC164" s="96"/>
+      <c r="ED164" s="96"/>
+      <c r="EE164" s="96"/>
+      <c r="EF164" s="96"/>
+      <c r="EG164" s="96"/>
+      <c r="EH164" s="96"/>
+      <c r="EI164" s="96"/>
+      <c r="EJ164" s="96"/>
+      <c r="EK164" s="96"/>
+      <c r="EL164" s="96"/>
+      <c r="EM164" s="96"/>
+      <c r="EN164" s="96"/>
+      <c r="EO164" s="96"/>
+      <c r="EP164" s="96"/>
+      <c r="EQ164" s="96"/>
+      <c r="ER164" s="96"/>
+      <c r="ES164" s="96"/>
+      <c r="ET164" s="96"/>
+      <c r="EU164" s="96"/>
+      <c r="EV164" s="96"/>
+      <c r="EW164" s="96"/>
+      <c r="EX164" s="96"/>
+      <c r="EY164" s="96"/>
+      <c r="EZ164" s="96"/>
+      <c r="FA164" s="96"/>
+      <c r="FB164" s="96"/>
+      <c r="FC164" s="96"/>
+      <c r="FD164" s="96"/>
+      <c r="FE164" s="96"/>
+      <c r="FF164" s="96"/>
+      <c r="FG164" s="96"/>
+      <c r="FH164" s="96"/>
+      <c r="FI164" s="96"/>
+      <c r="FJ164" s="96"/>
+      <c r="FK164" s="96"/>
+      <c r="FL164" s="96"/>
+      <c r="FM164" s="96"/>
+      <c r="FN164" s="96"/>
+      <c r="FO164" s="96"/>
+      <c r="FP164" s="96"/>
+      <c r="FQ164" s="96"/>
+      <c r="FR164" s="96"/>
+      <c r="FS164" s="96"/>
+      <c r="FT164" s="96"/>
+      <c r="FU164" s="96"/>
+      <c r="FV164" s="96"/>
+      <c r="FW164" s="96"/>
+      <c r="FX164" s="96"/>
+      <c r="FY164" s="96"/>
+      <c r="FZ164" s="96"/>
+      <c r="GA164" s="96"/>
+      <c r="GB164" s="96"/>
+      <c r="GC164" s="96"/>
+      <c r="GD164" s="96"/>
+      <c r="GE164" s="96"/>
+      <c r="GF164" s="96"/>
+      <c r="GG164" s="96"/>
+      <c r="GH164" s="96"/>
+      <c r="GI164" s="96"/>
+      <c r="GJ164" s="96"/>
+      <c r="GK164" s="96"/>
+      <c r="GL164" s="96"/>
+      <c r="GM164" s="96"/>
+      <c r="GN164" s="96"/>
+      <c r="GO164" s="96"/>
+      <c r="GP164" s="96"/>
+      <c r="GQ164" s="96"/>
+      <c r="GR164" s="96"/>
+      <c r="GS164" s="96"/>
+      <c r="GT164" s="96"/>
+      <c r="GU164" s="96"/>
+      <c r="GV164" s="96"/>
+      <c r="GW164" s="96"/>
+      <c r="GX164" s="96"/>
+      <c r="GY164" s="96"/>
+      <c r="GZ164" s="96"/>
+      <c r="HA164" s="96"/>
+      <c r="HB164" s="96"/>
+      <c r="HC164" s="96"/>
+      <c r="HD164" s="96"/>
+      <c r="HE164" s="96"/>
+      <c r="HF164" s="96"/>
+      <c r="HG164" s="96"/>
+      <c r="HH164" s="96"/>
+      <c r="HI164" s="96"/>
+      <c r="HJ164" s="96"/>
+      <c r="HK164" s="96"/>
+      <c r="HL164" s="96"/>
+      <c r="HM164" s="96"/>
+      <c r="HN164" s="96"/>
+      <c r="HO164" s="96"/>
+      <c r="HP164" s="96"/>
+      <c r="HQ164" s="96"/>
+      <c r="HR164" s="96"/>
+      <c r="HS164" s="96"/>
+      <c r="HT164" s="96"/>
+      <c r="HU164" s="96"/>
+      <c r="HV164" s="96"/>
+      <c r="HW164" s="96"/>
+      <c r="HX164" s="96"/>
+      <c r="HY164" s="96"/>
+      <c r="HZ164" s="96"/>
+      <c r="IA164" s="96"/>
+      <c r="IB164" s="96"/>
+      <c r="IC164" s="96"/>
+      <c r="ID164" s="96"/>
+      <c r="IE164" s="96"/>
+      <c r="IF164" s="96"/>
+      <c r="IG164" s="96"/>
+      <c r="IH164" s="96"/>
+      <c r="II164" s="96"/>
+      <c r="IJ164" s="96"/>
+      <c r="IK164" s="96"/>
+      <c r="IL164" s="96"/>
+      <c r="IM164" s="96"/>
+      <c r="IN164" s="96"/>
+      <c r="IO164" s="96"/>
+      <c r="IP164" s="96"/>
+      <c r="IQ164" s="96"/>
+      <c r="IR164" s="96"/>
+      <c r="IS164" s="96"/>
+      <c r="IT164" s="96"/>
+      <c r="IU164" s="96"/>
+      <c r="IV164" s="96"/>
+      <c r="IW164" s="96"/>
+      <c r="IX164" s="96"/>
+      <c r="IY164" s="96"/>
+    </row>
+    <row r="165" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="104"/>
-      <c r="H165" s="104"/>
-      <c r="I165" s="104"/>
-      <c r="J165" s="117"/>
-      <c r="K165" s="117"/>
-    </row>
-    <row r="166" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I165" s="112"/>
+      <c r="J165" s="101"/>
+      <c r="K165" s="101"/>
+      <c r="L165" s="101"/>
+      <c r="M165" s="113"/>
+      <c r="N165" s="113"/>
+    </row>
+    <row r="166" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="F166" s="118"/>
-      <c r="G166" s="107"/>
-      <c r="H166" s="107"/>
-      <c r="I166" s="107"/>
-      <c r="J166" s="107"/>
-      <c r="K166" s="107"/>
-    </row>
-    <row r="167" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I166" s="114"/>
+      <c r="J166" s="104"/>
+      <c r="K166" s="104"/>
+      <c r="L166" s="104"/>
+      <c r="M166" s="104"/>
+      <c r="N166" s="104"/>
+    </row>
+    <row r="167" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="F167" s="119"/>
-    </row>
-    <row r="168" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="115"/>
+    </row>
+    <row r="168" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:259" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="F169" s="104"/>
-      <c r="G169" s="121"/>
-      <c r="H169" s="121"/>
-      <c r="I169" s="121"/>
+      <c r="I169" s="101"/>
+      <c r="J169" s="117"/>
+      <c r="K169" s="117"/>
+      <c r="L169" s="117"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:J136"/>
   <mergeCells count="11">
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="D146:E146"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
